--- a/QTOCostEstimation/Lot 13_Comparison.xlsx
+++ b/QTOCostEstimation/Lot 13_Comparison.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h\AppData\Roaming\Autodesk\Revit\Addins\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tool-Deployment-Order\QTOCostEstimation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>Total Budget Amount</t>
   </si>
   <si>
     <t>Lot #</t>
@@ -271,7 +268,10 @@
     <t xml:space="preserve">Location Low End Sq. Ft. </t>
   </si>
   <si>
-    <t>Report Total Budget Amount</t>
+    <t>Customer Submitted</t>
+  </si>
+  <si>
+    <t>BQFA Budget</t>
   </si>
 </sst>
 </file>
@@ -5347,7 +5347,7 @@
   <dimension ref="A1:L598"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5378,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I1" s="44" t="s">
         <v>2</v>
@@ -5389,7 +5389,7 @@
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="6"/>
       <c r="I2" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J2" s="46"/>
       <c r="K2" s="42"/>
@@ -5401,7 +5401,7 @@
       <c r="D3" s="52"/>
       <c r="E3" s="53"/>
       <c r="I3" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J3" s="46"/>
       <c r="K3" s="42"/>
@@ -5409,7 +5409,7 @@
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="6"/>
       <c r="I4" s="45" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J4" s="48">
         <f>E64</f>
@@ -5430,14 +5430,14 @@
       <c r="D5" s="55"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" s="50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J5" s="40">
         <v>350</v>
@@ -5447,16 +5447,16 @@
         <v>0</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="C6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>10</v>
       </c>
       <c r="E6" s="27" t="e">
         <f t="shared" ref="E6:E37" si="0">F6/$E$64</f>
@@ -5473,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J6" s="39">
         <v>175</v>
@@ -5490,10 +5490,10 @@
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="C7" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="27" t="e">
         <f t="shared" si="0"/>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J7" s="49" t="e">
         <f>E64/J3</f>
@@ -5528,10 +5528,10 @@
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="C8" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="27" t="e">
         <f t="shared" si="0"/>
@@ -5548,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J8" s="40">
         <v>207</v>
@@ -5565,10 +5565,10 @@
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="C9" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="27" t="e">
         <f t="shared" si="0"/>
@@ -5585,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J9" s="31" t="e">
         <f>J7*0.89</f>
@@ -5603,10 +5603,10 @@
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="C10" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="27" t="e">
         <f t="shared" si="0"/>
@@ -5633,10 +5633,10 @@
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="C11" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="27" t="e">
         <f t="shared" si="0"/>
@@ -5663,10 +5663,10 @@
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="C12" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="27" t="e">
         <f t="shared" si="0"/>
@@ -5693,10 +5693,10 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="C13" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="27" t="e">
         <f t="shared" si="0"/>
@@ -5726,10 +5726,10 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="C14" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E14" s="27" t="e">
         <f t="shared" si="0"/>
@@ -5759,10 +5759,10 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="C15" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" s="27" t="e">
         <f t="shared" si="0"/>
@@ -5792,10 +5792,10 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="C16" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="27" t="e">
         <f t="shared" si="0"/>
@@ -5825,10 +5825,10 @@
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="C17" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E17" s="27" t="e">
         <f t="shared" si="0"/>
@@ -5858,10 +5858,10 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="C18" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" s="27" t="e">
         <f t="shared" si="0"/>
@@ -5891,10 +5891,10 @@
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="C19" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" s="27" t="e">
         <f t="shared" si="0"/>
@@ -5924,10 +5924,10 @@
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="C20" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="27" t="e">
         <f t="shared" si="0"/>
@@ -5957,10 +5957,10 @@
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="C21" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" s="27" t="e">
         <f t="shared" si="0"/>
@@ -5990,10 +5990,10 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="C22" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E22" s="27" t="e">
         <f t="shared" si="0"/>
@@ -6023,10 +6023,10 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="C23" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" s="27" t="e">
         <f t="shared" si="0"/>
@@ -6056,10 +6056,10 @@
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="C24" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" s="27" t="e">
         <f t="shared" si="0"/>
@@ -6089,10 +6089,10 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="C25" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" s="27" t="e">
         <f t="shared" si="0"/>
@@ -6122,10 +6122,10 @@
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="C26" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" s="27" t="e">
         <f t="shared" si="0"/>
@@ -6155,10 +6155,10 @@
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="C27" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E27" s="27" t="e">
         <f t="shared" si="0"/>
@@ -6188,10 +6188,10 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="C28" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28" s="27" t="e">
         <f t="shared" si="0"/>
@@ -6221,10 +6221,10 @@
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="C29" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29" s="27" t="e">
         <f t="shared" si="0"/>
@@ -6254,10 +6254,10 @@
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="C30" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30" s="27" t="e">
         <f t="shared" si="0"/>
@@ -6287,10 +6287,10 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="C31" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" s="27" t="e">
         <f t="shared" si="0"/>
@@ -6320,10 +6320,10 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="C32" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32" s="27" t="e">
         <f t="shared" si="0"/>
@@ -6353,10 +6353,10 @@
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="C33" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" s="27" t="e">
         <f t="shared" si="0"/>
@@ -6386,10 +6386,10 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="C34" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E34" s="27" t="e">
         <f t="shared" si="0"/>
@@ -6419,10 +6419,10 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="C35" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E35" s="27" t="e">
         <f t="shared" si="0"/>
@@ -6452,10 +6452,10 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="C36" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E36" s="27" t="e">
         <f t="shared" si="0"/>
@@ -6485,10 +6485,10 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="C37" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E37" s="27" t="e">
         <f t="shared" si="0"/>
@@ -6518,10 +6518,10 @@
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="C38" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E38" s="27" t="e">
         <f t="shared" ref="E38:E62" si="4">F38/$E$64</f>
@@ -6551,10 +6551,10 @@
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="C39" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E39" s="27" t="e">
         <f t="shared" si="4"/>
@@ -6584,10 +6584,10 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="C40" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E40" s="27" t="e">
         <f t="shared" si="4"/>
@@ -6617,10 +6617,10 @@
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="C41" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E41" s="27" t="e">
         <f t="shared" si="4"/>
@@ -6650,10 +6650,10 @@
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="C42" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E42" s="27" t="e">
         <f t="shared" si="4"/>
@@ -6683,10 +6683,10 @@
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="C43" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E43" s="27" t="e">
         <f t="shared" si="4"/>
@@ -6716,10 +6716,10 @@
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="C44" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D44" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E44" s="27" t="e">
         <f t="shared" si="4"/>
@@ -6749,10 +6749,10 @@
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="C45" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E45" s="27" t="e">
         <f t="shared" si="4"/>
@@ -6782,10 +6782,10 @@
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="C46" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E46" s="27" t="e">
         <f t="shared" si="4"/>
@@ -6815,10 +6815,10 @@
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="C47" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D47" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E47" s="27" t="e">
         <f t="shared" si="4"/>
@@ -6848,10 +6848,10 @@
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="C48" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D48" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E48" s="27" t="e">
         <f t="shared" si="4"/>
@@ -6881,10 +6881,10 @@
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="C49" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E49" s="27" t="e">
         <f t="shared" si="4"/>
@@ -6914,10 +6914,10 @@
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="C50" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D50" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E50" s="27" t="e">
         <f t="shared" si="4"/>
@@ -6947,10 +6947,10 @@
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="C51" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D51" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E51" s="27" t="e">
         <f t="shared" si="4"/>
@@ -6980,10 +6980,10 @@
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="C52" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D52" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52" s="27" t="e">
         <f t="shared" si="4"/>
@@ -7013,10 +7013,10 @@
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="C53" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D53" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E53" s="27" t="e">
         <f t="shared" si="4"/>
@@ -7046,10 +7046,10 @@
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="C54" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D54" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E54" s="27" t="e">
         <f t="shared" si="4"/>
@@ -7079,10 +7079,10 @@
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="C55" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E55" s="27" t="e">
         <f t="shared" si="4"/>
@@ -7112,10 +7112,10 @@
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="C56" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D56" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E56" s="27" t="e">
         <f t="shared" si="4"/>
@@ -7145,10 +7145,10 @@
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="C57" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D57" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E57" s="27" t="e">
         <f t="shared" si="4"/>
@@ -7178,10 +7178,10 @@
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="C58" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E58" s="27" t="e">
         <f t="shared" si="4"/>
@@ -7211,10 +7211,10 @@
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="C59" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D59" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E59" s="27" t="e">
         <f t="shared" si="4"/>
@@ -7244,10 +7244,10 @@
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="C60" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D60" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E60" s="27" t="e">
         <f t="shared" si="4"/>
@@ -7277,10 +7277,10 @@
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="C61" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E61" s="27" t="e">
         <f t="shared" si="4"/>
@@ -7310,10 +7310,10 @@
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
       <c r="C62" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D62" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E62" s="27" t="e">
         <f t="shared" si="4"/>
@@ -7343,7 +7343,7 @@
     <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13"/>
       <c r="D63" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E63" s="28" t="e">
         <f>SUM(E6:E62)</f>
@@ -7360,7 +7360,7 @@
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D64" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E64" s="24">
         <f>SUM(F6:F62)</f>

--- a/QTOCostEstimation/Lot 13_Comparison.xlsx
+++ b/QTOCostEstimation/Lot 13_Comparison.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="80">
   <si>
     <t>Application #:</t>
   </si>
@@ -273,6 +273,9 @@
   <si>
     <t>BQFA Budget</t>
   </si>
+  <si>
+    <t>Cost Range</t>
+  </si>
 </sst>
 </file>
 
@@ -353,7 +356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -580,13 +583,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -730,7 +744,14 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -743,6 +764,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -999,7 +1023,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>49695</xdr:rowOff>
@@ -5344,10 +5368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L598"/>
+  <dimension ref="A1:M598"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="E6" sqref="E6:E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5355,102 +5379,107 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="49.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="22.5703125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.85546875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="27.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="5" customWidth="1"/>
-    <col min="13" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="15.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="22.5703125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" style="5" customWidth="1"/>
+    <col min="14" max="16" width="9.140625" style="1"/>
+    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="G1" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="J1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="43"/>
-      <c r="K1" s="42"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="43"/>
+      <c r="L1" s="42"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="6"/>
-      <c r="I2" s="45" t="s">
+      <c r="J2" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="42"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="46"/>
+      <c r="L2" s="42"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="I3" s="45" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+      <c r="J3" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="46"/>
-      <c r="K3" s="42"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K3" s="46"/>
+      <c r="L3" s="42"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="6"/>
-      <c r="I4" s="45" t="s">
+      <c r="J4" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="48">
-        <f>E64</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="42"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="48">
+        <f>F64</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="42"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="J5" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="40">
+      <c r="K5" s="40">
         <v>350</v>
       </c>
-      <c r="K5" s="38">
-        <f>J5*J3</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="38">
+        <f>K5*K3</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="C6" s="14" t="s">
         <v>8</v>
@@ -5458,36 +5487,37 @@
       <c r="D6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="27" t="e">
-        <f t="shared" ref="E6:E37" si="0">F6/$E$64</f>
+      <c r="E6" s="58"/>
+      <c r="F6" s="27" t="e">
+        <f t="shared" ref="F6:F37" si="0">G6/$F$64</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="27" t="e">
-        <f>H6/$G$64</f>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="H6" s="27" t="e">
+        <f>I6/$H$64</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="15">
+        <v>0</v>
+      </c>
+      <c r="J6" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="39">
+      <c r="K6" s="39">
         <v>175</v>
       </c>
-      <c r="K6" s="36">
-        <f>J3*J6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="19">
-        <f t="shared" ref="L6:L37" si="1">$J$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="36">
+        <f>K3*K6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="19">
+        <f t="shared" ref="M6:M37" si="1">$K$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
       <c r="C7" s="14" t="s">
         <v>10</v>
@@ -5495,37 +5525,38 @@
       <c r="D7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="27" t="e">
+      <c r="E7" s="58"/>
+      <c r="F7" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="27" t="e">
-        <f t="shared" ref="G7:G62" si="2">H7/$G$64</f>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+      <c r="H7" s="27" t="e">
+        <f t="shared" ref="H7:H62" si="2">I7/$H$64</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="15">
+        <v>0</v>
+      </c>
+      <c r="J7" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="49" t="e">
-        <f>E64/J3</f>
+      <c r="K7" s="49" t="e">
+        <f>F64/K3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="35" t="e">
-        <f>J3*J7</f>
+      <c r="L7" s="35" t="e">
+        <f>K3*K7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="19">
+      <c r="M7" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13"/>
       <c r="C8" s="14" t="s">
         <v>11</v>
@@ -5533,36 +5564,37 @@
       <c r="D8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="27" t="e">
+      <c r="E8" s="58"/>
+      <c r="F8" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="27" t="e">
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+      <c r="H8" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="15">
+        <v>0</v>
+      </c>
+      <c r="J8" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="40">
+      <c r="K8" s="40">
         <v>207</v>
       </c>
-      <c r="K8" s="37">
-        <f>J3*J8</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="19">
+      <c r="L8" s="37">
+        <f>K3*K8</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
       <c r="C9" s="14" t="s">
         <v>12</v>
@@ -5570,37 +5602,38 @@
       <c r="D9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="27" t="e">
+      <c r="E9" s="58"/>
+      <c r="F9" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="27" t="e">
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+      <c r="H9" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="15">
+        <v>0</v>
+      </c>
+      <c r="J9" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="31" t="e">
-        <f>J7*0.89</f>
+      <c r="K9" s="31" t="e">
+        <f>K7*0.89</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" s="34" t="e">
-        <f>J3*J9</f>
+      <c r="L9" s="34" t="e">
+        <f>K3*K9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="19">
+      <c r="M9" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13"/>
       <c r="C10" s="14" t="s">
         <v>13</v>
@@ -5608,29 +5641,30 @@
       <c r="D10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="27" t="e">
+      <c r="E10" s="58"/>
+      <c r="F10" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F10" s="15">
-        <v>0</v>
-      </c>
-      <c r="G10" s="27" t="e">
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="H10" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="15">
-        <v>0</v>
-      </c>
-      <c r="I10" s="41"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="19">
+      <c r="I10" s="15">
+        <v>0</v>
+      </c>
+      <c r="J10" s="41"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="C11" s="14" t="s">
         <v>14</v>
@@ -5638,29 +5672,30 @@
       <c r="D11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="27" t="e">
+      <c r="E11" s="58"/>
+      <c r="F11" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="27" t="e">
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="H11" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="15">
-        <v>0</v>
-      </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="19">
+      <c r="I11" s="15">
+        <v>0</v>
+      </c>
+      <c r="J11" s="51"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="C12" s="14" t="s">
         <v>15</v>
@@ -5668,29 +5703,30 @@
       <c r="D12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="27" t="e">
+      <c r="E12" s="58"/>
+      <c r="F12" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="27" t="e">
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="H12" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="15">
-        <v>0</v>
-      </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="19">
+      <c r="I12" s="15">
+        <v>0</v>
+      </c>
+      <c r="J12" s="41"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="C13" s="14" t="s">
         <v>16</v>
@@ -5698,32 +5734,33 @@
       <c r="D13" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="27" t="e">
+      <c r="E13" s="58"/>
+      <c r="F13" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F13" s="15">
-        <v>0</v>
-      </c>
-      <c r="G13" s="27" t="e">
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="H13" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="15">
-        <v>0</v>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="18">
-        <f t="shared" ref="K13:K44" si="3">$D$1</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="19">
+      <c r="I13" s="15">
+        <v>0</v>
+      </c>
+      <c r="J13" s="16"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18">
+        <f t="shared" ref="L13:L44" si="3">$D$1</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="C14" s="14" t="s">
         <v>17</v>
@@ -5731,32 +5768,33 @@
       <c r="D14" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="27" t="e">
+      <c r="E14" s="58"/>
+      <c r="F14" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F14" s="15">
-        <v>0</v>
-      </c>
-      <c r="G14" s="27" t="e">
+      <c r="G14" s="15">
+        <v>0</v>
+      </c>
+      <c r="H14" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="15">
-        <v>0</v>
-      </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="18">
+      <c r="I14" s="15">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L14" s="19">
+      <c r="M14" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="C15" s="14" t="s">
         <v>18</v>
@@ -5764,32 +5802,33 @@
       <c r="D15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="27" t="e">
+      <c r="E15" s="58"/>
+      <c r="F15" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="27" t="e">
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="18">
+      <c r="I15" s="15">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L15" s="19">
+      <c r="M15" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="C16" s="14" t="s">
         <v>19</v>
@@ -5797,32 +5836,33 @@
       <c r="D16" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="27" t="e">
+      <c r="E16" s="58"/>
+      <c r="F16" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F16" s="15">
-        <v>0</v>
-      </c>
-      <c r="G16" s="27" t="e">
+      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="18">
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L16" s="19">
+      <c r="M16" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="C17" s="14" t="s">
         <v>20</v>
@@ -5830,32 +5870,33 @@
       <c r="D17" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="27" t="e">
+      <c r="E17" s="58"/>
+      <c r="F17" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F17" s="15">
-        <v>0</v>
-      </c>
-      <c r="G17" s="27" t="e">
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+      <c r="H17" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="15">
-        <v>0</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="18">
+      <c r="I17" s="15">
+        <v>0</v>
+      </c>
+      <c r="J17" s="16"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L17" s="19">
+      <c r="M17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="C18" s="14" t="s">
         <v>21</v>
@@ -5863,32 +5904,33 @@
       <c r="D18" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="27" t="e">
+      <c r="E18" s="58"/>
+      <c r="F18" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="15">
-        <v>0</v>
-      </c>
-      <c r="G18" s="27" t="e">
+      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="H18" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="18">
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="16"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L18" s="19">
+      <c r="M18" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="C19" s="14" t="s">
         <v>22</v>
@@ -5896,32 +5938,33 @@
       <c r="D19" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="27" t="e">
+      <c r="E19" s="58"/>
+      <c r="F19" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="27" t="e">
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="15">
-        <v>0</v>
-      </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="18">
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="16"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L19" s="19">
+      <c r="M19" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="C20" s="14" t="s">
         <v>23</v>
@@ -5929,32 +5972,33 @@
       <c r="D20" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="27" t="e">
+      <c r="E20" s="58"/>
+      <c r="F20" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="15">
-        <v>0</v>
-      </c>
-      <c r="G20" s="27" t="e">
+      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="H20" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="15">
-        <v>0</v>
-      </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="18">
+      <c r="I20" s="15">
+        <v>0</v>
+      </c>
+      <c r="J20" s="16"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L20" s="19">
+      <c r="M20" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="C21" s="14" t="s">
         <v>24</v>
@@ -5962,32 +6006,33 @@
       <c r="D21" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="27" t="e">
+      <c r="E21" s="58"/>
+      <c r="F21" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="27" t="e">
+      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="H21" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="15">
-        <v>0</v>
-      </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="18">
+      <c r="I21" s="15">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L21" s="19">
+      <c r="M21" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="C22" s="14" t="s">
         <v>25</v>
@@ -5995,32 +6040,33 @@
       <c r="D22" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="27" t="e">
+      <c r="E22" s="58"/>
+      <c r="F22" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="15">
-        <v>0</v>
-      </c>
-      <c r="G22" s="27" t="e">
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
+      <c r="H22" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="15">
-        <v>0</v>
-      </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="18">
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L22" s="19">
+      <c r="M22" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="C23" s="14" t="s">
         <v>26</v>
@@ -6028,32 +6074,33 @@
       <c r="D23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="27" t="e">
+      <c r="E23" s="58"/>
+      <c r="F23" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="15">
-        <v>0</v>
-      </c>
-      <c r="G23" s="27" t="e">
+      <c r="G23" s="15">
+        <v>0</v>
+      </c>
+      <c r="H23" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="15">
-        <v>0</v>
-      </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="18">
+      <c r="I23" s="15">
+        <v>0</v>
+      </c>
+      <c r="J23" s="16"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L23" s="19">
+      <c r="M23" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="C24" s="14" t="s">
         <v>27</v>
@@ -6061,32 +6108,33 @@
       <c r="D24" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="27" t="e">
+      <c r="E24" s="58"/>
+      <c r="F24" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="15">
-        <v>0</v>
-      </c>
-      <c r="G24" s="27" t="e">
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="15">
-        <v>0</v>
-      </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="18">
+      <c r="I24" s="15">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L24" s="19">
+      <c r="M24" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="C25" s="14" t="s">
         <v>28</v>
@@ -6094,32 +6142,33 @@
       <c r="D25" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="27" t="e">
+      <c r="E25" s="58"/>
+      <c r="F25" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F25" s="15">
-        <v>0</v>
-      </c>
-      <c r="G25" s="27" t="e">
+      <c r="G25" s="15">
+        <v>0</v>
+      </c>
+      <c r="H25" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="15">
-        <v>0</v>
-      </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="18">
+      <c r="I25" s="15">
+        <v>0</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L25" s="19">
+      <c r="M25" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="C26" s="14" t="s">
         <v>29</v>
@@ -6127,32 +6176,33 @@
       <c r="D26" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="27" t="e">
+      <c r="E26" s="58"/>
+      <c r="F26" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F26" s="15">
-        <v>0</v>
-      </c>
-      <c r="G26" s="27" t="e">
+      <c r="G26" s="15">
+        <v>0</v>
+      </c>
+      <c r="H26" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="15">
-        <v>0</v>
-      </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="18">
+      <c r="I26" s="15">
+        <v>0</v>
+      </c>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L26" s="19">
+      <c r="M26" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="C27" s="14" t="s">
         <v>30</v>
@@ -6160,32 +6210,33 @@
       <c r="D27" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="27" t="e">
+      <c r="E27" s="58"/>
+      <c r="F27" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F27" s="15">
-        <v>0</v>
-      </c>
-      <c r="G27" s="27" t="e">
+      <c r="G27" s="15">
+        <v>0</v>
+      </c>
+      <c r="H27" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="15">
-        <v>0</v>
-      </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="18">
+      <c r="I27" s="15">
+        <v>0</v>
+      </c>
+      <c r="J27" s="16"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L27" s="19">
+      <c r="M27" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="C28" s="14" t="s">
         <v>31</v>
@@ -6193,32 +6244,33 @@
       <c r="D28" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="27" t="e">
+      <c r="E28" s="58"/>
+      <c r="F28" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F28" s="15">
-        <v>0</v>
-      </c>
-      <c r="G28" s="27" t="e">
+      <c r="G28" s="15">
+        <v>0</v>
+      </c>
+      <c r="H28" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="15">
-        <v>0</v>
-      </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="18">
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="16"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L28" s="19">
+      <c r="M28" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="C29" s="14" t="s">
         <v>32</v>
@@ -6226,32 +6278,33 @@
       <c r="D29" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="27" t="e">
+      <c r="E29" s="58"/>
+      <c r="F29" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F29" s="15">
-        <v>0</v>
-      </c>
-      <c r="G29" s="27" t="e">
+      <c r="G29" s="15">
+        <v>0</v>
+      </c>
+      <c r="H29" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="15">
-        <v>0</v>
-      </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="18">
+      <c r="I29" s="15">
+        <v>0</v>
+      </c>
+      <c r="J29" s="16"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L29" s="19">
+      <c r="M29" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="C30" s="14" t="s">
         <v>33</v>
@@ -6259,32 +6312,33 @@
       <c r="D30" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="27" t="e">
+      <c r="E30" s="58"/>
+      <c r="F30" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F30" s="15">
-        <v>0</v>
-      </c>
-      <c r="G30" s="27" t="e">
+      <c r="G30" s="15">
+        <v>0</v>
+      </c>
+      <c r="H30" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="15">
-        <v>0</v>
-      </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="18">
+      <c r="I30" s="15">
+        <v>0</v>
+      </c>
+      <c r="J30" s="16"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L30" s="19">
+      <c r="M30" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="C31" s="14" t="s">
         <v>34</v>
@@ -6292,32 +6346,33 @@
       <c r="D31" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="27" t="e">
+      <c r="E31" s="58"/>
+      <c r="F31" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F31" s="15">
-        <v>0</v>
-      </c>
-      <c r="G31" s="27" t="e">
+      <c r="G31" s="15">
+        <v>0</v>
+      </c>
+      <c r="H31" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="15">
-        <v>0</v>
-      </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="18">
+      <c r="I31" s="15">
+        <v>0</v>
+      </c>
+      <c r="J31" s="16"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L31" s="19">
+      <c r="M31" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="C32" s="14" t="s">
         <v>35</v>
@@ -6325,32 +6380,33 @@
       <c r="D32" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="27" t="e">
+      <c r="E32" s="58"/>
+      <c r="F32" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F32" s="15">
-        <v>0</v>
-      </c>
-      <c r="G32" s="27" t="e">
+      <c r="G32" s="15">
+        <v>0</v>
+      </c>
+      <c r="H32" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="15">
-        <v>0</v>
-      </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="18">
+      <c r="I32" s="15">
+        <v>0</v>
+      </c>
+      <c r="J32" s="16"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L32" s="19">
+      <c r="M32" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="C33" s="14" t="s">
         <v>36</v>
@@ -6358,32 +6414,33 @@
       <c r="D33" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="27" t="e">
+      <c r="E33" s="58"/>
+      <c r="F33" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F33" s="15">
-        <v>0</v>
-      </c>
-      <c r="G33" s="27" t="e">
+      <c r="G33" s="15">
+        <v>0</v>
+      </c>
+      <c r="H33" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H33" s="15">
-        <v>0</v>
-      </c>
-      <c r="I33" s="16"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="18">
+      <c r="I33" s="15">
+        <v>0</v>
+      </c>
+      <c r="J33" s="16"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L33" s="19">
+      <c r="M33" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="C34" s="14" t="s">
         <v>37</v>
@@ -6391,32 +6448,33 @@
       <c r="D34" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="27" t="e">
+      <c r="E34" s="58"/>
+      <c r="F34" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F34" s="15">
-        <v>0</v>
-      </c>
-      <c r="G34" s="27" t="e">
+      <c r="G34" s="15">
+        <v>0</v>
+      </c>
+      <c r="H34" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H34" s="15">
-        <v>0</v>
-      </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="18">
+      <c r="I34" s="15">
+        <v>0</v>
+      </c>
+      <c r="J34" s="16"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L34" s="19">
+      <c r="M34" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="C35" s="14" t="s">
         <v>38</v>
@@ -6424,32 +6482,33 @@
       <c r="D35" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="27" t="e">
+      <c r="E35" s="58"/>
+      <c r="F35" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F35" s="15">
-        <v>0</v>
-      </c>
-      <c r="G35" s="27" t="e">
+      <c r="G35" s="15">
+        <v>0</v>
+      </c>
+      <c r="H35" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H35" s="15">
-        <v>0</v>
-      </c>
-      <c r="I35" s="16"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="18">
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="16"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L35" s="19">
+      <c r="M35" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="C36" s="14" t="s">
         <v>39</v>
@@ -6457,32 +6516,33 @@
       <c r="D36" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="27" t="e">
+      <c r="E36" s="58"/>
+      <c r="F36" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F36" s="15">
-        <v>0</v>
-      </c>
-      <c r="G36" s="27" t="e">
+      <c r="G36" s="15">
+        <v>0</v>
+      </c>
+      <c r="H36" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H36" s="15">
-        <v>0</v>
-      </c>
-      <c r="I36" s="16"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="18">
+      <c r="I36" s="15">
+        <v>0</v>
+      </c>
+      <c r="J36" s="16"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L36" s="19">
+      <c r="M36" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="C37" s="14" t="s">
         <v>40</v>
@@ -6490,32 +6550,33 @@
       <c r="D37" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="27" t="e">
+      <c r="E37" s="58"/>
+      <c r="F37" s="27" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F37" s="15">
-        <v>0</v>
-      </c>
-      <c r="G37" s="27" t="e">
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+      <c r="H37" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="15">
-        <v>0</v>
-      </c>
-      <c r="I37" s="16"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="18">
+      <c r="I37" s="15">
+        <v>0</v>
+      </c>
+      <c r="J37" s="16"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L37" s="19">
+      <c r="M37" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="C38" s="14" t="s">
         <v>41</v>
@@ -6523,32 +6584,33 @@
       <c r="D38" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="27" t="e">
-        <f t="shared" ref="E38:E62" si="4">F38/$E$64</f>
+      <c r="E38" s="58"/>
+      <c r="F38" s="27" t="e">
+        <f t="shared" ref="F38:F62" si="4">G38/$F$64</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="15">
-        <v>0</v>
-      </c>
-      <c r="G38" s="27" t="e">
+      <c r="G38" s="15">
+        <v>0</v>
+      </c>
+      <c r="H38" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="15">
-        <v>0</v>
-      </c>
-      <c r="I38" s="16"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="18">
+      <c r="I38" s="15">
+        <v>0</v>
+      </c>
+      <c r="J38" s="16"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L38" s="19">
-        <f t="shared" ref="L38:L62" si="5">$J$1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" s="19">
+        <f t="shared" ref="M38:M62" si="5">$K$1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="C39" s="14" t="s">
         <v>42</v>
@@ -6556,32 +6618,33 @@
       <c r="D39" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="27" t="e">
+      <c r="E39" s="58"/>
+      <c r="F39" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F39" s="15">
-        <v>0</v>
-      </c>
-      <c r="G39" s="27" t="e">
+      <c r="G39" s="15">
+        <v>0</v>
+      </c>
+      <c r="H39" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="15">
-        <v>0</v>
-      </c>
-      <c r="I39" s="16"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="18">
+      <c r="I39" s="15">
+        <v>0</v>
+      </c>
+      <c r="J39" s="16"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L39" s="19">
+      <c r="M39" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="C40" s="14" t="s">
         <v>43</v>
@@ -6589,32 +6652,33 @@
       <c r="D40" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="27" t="e">
+      <c r="E40" s="58"/>
+      <c r="F40" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F40" s="15">
-        <v>0</v>
-      </c>
-      <c r="G40" s="27" t="e">
+      <c r="G40" s="15">
+        <v>0</v>
+      </c>
+      <c r="H40" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="15">
-        <v>0</v>
-      </c>
-      <c r="I40" s="16"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="18">
+      <c r="I40" s="15">
+        <v>0</v>
+      </c>
+      <c r="J40" s="16"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L40" s="19">
+      <c r="M40" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="C41" s="14" t="s">
         <v>44</v>
@@ -6622,32 +6686,33 @@
       <c r="D41" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="27" t="e">
+      <c r="E41" s="58"/>
+      <c r="F41" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F41" s="15">
-        <v>0</v>
-      </c>
-      <c r="G41" s="27" t="e">
+      <c r="G41" s="15">
+        <v>0</v>
+      </c>
+      <c r="H41" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="15">
-        <v>0</v>
-      </c>
-      <c r="I41" s="16"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="18">
+      <c r="I41" s="15">
+        <v>0</v>
+      </c>
+      <c r="J41" s="16"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L41" s="19">
+      <c r="M41" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="C42" s="14" t="s">
         <v>45</v>
@@ -6655,32 +6720,33 @@
       <c r="D42" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="27" t="e">
+      <c r="E42" s="58"/>
+      <c r="F42" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F42" s="15">
-        <v>0</v>
-      </c>
-      <c r="G42" s="27" t="e">
+      <c r="G42" s="15">
+        <v>0</v>
+      </c>
+      <c r="H42" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H42" s="15">
-        <v>0</v>
-      </c>
-      <c r="I42" s="16"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="18">
+      <c r="I42" s="15">
+        <v>0</v>
+      </c>
+      <c r="J42" s="16"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L42" s="19">
+      <c r="M42" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="C43" s="14" t="s">
         <v>46</v>
@@ -6688,32 +6754,33 @@
       <c r="D43" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="27" t="e">
+      <c r="E43" s="58"/>
+      <c r="F43" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F43" s="15">
-        <v>0</v>
-      </c>
-      <c r="G43" s="27" t="e">
+      <c r="G43" s="15">
+        <v>0</v>
+      </c>
+      <c r="H43" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H43" s="15">
-        <v>0</v>
-      </c>
-      <c r="I43" s="16"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="18">
+      <c r="I43" s="15">
+        <v>0</v>
+      </c>
+      <c r="J43" s="16"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L43" s="19">
+      <c r="M43" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="C44" s="14" t="s">
         <v>47</v>
@@ -6721,32 +6788,33 @@
       <c r="D44" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="27" t="e">
+      <c r="E44" s="58"/>
+      <c r="F44" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F44" s="15">
-        <v>0</v>
-      </c>
-      <c r="G44" s="27" t="e">
+      <c r="G44" s="15">
+        <v>0</v>
+      </c>
+      <c r="H44" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H44" s="15">
-        <v>0</v>
-      </c>
-      <c r="I44" s="16"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="18">
+      <c r="I44" s="15">
+        <v>0</v>
+      </c>
+      <c r="J44" s="16"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L44" s="19">
+      <c r="M44" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="C45" s="14" t="s">
         <v>48</v>
@@ -6754,32 +6822,33 @@
       <c r="D45" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="27" t="e">
+      <c r="E45" s="58"/>
+      <c r="F45" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F45" s="15">
-        <v>0</v>
-      </c>
-      <c r="G45" s="27" t="e">
+      <c r="G45" s="15">
+        <v>0</v>
+      </c>
+      <c r="H45" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H45" s="15">
-        <v>0</v>
-      </c>
-      <c r="I45" s="16"/>
-      <c r="J45" s="17"/>
-      <c r="K45" s="18">
-        <f t="shared" ref="K45:K62" si="6">$D$1</f>
-        <v>0</v>
-      </c>
-      <c r="L45" s="19">
+      <c r="I45" s="15">
+        <v>0</v>
+      </c>
+      <c r="J45" s="16"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="18">
+        <f t="shared" ref="L45:L62" si="6">$D$1</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="C46" s="14" t="s">
         <v>49</v>
@@ -6787,32 +6856,33 @@
       <c r="D46" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="27" t="e">
+      <c r="E46" s="58"/>
+      <c r="F46" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F46" s="15">
-        <v>0</v>
-      </c>
-      <c r="G46" s="27" t="e">
+      <c r="G46" s="15">
+        <v>0</v>
+      </c>
+      <c r="H46" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H46" s="15">
-        <v>0</v>
-      </c>
-      <c r="I46" s="16"/>
-      <c r="J46" s="17"/>
-      <c r="K46" s="18">
+      <c r="I46" s="15">
+        <v>0</v>
+      </c>
+      <c r="J46" s="16"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L46" s="19">
+      <c r="M46" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="C47" s="14" t="s">
         <v>50</v>
@@ -6820,32 +6890,33 @@
       <c r="D47" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="27" t="e">
+      <c r="E47" s="58"/>
+      <c r="F47" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F47" s="15">
-        <v>0</v>
-      </c>
-      <c r="G47" s="27" t="e">
+      <c r="G47" s="15">
+        <v>0</v>
+      </c>
+      <c r="H47" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H47" s="15">
-        <v>0</v>
-      </c>
-      <c r="I47" s="16"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="18">
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="16"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L47" s="19">
+      <c r="M47" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="C48" s="14" t="s">
         <v>51</v>
@@ -6853,32 +6924,33 @@
       <c r="D48" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="27" t="e">
+      <c r="E48" s="58"/>
+      <c r="F48" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F48" s="15">
-        <v>0</v>
-      </c>
-      <c r="G48" s="27" t="e">
+      <c r="G48" s="15">
+        <v>0</v>
+      </c>
+      <c r="H48" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H48" s="15">
-        <v>0</v>
-      </c>
-      <c r="I48" s="16"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="18">
+      <c r="I48" s="15">
+        <v>0</v>
+      </c>
+      <c r="J48" s="16"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L48" s="19">
+      <c r="M48" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="C49" s="14" t="s">
         <v>52</v>
@@ -6886,32 +6958,33 @@
       <c r="D49" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="27" t="e">
+      <c r="E49" s="58"/>
+      <c r="F49" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F49" s="15">
-        <v>0</v>
-      </c>
-      <c r="G49" s="27" t="e">
+      <c r="G49" s="15">
+        <v>0</v>
+      </c>
+      <c r="H49" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H49" s="15">
-        <v>0</v>
-      </c>
-      <c r="I49" s="16"/>
-      <c r="J49" s="17"/>
-      <c r="K49" s="18">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="16"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L49" s="19">
+      <c r="M49" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="C50" s="14" t="s">
         <v>53</v>
@@ -6919,32 +6992,33 @@
       <c r="D50" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="27" t="e">
+      <c r="E50" s="58"/>
+      <c r="F50" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F50" s="15">
-        <v>0</v>
-      </c>
-      <c r="G50" s="27" t="e">
+      <c r="G50" s="15">
+        <v>0</v>
+      </c>
+      <c r="H50" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H50" s="15">
-        <v>0</v>
-      </c>
-      <c r="I50" s="16"/>
-      <c r="J50" s="17"/>
-      <c r="K50" s="18">
+      <c r="I50" s="15">
+        <v>0</v>
+      </c>
+      <c r="J50" s="16"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L50" s="19">
+      <c r="M50" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="C51" s="14" t="s">
         <v>54</v>
@@ -6952,32 +7026,33 @@
       <c r="D51" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="27" t="e">
+      <c r="E51" s="58"/>
+      <c r="F51" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F51" s="15">
-        <v>0</v>
-      </c>
-      <c r="G51" s="27" t="e">
+      <c r="G51" s="15">
+        <v>0</v>
+      </c>
+      <c r="H51" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H51" s="15">
-        <v>0</v>
-      </c>
-      <c r="I51" s="16"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="18">
+      <c r="I51" s="15">
+        <v>0</v>
+      </c>
+      <c r="J51" s="16"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L51" s="19">
+      <c r="M51" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="C52" s="14" t="s">
         <v>55</v>
@@ -6985,32 +7060,33 @@
       <c r="D52" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="27" t="e">
+      <c r="E52" s="58"/>
+      <c r="F52" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F52" s="15">
-        <v>0</v>
-      </c>
-      <c r="G52" s="27" t="e">
+      <c r="G52" s="15">
+        <v>0</v>
+      </c>
+      <c r="H52" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H52" s="15">
-        <v>0</v>
-      </c>
-      <c r="I52" s="16"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="18">
+      <c r="I52" s="15">
+        <v>0</v>
+      </c>
+      <c r="J52" s="16"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L52" s="19">
+      <c r="M52" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="C53" s="14" t="s">
         <v>56</v>
@@ -7018,32 +7094,33 @@
       <c r="D53" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="27" t="e">
+      <c r="E53" s="58"/>
+      <c r="F53" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F53" s="15">
-        <v>0</v>
-      </c>
-      <c r="G53" s="27" t="e">
+      <c r="G53" s="15">
+        <v>0</v>
+      </c>
+      <c r="H53" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H53" s="15">
-        <v>0</v>
-      </c>
-      <c r="I53" s="16"/>
-      <c r="J53" s="17"/>
-      <c r="K53" s="18">
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="16"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L53" s="19">
+      <c r="M53" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="C54" s="14" t="s">
         <v>57</v>
@@ -7051,32 +7128,33 @@
       <c r="D54" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="27" t="e">
+      <c r="E54" s="58"/>
+      <c r="F54" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F54" s="15">
-        <v>0</v>
-      </c>
-      <c r="G54" s="27" t="e">
+      <c r="G54" s="15">
+        <v>0</v>
+      </c>
+      <c r="H54" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H54" s="15">
-        <v>0</v>
-      </c>
-      <c r="I54" s="16"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="18">
+      <c r="I54" s="15">
+        <v>0</v>
+      </c>
+      <c r="J54" s="16"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L54" s="19">
+      <c r="M54" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="C55" s="14" t="s">
         <v>58</v>
@@ -7084,32 +7162,33 @@
       <c r="D55" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="27" t="e">
+      <c r="E55" s="58"/>
+      <c r="F55" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F55" s="15">
-        <v>0</v>
-      </c>
-      <c r="G55" s="27" t="e">
+      <c r="G55" s="15">
+        <v>0</v>
+      </c>
+      <c r="H55" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H55" s="15">
-        <v>0</v>
-      </c>
-      <c r="I55" s="16"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="18">
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="16"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L55" s="19">
+      <c r="M55" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="C56" s="14" t="s">
         <v>59</v>
@@ -7117,32 +7196,33 @@
       <c r="D56" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="27" t="e">
+      <c r="E56" s="58"/>
+      <c r="F56" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F56" s="15">
-        <v>0</v>
-      </c>
-      <c r="G56" s="27" t="e">
+      <c r="G56" s="15">
+        <v>0</v>
+      </c>
+      <c r="H56" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H56" s="15">
-        <v>0</v>
-      </c>
-      <c r="I56" s="16"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="18">
+      <c r="I56" s="15">
+        <v>0</v>
+      </c>
+      <c r="J56" s="16"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L56" s="19">
+      <c r="M56" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="C57" s="14" t="s">
         <v>60</v>
@@ -7150,32 +7230,33 @@
       <c r="D57" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="27" t="e">
+      <c r="E57" s="58"/>
+      <c r="F57" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F57" s="15">
-        <v>0</v>
-      </c>
-      <c r="G57" s="27" t="e">
+      <c r="G57" s="15">
+        <v>0</v>
+      </c>
+      <c r="H57" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H57" s="15">
-        <v>0</v>
-      </c>
-      <c r="I57" s="16"/>
-      <c r="J57" s="17"/>
-      <c r="K57" s="18">
+      <c r="I57" s="15">
+        <v>0</v>
+      </c>
+      <c r="J57" s="16"/>
+      <c r="K57" s="17"/>
+      <c r="L57" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L57" s="19">
+      <c r="M57" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="C58" s="14" t="s">
         <v>61</v>
@@ -7183,32 +7264,33 @@
       <c r="D58" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="27" t="e">
+      <c r="E58" s="58"/>
+      <c r="F58" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F58" s="15">
-        <v>0</v>
-      </c>
-      <c r="G58" s="27" t="e">
+      <c r="G58" s="15">
+        <v>0</v>
+      </c>
+      <c r="H58" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H58" s="15">
-        <v>0</v>
-      </c>
-      <c r="I58" s="16"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="18">
+      <c r="I58" s="15">
+        <v>0</v>
+      </c>
+      <c r="J58" s="16"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L58" s="19">
+      <c r="M58" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="C59" s="14" t="s">
         <v>62</v>
@@ -7216,32 +7298,33 @@
       <c r="D59" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="27" t="e">
+      <c r="E59" s="58"/>
+      <c r="F59" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F59" s="15">
-        <v>0</v>
-      </c>
-      <c r="G59" s="27" t="e">
+      <c r="G59" s="15">
+        <v>0</v>
+      </c>
+      <c r="H59" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H59" s="15">
-        <v>0</v>
-      </c>
-      <c r="I59" s="16"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="18">
+      <c r="I59" s="15">
+        <v>0</v>
+      </c>
+      <c r="J59" s="16"/>
+      <c r="K59" s="17"/>
+      <c r="L59" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L59" s="19">
+      <c r="M59" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="C60" s="14" t="s">
         <v>63</v>
@@ -7249,32 +7332,33 @@
       <c r="D60" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="27" t="e">
+      <c r="E60" s="58"/>
+      <c r="F60" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F60" s="15">
-        <v>0</v>
-      </c>
-      <c r="G60" s="27" t="e">
+      <c r="G60" s="15">
+        <v>0</v>
+      </c>
+      <c r="H60" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H60" s="15">
-        <v>0</v>
-      </c>
-      <c r="I60" s="16"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="18">
+      <c r="I60" s="15">
+        <v>0</v>
+      </c>
+      <c r="J60" s="16"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L60" s="19">
+      <c r="M60" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="C61" s="14" t="s">
         <v>64</v>
@@ -7282,32 +7366,33 @@
       <c r="D61" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="27" t="e">
+      <c r="E61" s="58"/>
+      <c r="F61" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F61" s="15">
-        <v>0</v>
-      </c>
-      <c r="G61" s="27" t="e">
+      <c r="G61" s="15">
+        <v>0</v>
+      </c>
+      <c r="H61" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H61" s="15">
-        <v>0</v>
-      </c>
-      <c r="I61" s="16"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="18">
+      <c r="I61" s="15">
+        <v>0</v>
+      </c>
+      <c r="J61" s="16"/>
+      <c r="K61" s="17"/>
+      <c r="L61" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L61" s="19">
+      <c r="M61" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
       <c r="C62" s="14" t="s">
         <v>65</v>
@@ -7315,3273 +7400,3276 @@
       <c r="D62" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="27" t="e">
+      <c r="E62" s="58"/>
+      <c r="F62" s="27" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F62" s="15">
-        <v>0</v>
-      </c>
-      <c r="G62" s="27" t="e">
+      <c r="G62" s="15">
+        <v>0</v>
+      </c>
+      <c r="H62" s="27" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H62" s="15">
-        <v>0</v>
-      </c>
-      <c r="I62" s="16"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="18">
+      <c r="I62" s="15">
+        <v>0</v>
+      </c>
+      <c r="J62" s="16"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L62" s="19">
+      <c r="M62" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13"/>
       <c r="D63" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="E63" s="28" t="e">
-        <f>SUM(E6:E62)</f>
+      <c r="E63" s="25"/>
+      <c r="F63" s="28" t="e">
+        <f>SUM(F6:F62)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G63" s="28" t="e">
-        <f>SUM(G6:G62)</f>
+      <c r="H63" s="28" t="e">
+        <f>SUM(H6:H62)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I63" s="21"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="19"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J63" s="21"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="19"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D64" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E64" s="24">
-        <f>SUM(F6:F62)</f>
-        <v>0</v>
-      </c>
-      <c r="G64" s="24">
-        <f>SUM(H6:H62)</f>
-        <v>0</v>
-      </c>
-      <c r="I64" s="21"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="19"/>
-    </row>
-    <row r="65" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I65" s="21"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="19"/>
-    </row>
-    <row r="66" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I66" s="21"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="19"/>
-    </row>
-    <row r="67" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I67" s="21"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="19"/>
-    </row>
-    <row r="68" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I68" s="21"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="19"/>
-    </row>
-    <row r="69" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I69" s="21"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="19"/>
-    </row>
-    <row r="70" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I70" s="21"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="19"/>
-    </row>
-    <row r="71" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I71" s="21"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="19"/>
-    </row>
-    <row r="72" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I72" s="21"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="19"/>
-    </row>
-    <row r="73" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I73" s="21"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="19"/>
-    </row>
-    <row r="74" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I74" s="21"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="19"/>
-    </row>
-    <row r="75" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I75" s="21"/>
-      <c r="J75" s="22"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="19"/>
-    </row>
-    <row r="76" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I76" s="21"/>
-      <c r="J76" s="22"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="19"/>
-    </row>
-    <row r="77" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I77" s="21"/>
-      <c r="J77" s="22"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="19"/>
-    </row>
-    <row r="78" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I78" s="21"/>
-      <c r="J78" s="22"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="19"/>
-    </row>
-    <row r="79" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I79" s="21"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="19"/>
-    </row>
-    <row r="80" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I80" s="21"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="19"/>
-    </row>
-    <row r="81" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I81" s="21"/>
-      <c r="J81" s="22"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="19"/>
-    </row>
-    <row r="82" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I82" s="21"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="19"/>
-    </row>
-    <row r="83" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I83" s="21"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="19"/>
-    </row>
-    <row r="84" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I84" s="21"/>
-      <c r="J84" s="22"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="19"/>
-    </row>
-    <row r="85" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I85" s="21"/>
-      <c r="J85" s="22"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="19"/>
-    </row>
-    <row r="86" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I86" s="21"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="19"/>
-    </row>
-    <row r="87" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I87" s="21"/>
-      <c r="J87" s="22"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="19"/>
-    </row>
-    <row r="88" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I88" s="21"/>
-      <c r="J88" s="22"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="19"/>
-    </row>
-    <row r="89" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I89" s="21"/>
-      <c r="J89" s="22"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="19"/>
-    </row>
-    <row r="90" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I90" s="21"/>
-      <c r="J90" s="22"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="19"/>
-    </row>
-    <row r="91" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I91" s="21"/>
-      <c r="J91" s="22"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="19"/>
-    </row>
-    <row r="92" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I92" s="21"/>
-      <c r="J92" s="22"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="19"/>
-    </row>
-    <row r="93" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I93" s="21"/>
-      <c r="J93" s="22"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="19"/>
-    </row>
-    <row r="94" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I94" s="21"/>
-      <c r="J94" s="22"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="19"/>
-    </row>
-    <row r="95" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I95" s="21"/>
-      <c r="J95" s="22"/>
-      <c r="K95" s="18"/>
-      <c r="L95" s="19"/>
-    </row>
-    <row r="96" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I96" s="21"/>
-      <c r="J96" s="22"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="19"/>
-    </row>
-    <row r="97" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I97" s="21"/>
-      <c r="J97" s="22"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="19"/>
-    </row>
-    <row r="98" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I98" s="21"/>
-      <c r="J98" s="22"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="19"/>
-    </row>
-    <row r="99" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I99" s="21"/>
-      <c r="J99" s="22"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="19"/>
-    </row>
-    <row r="100" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I100" s="21"/>
-      <c r="J100" s="22"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="19"/>
-    </row>
-    <row r="101" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I101" s="21"/>
-      <c r="J101" s="22"/>
-      <c r="K101" s="18"/>
-      <c r="L101" s="19"/>
-    </row>
-    <row r="102" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I102" s="21"/>
-      <c r="J102" s="22"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="19"/>
-    </row>
-    <row r="103" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I103" s="21"/>
-      <c r="J103" s="22"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="19"/>
-    </row>
-    <row r="104" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I104" s="21"/>
-      <c r="J104" s="22"/>
-      <c r="K104" s="18"/>
-      <c r="L104" s="19"/>
-    </row>
-    <row r="105" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I105" s="21"/>
-      <c r="J105" s="22"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="19"/>
-    </row>
-    <row r="106" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I106" s="21"/>
-      <c r="J106" s="22"/>
-      <c r="K106" s="18"/>
-      <c r="L106" s="19"/>
-    </row>
-    <row r="107" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I107" s="21"/>
-      <c r="J107" s="22"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="19"/>
-    </row>
-    <row r="108" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I108" s="21"/>
-      <c r="J108" s="22"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="19"/>
-    </row>
-    <row r="109" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I109" s="21"/>
-      <c r="J109" s="22"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="19"/>
-    </row>
-    <row r="110" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I110" s="21"/>
-      <c r="J110" s="22"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="19"/>
-    </row>
-    <row r="111" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I111" s="21"/>
-      <c r="J111" s="22"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="19"/>
-    </row>
-    <row r="112" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I112" s="21"/>
-      <c r="J112" s="22"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="19"/>
-    </row>
-    <row r="113" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I113" s="21"/>
-      <c r="J113" s="22"/>
-      <c r="K113" s="18"/>
-      <c r="L113" s="19"/>
-    </row>
-    <row r="114" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I114" s="21"/>
-      <c r="J114" s="22"/>
-      <c r="K114" s="18"/>
-      <c r="L114" s="19"/>
-    </row>
-    <row r="115" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I115" s="21"/>
-      <c r="J115" s="22"/>
-      <c r="K115" s="18"/>
-      <c r="L115" s="19"/>
-    </row>
-    <row r="116" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I116" s="21"/>
-      <c r="J116" s="22"/>
-      <c r="K116" s="18"/>
-      <c r="L116" s="19"/>
-    </row>
-    <row r="117" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I117" s="21"/>
-      <c r="J117" s="22"/>
-      <c r="K117" s="18"/>
-      <c r="L117" s="19"/>
-    </row>
-    <row r="118" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I118" s="21"/>
-      <c r="J118" s="22"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="19"/>
-    </row>
-    <row r="119" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I119" s="21"/>
-      <c r="J119" s="22"/>
-      <c r="K119" s="18"/>
-      <c r="L119" s="19"/>
-    </row>
-    <row r="120" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I120" s="21"/>
-      <c r="J120" s="22"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="19"/>
-    </row>
-    <row r="121" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I121" s="21"/>
-      <c r="J121" s="22"/>
-      <c r="K121" s="18"/>
-      <c r="L121" s="19"/>
-    </row>
-    <row r="122" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I122" s="21"/>
-      <c r="J122" s="22"/>
-      <c r="K122" s="18"/>
-      <c r="L122" s="19"/>
-    </row>
-    <row r="123" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I123" s="21"/>
-      <c r="J123" s="22"/>
-      <c r="K123" s="18"/>
-      <c r="L123" s="19"/>
-    </row>
-    <row r="124" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I124" s="21"/>
-      <c r="J124" s="22"/>
-      <c r="K124" s="18"/>
-      <c r="L124" s="19"/>
-    </row>
-    <row r="125" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I125" s="21"/>
-      <c r="J125" s="22"/>
-      <c r="K125" s="18"/>
-      <c r="L125" s="19"/>
-    </row>
-    <row r="126" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I126" s="21"/>
-      <c r="J126" s="22"/>
-      <c r="K126" s="18"/>
-      <c r="L126" s="19"/>
-    </row>
-    <row r="127" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I127" s="21"/>
-      <c r="J127" s="22"/>
-      <c r="K127" s="18"/>
-      <c r="L127" s="19"/>
-    </row>
-    <row r="128" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I128" s="21"/>
-      <c r="J128" s="22"/>
-      <c r="K128" s="18"/>
-      <c r="L128" s="19"/>
-    </row>
-    <row r="129" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I129" s="21"/>
-      <c r="J129" s="22"/>
-      <c r="K129" s="18"/>
-      <c r="L129" s="19"/>
-    </row>
-    <row r="130" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I130" s="21"/>
-      <c r="J130" s="22"/>
-      <c r="K130" s="18"/>
-      <c r="L130" s="19"/>
-    </row>
-    <row r="131" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I131" s="21"/>
-      <c r="J131" s="22"/>
-      <c r="K131" s="18"/>
-      <c r="L131" s="19"/>
-    </row>
-    <row r="132" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I132" s="21"/>
-      <c r="J132" s="22"/>
-      <c r="K132" s="18"/>
-      <c r="L132" s="19"/>
-    </row>
-    <row r="133" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I133" s="21"/>
-      <c r="J133" s="22"/>
-      <c r="K133" s="18"/>
-      <c r="L133" s="19"/>
-    </row>
-    <row r="134" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I134" s="21"/>
-      <c r="J134" s="22"/>
-      <c r="K134" s="18"/>
-      <c r="L134" s="19"/>
-    </row>
-    <row r="135" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I135" s="21"/>
-      <c r="J135" s="22"/>
-      <c r="K135" s="18"/>
-      <c r="L135" s="19"/>
-    </row>
-    <row r="136" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I136" s="21"/>
-      <c r="J136" s="22"/>
-      <c r="K136" s="18"/>
-      <c r="L136" s="19"/>
-    </row>
-    <row r="137" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I137" s="21"/>
-      <c r="J137" s="22"/>
-      <c r="K137" s="18"/>
-      <c r="L137" s="19"/>
-    </row>
-    <row r="138" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I138" s="21"/>
-      <c r="J138" s="22"/>
-      <c r="K138" s="18"/>
-      <c r="L138" s="19"/>
-    </row>
-    <row r="139" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I139" s="21"/>
-      <c r="J139" s="22"/>
-      <c r="K139" s="18"/>
-      <c r="L139" s="19"/>
-    </row>
-    <row r="140" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I140" s="21"/>
-      <c r="J140" s="22"/>
-      <c r="K140" s="18"/>
-      <c r="L140" s="19"/>
-    </row>
-    <row r="141" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I141" s="21"/>
-      <c r="J141" s="22"/>
-      <c r="K141" s="18"/>
-      <c r="L141" s="19"/>
-    </row>
-    <row r="142" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I142" s="21"/>
-      <c r="J142" s="22"/>
-      <c r="K142" s="18"/>
-      <c r="L142" s="19"/>
-    </row>
-    <row r="143" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I143" s="21"/>
-      <c r="J143" s="22"/>
-      <c r="K143" s="18"/>
-      <c r="L143" s="19"/>
-    </row>
-    <row r="144" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I144" s="21"/>
-      <c r="J144" s="22"/>
-      <c r="K144" s="18"/>
-      <c r="L144" s="19"/>
-    </row>
-    <row r="145" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I145" s="21"/>
-      <c r="J145" s="22"/>
-      <c r="K145" s="18"/>
-      <c r="L145" s="19"/>
-    </row>
-    <row r="146" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I146" s="21"/>
-      <c r="J146" s="22"/>
-      <c r="K146" s="18"/>
-      <c r="L146" s="19"/>
-    </row>
-    <row r="147" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I147" s="21"/>
-      <c r="J147" s="22"/>
-      <c r="K147" s="18"/>
-      <c r="L147" s="19"/>
-    </row>
-    <row r="148" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I148" s="21"/>
-      <c r="J148" s="22"/>
-      <c r="K148" s="18"/>
-      <c r="L148" s="19"/>
-    </row>
-    <row r="149" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I149" s="21"/>
-      <c r="J149" s="22"/>
-      <c r="K149" s="18"/>
-      <c r="L149" s="19"/>
-    </row>
-    <row r="150" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I150" s="21"/>
-      <c r="J150" s="22"/>
-      <c r="K150" s="18"/>
-      <c r="L150" s="19"/>
-    </row>
-    <row r="151" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I151" s="21"/>
-      <c r="J151" s="22"/>
-      <c r="K151" s="18"/>
-      <c r="L151" s="19"/>
-    </row>
-    <row r="152" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I152" s="21"/>
-      <c r="J152" s="22"/>
-      <c r="K152" s="18"/>
-      <c r="L152" s="19"/>
-    </row>
-    <row r="153" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I153" s="21"/>
-      <c r="J153" s="22"/>
-      <c r="K153" s="18"/>
-      <c r="L153" s="19"/>
-    </row>
-    <row r="154" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I154" s="21"/>
-      <c r="J154" s="22"/>
-      <c r="K154" s="18"/>
-      <c r="L154" s="19"/>
-    </row>
-    <row r="155" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I155" s="21"/>
-      <c r="J155" s="22"/>
-      <c r="K155" s="18"/>
-      <c r="L155" s="19"/>
-    </row>
-    <row r="156" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I156" s="21"/>
-      <c r="J156" s="22"/>
-      <c r="K156" s="18"/>
-      <c r="L156" s="19"/>
-    </row>
-    <row r="157" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I157" s="21"/>
-      <c r="J157" s="22"/>
-      <c r="K157" s="18"/>
-      <c r="L157" s="19"/>
-    </row>
-    <row r="158" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I158" s="21"/>
-      <c r="J158" s="22"/>
-      <c r="K158" s="18"/>
-      <c r="L158" s="19"/>
-    </row>
-    <row r="159" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I159" s="21"/>
-      <c r="J159" s="22"/>
-      <c r="K159" s="18"/>
-      <c r="L159" s="19"/>
-    </row>
-    <row r="160" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I160" s="21"/>
-      <c r="J160" s="22"/>
-      <c r="K160" s="18"/>
-      <c r="L160" s="19"/>
-    </row>
-    <row r="161" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I161" s="21"/>
-      <c r="J161" s="22"/>
-      <c r="K161" s="18"/>
-      <c r="L161" s="19"/>
-    </row>
-    <row r="162" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I162" s="21"/>
-      <c r="J162" s="22"/>
-      <c r="K162" s="18"/>
-      <c r="L162" s="19"/>
-    </row>
-    <row r="163" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I163" s="21"/>
-      <c r="J163" s="22"/>
-      <c r="K163" s="18"/>
-      <c r="L163" s="19"/>
-    </row>
-    <row r="164" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I164" s="21"/>
-      <c r="J164" s="22"/>
-      <c r="K164" s="18"/>
-      <c r="L164" s="19"/>
-    </row>
-    <row r="165" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I165" s="21"/>
-      <c r="J165" s="22"/>
-      <c r="K165" s="18"/>
-      <c r="L165" s="19"/>
-    </row>
-    <row r="166" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I166" s="21"/>
-      <c r="J166" s="22"/>
-      <c r="K166" s="18"/>
-      <c r="L166" s="19"/>
-    </row>
-    <row r="167" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I167" s="21"/>
-      <c r="J167" s="22"/>
-      <c r="K167" s="18"/>
-      <c r="L167" s="19"/>
-    </row>
-    <row r="168" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I168" s="21"/>
-      <c r="J168" s="22"/>
-      <c r="K168" s="18"/>
-      <c r="L168" s="19"/>
-    </row>
-    <row r="169" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I169" s="21"/>
-      <c r="J169" s="22"/>
-      <c r="K169" s="18"/>
-      <c r="L169" s="19"/>
-    </row>
-    <row r="170" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I170" s="21"/>
-      <c r="J170" s="22"/>
-      <c r="K170" s="18"/>
-      <c r="L170" s="19"/>
-    </row>
-    <row r="171" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I171" s="21"/>
-      <c r="J171" s="22"/>
-      <c r="K171" s="18"/>
-      <c r="L171" s="19"/>
-    </row>
-    <row r="172" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I172" s="21"/>
-      <c r="J172" s="22"/>
-      <c r="K172" s="18"/>
-      <c r="L172" s="19"/>
-    </row>
-    <row r="173" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I173" s="21"/>
-      <c r="J173" s="22"/>
-      <c r="K173" s="18"/>
-      <c r="L173" s="19"/>
-    </row>
-    <row r="174" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I174" s="21"/>
-      <c r="J174" s="22"/>
-      <c r="K174" s="18"/>
-      <c r="L174" s="19"/>
-    </row>
-    <row r="175" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I175" s="21"/>
-      <c r="J175" s="22"/>
-      <c r="K175" s="18"/>
-      <c r="L175" s="19"/>
-    </row>
-    <row r="176" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I176" s="21"/>
-      <c r="J176" s="22"/>
-      <c r="K176" s="18"/>
-      <c r="L176" s="19"/>
-    </row>
-    <row r="177" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I177" s="21"/>
-      <c r="J177" s="22"/>
-      <c r="K177" s="18"/>
-      <c r="L177" s="19"/>
-    </row>
-    <row r="178" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I178" s="21"/>
-      <c r="J178" s="22"/>
-      <c r="K178" s="18"/>
-      <c r="L178" s="19"/>
-    </row>
-    <row r="179" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I179" s="21"/>
-      <c r="J179" s="22"/>
-      <c r="K179" s="18"/>
-      <c r="L179" s="19"/>
-    </row>
-    <row r="180" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I180" s="21"/>
-      <c r="J180" s="22"/>
-      <c r="K180" s="18"/>
-      <c r="L180" s="19"/>
-    </row>
-    <row r="181" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I181" s="21"/>
-      <c r="J181" s="22"/>
-      <c r="K181" s="18"/>
-      <c r="L181" s="19"/>
-    </row>
-    <row r="182" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I182" s="21"/>
-      <c r="J182" s="22"/>
-      <c r="K182" s="18"/>
-      <c r="L182" s="19"/>
-    </row>
-    <row r="183" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I183" s="21"/>
-      <c r="J183" s="22"/>
-      <c r="K183" s="18"/>
-      <c r="L183" s="19"/>
-    </row>
-    <row r="184" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I184" s="21"/>
-      <c r="J184" s="22"/>
-      <c r="K184" s="18"/>
-      <c r="L184" s="19"/>
-    </row>
-    <row r="185" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I185" s="21"/>
-      <c r="J185" s="22"/>
-      <c r="K185" s="18"/>
-      <c r="L185" s="19"/>
-    </row>
-    <row r="186" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I186" s="21"/>
-      <c r="J186" s="22"/>
-      <c r="K186" s="18"/>
-      <c r="L186" s="19"/>
-    </row>
-    <row r="187" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I187" s="21"/>
-      <c r="J187" s="22"/>
-      <c r="K187" s="18"/>
-      <c r="L187" s="19"/>
-    </row>
-    <row r="188" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I188" s="21"/>
-      <c r="J188" s="22"/>
-      <c r="K188" s="18"/>
-      <c r="L188" s="19"/>
-    </row>
-    <row r="189" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I189" s="21"/>
-      <c r="J189" s="22"/>
-      <c r="K189" s="18"/>
-      <c r="L189" s="19"/>
-    </row>
-    <row r="190" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I190" s="21"/>
-      <c r="J190" s="22"/>
-      <c r="K190" s="18"/>
-      <c r="L190" s="19"/>
-    </row>
-    <row r="191" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I191" s="21"/>
-      <c r="J191" s="22"/>
-      <c r="K191" s="18"/>
-      <c r="L191" s="19"/>
-    </row>
-    <row r="192" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I192" s="21"/>
-      <c r="J192" s="22"/>
-      <c r="K192" s="18"/>
-      <c r="L192" s="19"/>
-    </row>
-    <row r="193" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I193" s="21"/>
-      <c r="J193" s="22"/>
-      <c r="K193" s="18"/>
-      <c r="L193" s="19"/>
-    </row>
-    <row r="194" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I194" s="21"/>
-      <c r="J194" s="22"/>
-      <c r="K194" s="18"/>
-      <c r="L194" s="19"/>
-    </row>
-    <row r="195" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I195" s="21"/>
-      <c r="J195" s="22"/>
-      <c r="K195" s="18"/>
-      <c r="L195" s="19"/>
-    </row>
-    <row r="196" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I196" s="21"/>
-      <c r="J196" s="22"/>
-      <c r="K196" s="18"/>
-      <c r="L196" s="19"/>
-    </row>
-    <row r="197" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I197" s="21"/>
-      <c r="J197" s="22"/>
-      <c r="K197" s="18"/>
-      <c r="L197" s="19"/>
-    </row>
-    <row r="198" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I198" s="21"/>
-      <c r="J198" s="22"/>
-      <c r="K198" s="18"/>
-      <c r="L198" s="19"/>
-    </row>
-    <row r="199" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I199" s="21"/>
-      <c r="J199" s="22"/>
-      <c r="K199" s="18"/>
-      <c r="L199" s="19"/>
-    </row>
-    <row r="200" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I200" s="21"/>
-      <c r="J200" s="22"/>
-      <c r="K200" s="18"/>
-      <c r="L200" s="19"/>
-    </row>
-    <row r="201" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I201" s="21"/>
-      <c r="J201" s="22"/>
-      <c r="K201" s="18"/>
-      <c r="L201" s="19"/>
-    </row>
-    <row r="202" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I202" s="21"/>
-      <c r="J202" s="22"/>
-      <c r="K202" s="18"/>
-      <c r="L202" s="19"/>
-    </row>
-    <row r="203" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I203" s="21"/>
-      <c r="J203" s="22"/>
-      <c r="K203" s="18"/>
-      <c r="L203" s="19"/>
-    </row>
-    <row r="204" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I204" s="21"/>
-      <c r="J204" s="22"/>
-      <c r="K204" s="18"/>
-      <c r="L204" s="19"/>
-    </row>
-    <row r="205" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I205" s="21"/>
-      <c r="J205" s="22"/>
-      <c r="K205" s="18"/>
-      <c r="L205" s="19"/>
-    </row>
-    <row r="206" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I206" s="21"/>
-      <c r="J206" s="22"/>
-      <c r="K206" s="18"/>
-      <c r="L206" s="19"/>
-    </row>
-    <row r="207" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I207" s="21"/>
-      <c r="J207" s="22"/>
-      <c r="K207" s="18"/>
-      <c r="L207" s="19"/>
-    </row>
-    <row r="208" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I208" s="21"/>
-      <c r="J208" s="22"/>
-      <c r="K208" s="18"/>
-      <c r="L208" s="19"/>
-    </row>
-    <row r="209" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I209" s="21"/>
-      <c r="J209" s="22"/>
-      <c r="K209" s="18"/>
-      <c r="L209" s="19"/>
-    </row>
-    <row r="210" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I210" s="21"/>
-      <c r="J210" s="22"/>
-      <c r="K210" s="18"/>
-      <c r="L210" s="19"/>
-    </row>
-    <row r="211" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I211" s="21"/>
-      <c r="J211" s="22"/>
-      <c r="K211" s="18"/>
-      <c r="L211" s="19"/>
-    </row>
-    <row r="212" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I212" s="21"/>
-      <c r="J212" s="22"/>
-      <c r="K212" s="18"/>
-      <c r="L212" s="19"/>
-    </row>
-    <row r="213" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I213" s="21"/>
-      <c r="J213" s="22"/>
-      <c r="K213" s="18"/>
-      <c r="L213" s="19"/>
-    </row>
-    <row r="214" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I214" s="21"/>
-      <c r="J214" s="22"/>
-      <c r="K214" s="18"/>
-      <c r="L214" s="19"/>
-    </row>
-    <row r="215" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I215" s="21"/>
-      <c r="J215" s="22"/>
-      <c r="K215" s="18"/>
-      <c r="L215" s="19"/>
-    </row>
-    <row r="216" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I216" s="21"/>
-      <c r="J216" s="22"/>
-      <c r="K216" s="18"/>
-      <c r="L216" s="19"/>
-    </row>
-    <row r="217" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I217" s="21"/>
-      <c r="J217" s="22"/>
-      <c r="K217" s="18"/>
-      <c r="L217" s="19"/>
-    </row>
-    <row r="218" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I218" s="21"/>
-      <c r="J218" s="22"/>
-      <c r="K218" s="18"/>
-      <c r="L218" s="19"/>
-    </row>
-    <row r="219" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I219" s="21"/>
-      <c r="J219" s="22"/>
-      <c r="K219" s="18"/>
-      <c r="L219" s="19"/>
-    </row>
-    <row r="220" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I220" s="21"/>
-      <c r="J220" s="22"/>
-      <c r="K220" s="18"/>
-      <c r="L220" s="19"/>
-    </row>
-    <row r="221" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I221" s="21"/>
-      <c r="J221" s="22"/>
-      <c r="K221" s="18"/>
-      <c r="L221" s="19"/>
-    </row>
-    <row r="222" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I222" s="21"/>
-      <c r="J222" s="22"/>
-      <c r="K222" s="18"/>
-      <c r="L222" s="19"/>
-    </row>
-    <row r="223" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I223" s="21"/>
-      <c r="J223" s="22"/>
-      <c r="K223" s="18"/>
-      <c r="L223" s="19"/>
-    </row>
-    <row r="224" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I224" s="21"/>
-      <c r="J224" s="22"/>
-      <c r="K224" s="18"/>
-      <c r="L224" s="19"/>
-    </row>
-    <row r="225" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I225" s="21"/>
-      <c r="J225" s="22"/>
-      <c r="K225" s="18"/>
-      <c r="L225" s="19"/>
-    </row>
-    <row r="226" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I226" s="21"/>
-      <c r="J226" s="22"/>
-      <c r="K226" s="18"/>
-      <c r="L226" s="19"/>
-    </row>
-    <row r="227" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I227" s="21"/>
-      <c r="J227" s="22"/>
-      <c r="K227" s="18"/>
-      <c r="L227" s="19"/>
-    </row>
-    <row r="228" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I228" s="21"/>
-      <c r="J228" s="22"/>
-      <c r="K228" s="18"/>
-      <c r="L228" s="19"/>
-    </row>
-    <row r="229" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I229" s="21"/>
-      <c r="J229" s="22"/>
-      <c r="K229" s="18"/>
-      <c r="L229" s="19"/>
-    </row>
-    <row r="230" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I230" s="21"/>
-      <c r="J230" s="22"/>
-      <c r="K230" s="18"/>
-      <c r="L230" s="19"/>
-    </row>
-    <row r="231" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I231" s="21"/>
-      <c r="J231" s="22"/>
-      <c r="K231" s="18"/>
-      <c r="L231" s="19"/>
-    </row>
-    <row r="232" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I232" s="21"/>
-      <c r="J232" s="22"/>
-      <c r="K232" s="18"/>
-      <c r="L232" s="19"/>
-    </row>
-    <row r="233" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I233" s="21"/>
-      <c r="J233" s="22"/>
-      <c r="K233" s="18"/>
-      <c r="L233" s="19"/>
-    </row>
-    <row r="234" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I234" s="21"/>
-      <c r="J234" s="22"/>
-      <c r="K234" s="18"/>
-      <c r="L234" s="19"/>
-    </row>
-    <row r="235" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I235" s="21"/>
-      <c r="J235" s="22"/>
-      <c r="K235" s="18"/>
-      <c r="L235" s="19"/>
-    </row>
-    <row r="236" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I236" s="21"/>
-      <c r="J236" s="22"/>
-      <c r="K236" s="18"/>
-      <c r="L236" s="19"/>
-    </row>
-    <row r="237" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I237" s="21"/>
-      <c r="J237" s="22"/>
-      <c r="K237" s="18"/>
-      <c r="L237" s="19"/>
-    </row>
-    <row r="238" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I238" s="21"/>
-      <c r="J238" s="22"/>
-      <c r="K238" s="18"/>
-      <c r="L238" s="19"/>
-    </row>
-    <row r="239" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I239" s="21"/>
-      <c r="J239" s="22"/>
-      <c r="K239" s="18"/>
-      <c r="L239" s="19"/>
-    </row>
-    <row r="240" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I240" s="21"/>
-      <c r="J240" s="22"/>
-      <c r="K240" s="18"/>
-      <c r="L240" s="19"/>
-    </row>
-    <row r="241" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I241" s="21"/>
-      <c r="J241" s="22"/>
-      <c r="K241" s="18"/>
-      <c r="L241" s="19"/>
-    </row>
-    <row r="242" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I242" s="21"/>
-      <c r="J242" s="22"/>
-      <c r="K242" s="18"/>
-      <c r="L242" s="19"/>
-    </row>
-    <row r="243" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I243" s="21"/>
-      <c r="J243" s="22"/>
-      <c r="K243" s="18"/>
-      <c r="L243" s="19"/>
-    </row>
-    <row r="244" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I244" s="21"/>
-      <c r="J244" s="22"/>
-      <c r="K244" s="18"/>
-      <c r="L244" s="19"/>
-    </row>
-    <row r="245" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I245" s="21"/>
-      <c r="J245" s="22"/>
-      <c r="K245" s="18"/>
-      <c r="L245" s="19"/>
-    </row>
-    <row r="246" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I246" s="21"/>
-      <c r="J246" s="22"/>
-      <c r="K246" s="18"/>
-      <c r="L246" s="19"/>
-    </row>
-    <row r="247" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I247" s="21"/>
-      <c r="J247" s="22"/>
-      <c r="K247" s="18"/>
-      <c r="L247" s="19"/>
-    </row>
-    <row r="248" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I248" s="21"/>
-      <c r="J248" s="22"/>
-      <c r="K248" s="18"/>
-      <c r="L248" s="19"/>
-    </row>
-    <row r="249" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I249" s="21"/>
-      <c r="J249" s="22"/>
-      <c r="K249" s="18"/>
-      <c r="L249" s="19"/>
-    </row>
-    <row r="250" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I250" s="21"/>
-      <c r="J250" s="22"/>
-      <c r="K250" s="18"/>
-      <c r="L250" s="19"/>
-    </row>
-    <row r="251" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I251" s="21"/>
-      <c r="J251" s="22"/>
-      <c r="K251" s="18"/>
-      <c r="L251" s="19"/>
-    </row>
-    <row r="252" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I252" s="21"/>
-      <c r="J252" s="22"/>
-      <c r="K252" s="18"/>
-      <c r="L252" s="19"/>
-    </row>
-    <row r="253" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I253" s="21"/>
-      <c r="J253" s="22"/>
-      <c r="K253" s="18"/>
-      <c r="L253" s="19"/>
-    </row>
-    <row r="254" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I254" s="21"/>
-      <c r="J254" s="22"/>
-      <c r="K254" s="18"/>
-      <c r="L254" s="19"/>
-    </row>
-    <row r="255" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I255" s="21"/>
-      <c r="J255" s="22"/>
-      <c r="K255" s="18"/>
-      <c r="L255" s="19"/>
-    </row>
-    <row r="256" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I256" s="21"/>
-      <c r="J256" s="22"/>
-      <c r="K256" s="18"/>
-      <c r="L256" s="19"/>
-    </row>
-    <row r="257" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I257" s="21"/>
-      <c r="J257" s="22"/>
-      <c r="K257" s="18"/>
-      <c r="L257" s="19"/>
-    </row>
-    <row r="258" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I258" s="21"/>
-      <c r="J258" s="22"/>
-      <c r="K258" s="18"/>
-      <c r="L258" s="19"/>
-    </row>
-    <row r="259" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I259" s="21"/>
-      <c r="J259" s="22"/>
-      <c r="K259" s="18"/>
-      <c r="L259" s="19"/>
-    </row>
-    <row r="260" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I260" s="21"/>
-      <c r="J260" s="22"/>
-      <c r="K260" s="18"/>
-      <c r="L260" s="19"/>
-    </row>
-    <row r="261" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I261" s="21"/>
-      <c r="J261" s="22"/>
-      <c r="K261" s="18"/>
-      <c r="L261" s="19"/>
-    </row>
-    <row r="262" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I262" s="21"/>
-      <c r="J262" s="22"/>
-      <c r="K262" s="18"/>
-      <c r="L262" s="19"/>
-    </row>
-    <row r="263" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I263" s="21"/>
-      <c r="J263" s="22"/>
-      <c r="K263" s="18"/>
-      <c r="L263" s="19"/>
-    </row>
-    <row r="264" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I264" s="21"/>
-      <c r="J264" s="22"/>
-      <c r="K264" s="18"/>
-      <c r="L264" s="19"/>
-    </row>
-    <row r="265" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I265" s="21"/>
-      <c r="J265" s="22"/>
-      <c r="K265" s="18"/>
-      <c r="L265" s="19"/>
-    </row>
-    <row r="266" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I266" s="21"/>
-      <c r="J266" s="22"/>
-      <c r="K266" s="18"/>
-      <c r="L266" s="19"/>
-    </row>
-    <row r="267" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I267" s="21"/>
-      <c r="J267" s="22"/>
-      <c r="K267" s="18"/>
-      <c r="L267" s="19"/>
-    </row>
-    <row r="268" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I268" s="21"/>
-      <c r="J268" s="22"/>
-      <c r="K268" s="18"/>
-      <c r="L268" s="19"/>
-    </row>
-    <row r="269" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I269" s="21"/>
-      <c r="J269" s="22"/>
-      <c r="K269" s="18"/>
-      <c r="L269" s="19"/>
-    </row>
-    <row r="270" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I270" s="21"/>
-      <c r="J270" s="22"/>
-      <c r="K270" s="18"/>
-      <c r="L270" s="19"/>
-    </row>
-    <row r="271" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I271" s="21"/>
-      <c r="J271" s="22"/>
-      <c r="K271" s="18"/>
-      <c r="L271" s="19"/>
-    </row>
-    <row r="272" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I272" s="21"/>
-      <c r="J272" s="22"/>
-      <c r="K272" s="18"/>
-      <c r="L272" s="19"/>
-    </row>
-    <row r="273" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I273" s="21"/>
-      <c r="J273" s="22"/>
-      <c r="K273" s="18"/>
-      <c r="L273" s="19"/>
-    </row>
-    <row r="274" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I274" s="21"/>
-      <c r="J274" s="22"/>
-      <c r="K274" s="18"/>
-      <c r="L274" s="19"/>
-    </row>
-    <row r="275" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I275" s="21"/>
-      <c r="J275" s="22"/>
-      <c r="K275" s="18"/>
-      <c r="L275" s="19"/>
-    </row>
-    <row r="276" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I276" s="21"/>
-      <c r="J276" s="22"/>
-      <c r="K276" s="18"/>
-      <c r="L276" s="19"/>
-    </row>
-    <row r="277" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I277" s="21"/>
-      <c r="J277" s="22"/>
-      <c r="K277" s="18"/>
-      <c r="L277" s="19"/>
-    </row>
-    <row r="278" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I278" s="21"/>
-      <c r="J278" s="22"/>
-      <c r="K278" s="18"/>
-      <c r="L278" s="19"/>
-    </row>
-    <row r="279" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I279" s="21"/>
-      <c r="J279" s="22"/>
-      <c r="K279" s="18"/>
-      <c r="L279" s="19"/>
-    </row>
-    <row r="280" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I280" s="21"/>
-      <c r="J280" s="22"/>
-      <c r="K280" s="18"/>
-      <c r="L280" s="19"/>
-    </row>
-    <row r="281" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I281" s="21"/>
-      <c r="J281" s="22"/>
-      <c r="K281" s="18"/>
-      <c r="L281" s="19"/>
-    </row>
-    <row r="282" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I282" s="21"/>
-      <c r="J282" s="22"/>
-      <c r="K282" s="18"/>
-      <c r="L282" s="19"/>
-    </row>
-    <row r="283" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I283" s="21"/>
-      <c r="J283" s="22"/>
-      <c r="K283" s="18"/>
-      <c r="L283" s="19"/>
-    </row>
-    <row r="284" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I284" s="21"/>
-      <c r="J284" s="22"/>
-      <c r="K284" s="18"/>
-      <c r="L284" s="19"/>
-    </row>
-    <row r="285" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I285" s="21"/>
-      <c r="J285" s="22"/>
-      <c r="K285" s="18"/>
-      <c r="L285" s="19"/>
-    </row>
-    <row r="286" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I286" s="21"/>
-      <c r="J286" s="22"/>
-      <c r="K286" s="18"/>
-      <c r="L286" s="19"/>
-    </row>
-    <row r="287" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I287" s="21"/>
-      <c r="J287" s="22"/>
-      <c r="K287" s="18"/>
-      <c r="L287" s="19"/>
-    </row>
-    <row r="288" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I288" s="21"/>
-      <c r="J288" s="22"/>
-      <c r="K288" s="18"/>
-      <c r="L288" s="19"/>
-    </row>
-    <row r="289" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I289" s="21"/>
-      <c r="J289" s="22"/>
-      <c r="K289" s="18"/>
-      <c r="L289" s="19"/>
-    </row>
-    <row r="290" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I290" s="21"/>
-      <c r="J290" s="22"/>
-      <c r="K290" s="18"/>
-      <c r="L290" s="19"/>
-    </row>
-    <row r="291" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I291" s="21"/>
-      <c r="J291" s="22"/>
-      <c r="K291" s="18"/>
-      <c r="L291" s="19"/>
-    </row>
-    <row r="292" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I292" s="21"/>
-      <c r="J292" s="22"/>
-      <c r="K292" s="18"/>
-      <c r="L292" s="19"/>
-    </row>
-    <row r="293" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I293" s="21"/>
-      <c r="J293" s="22"/>
-      <c r="K293" s="18"/>
-      <c r="L293" s="19"/>
-    </row>
-    <row r="294" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I294" s="21"/>
-      <c r="J294" s="22"/>
-      <c r="K294" s="18"/>
-      <c r="L294" s="19"/>
-    </row>
-    <row r="295" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I295" s="21"/>
-      <c r="J295" s="22"/>
-      <c r="K295" s="18"/>
-      <c r="L295" s="19"/>
-    </row>
-    <row r="296" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I296" s="21"/>
-      <c r="J296" s="22"/>
-      <c r="K296" s="18"/>
-      <c r="L296" s="19"/>
-    </row>
-    <row r="297" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I297" s="21"/>
-      <c r="J297" s="22"/>
-      <c r="K297" s="18"/>
-      <c r="L297" s="19"/>
-    </row>
-    <row r="298" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I298" s="21"/>
-      <c r="J298" s="22"/>
-      <c r="K298" s="18"/>
-      <c r="L298" s="19"/>
-    </row>
-    <row r="299" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I299" s="21"/>
-      <c r="J299" s="22"/>
-      <c r="K299" s="18"/>
-      <c r="L299" s="19"/>
-    </row>
-    <row r="300" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I300" s="21"/>
-      <c r="J300" s="22"/>
-      <c r="K300" s="18"/>
-      <c r="L300" s="19"/>
-    </row>
-    <row r="301" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I301" s="21"/>
-      <c r="J301" s="22"/>
-      <c r="K301" s="18"/>
-      <c r="L301" s="19"/>
-    </row>
-    <row r="302" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I302" s="21"/>
-      <c r="J302" s="22"/>
-      <c r="K302" s="18"/>
-      <c r="L302" s="19"/>
-    </row>
-    <row r="303" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I303" s="21"/>
-      <c r="J303" s="22"/>
-      <c r="K303" s="18"/>
-      <c r="L303" s="19"/>
-    </row>
-    <row r="304" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I304" s="21"/>
-      <c r="J304" s="22"/>
-      <c r="K304" s="18"/>
-      <c r="L304" s="19"/>
-    </row>
-    <row r="305" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I305" s="21"/>
-      <c r="J305" s="22"/>
-      <c r="K305" s="18"/>
-      <c r="L305" s="19"/>
-    </row>
-    <row r="306" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I306" s="21"/>
-      <c r="J306" s="22"/>
-      <c r="K306" s="18"/>
-      <c r="L306" s="19"/>
-    </row>
-    <row r="307" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I307" s="21"/>
-      <c r="J307" s="22"/>
-      <c r="K307" s="18"/>
-      <c r="L307" s="19"/>
-    </row>
-    <row r="308" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I308" s="21"/>
-      <c r="J308" s="22"/>
-      <c r="K308" s="18"/>
-      <c r="L308" s="19"/>
-    </row>
-    <row r="309" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I309" s="21"/>
-      <c r="J309" s="22"/>
-      <c r="K309" s="18"/>
-      <c r="L309" s="19"/>
-    </row>
-    <row r="310" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I310" s="21"/>
-      <c r="J310" s="22"/>
-      <c r="K310" s="18"/>
-      <c r="L310" s="19"/>
-    </row>
-    <row r="311" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I311" s="21"/>
-      <c r="J311" s="22"/>
-      <c r="K311" s="18"/>
-      <c r="L311" s="19"/>
-    </row>
-    <row r="312" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I312" s="21"/>
-      <c r="J312" s="22"/>
-      <c r="K312" s="18"/>
-      <c r="L312" s="19"/>
-    </row>
-    <row r="313" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I313" s="21"/>
-      <c r="J313" s="22"/>
-      <c r="K313" s="18"/>
-      <c r="L313" s="19"/>
-    </row>
-    <row r="314" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I314" s="21"/>
-      <c r="J314" s="22"/>
-      <c r="K314" s="18"/>
-      <c r="L314" s="19"/>
-    </row>
-    <row r="315" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I315" s="21"/>
-      <c r="J315" s="22"/>
-      <c r="K315" s="18"/>
-      <c r="L315" s="19"/>
-    </row>
-    <row r="316" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I316" s="21"/>
-      <c r="J316" s="22"/>
-      <c r="K316" s="18"/>
-      <c r="L316" s="19"/>
-    </row>
-    <row r="317" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I317" s="21"/>
-      <c r="J317" s="22"/>
-      <c r="K317" s="18"/>
-      <c r="L317" s="19"/>
-    </row>
-    <row r="318" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I318" s="21"/>
-      <c r="J318" s="22"/>
-      <c r="K318" s="18"/>
-      <c r="L318" s="19"/>
-    </row>
-    <row r="319" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I319" s="21"/>
-      <c r="J319" s="22"/>
-      <c r="K319" s="18"/>
-      <c r="L319" s="19"/>
-    </row>
-    <row r="320" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I320" s="21"/>
-      <c r="J320" s="22"/>
-      <c r="K320" s="18"/>
-      <c r="L320" s="19"/>
-    </row>
-    <row r="321" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I321" s="21"/>
-      <c r="J321" s="22"/>
-      <c r="K321" s="18"/>
-      <c r="L321" s="19"/>
-    </row>
-    <row r="322" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I322" s="21"/>
-      <c r="J322" s="22"/>
-      <c r="K322" s="18"/>
-      <c r="L322" s="19"/>
-    </row>
-    <row r="323" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I323" s="21"/>
-      <c r="J323" s="22"/>
-      <c r="K323" s="18"/>
-      <c r="L323" s="19"/>
-    </row>
-    <row r="324" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I324" s="21"/>
-      <c r="J324" s="22"/>
-      <c r="K324" s="18"/>
-      <c r="L324" s="19"/>
-    </row>
-    <row r="325" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I325" s="21"/>
-      <c r="J325" s="22"/>
-      <c r="K325" s="18"/>
-      <c r="L325" s="19"/>
-    </row>
-    <row r="326" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I326" s="21"/>
-      <c r="J326" s="22"/>
-      <c r="K326" s="18"/>
-      <c r="L326" s="19"/>
-    </row>
-    <row r="327" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I327" s="21"/>
-      <c r="J327" s="22"/>
-      <c r="K327" s="18"/>
-      <c r="L327" s="19"/>
-    </row>
-    <row r="328" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I328" s="21"/>
-      <c r="J328" s="22"/>
-      <c r="K328" s="18"/>
-      <c r="L328" s="19"/>
-    </row>
-    <row r="329" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I329" s="21"/>
-      <c r="J329" s="22"/>
-      <c r="K329" s="18"/>
-      <c r="L329" s="19"/>
-    </row>
-    <row r="330" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I330" s="21"/>
-      <c r="J330" s="22"/>
-      <c r="K330" s="18"/>
-      <c r="L330" s="19"/>
-    </row>
-    <row r="331" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I331" s="21"/>
-      <c r="J331" s="22"/>
-      <c r="K331" s="18"/>
-      <c r="L331" s="19"/>
-    </row>
-    <row r="332" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I332" s="21"/>
-      <c r="J332" s="22"/>
-      <c r="K332" s="18"/>
-      <c r="L332" s="19"/>
-    </row>
-    <row r="333" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I333" s="21"/>
-      <c r="J333" s="22"/>
-      <c r="K333" s="18"/>
-      <c r="L333" s="19"/>
-    </row>
-    <row r="334" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I334" s="21"/>
-      <c r="J334" s="22"/>
-      <c r="K334" s="18"/>
-      <c r="L334" s="19"/>
-    </row>
-    <row r="335" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I335" s="21"/>
-      <c r="J335" s="22"/>
-      <c r="K335" s="18"/>
-      <c r="L335" s="19"/>
-    </row>
-    <row r="336" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I336" s="21"/>
-      <c r="J336" s="22"/>
-      <c r="K336" s="18"/>
-      <c r="L336" s="19"/>
-    </row>
-    <row r="337" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I337" s="21"/>
-      <c r="J337" s="22"/>
-      <c r="K337" s="18"/>
-      <c r="L337" s="19"/>
-    </row>
-    <row r="338" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I338" s="21"/>
-      <c r="J338" s="22"/>
-      <c r="K338" s="18"/>
-      <c r="L338" s="19"/>
-    </row>
-    <row r="339" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I339" s="21"/>
-      <c r="J339" s="22"/>
-      <c r="K339" s="18"/>
-      <c r="L339" s="19"/>
-    </row>
-    <row r="340" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I340" s="21"/>
-      <c r="J340" s="22"/>
-      <c r="K340" s="18"/>
-      <c r="L340" s="19"/>
-    </row>
-    <row r="341" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I341" s="21"/>
-      <c r="J341" s="22"/>
-      <c r="K341" s="18"/>
-      <c r="L341" s="19"/>
-    </row>
-    <row r="342" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I342" s="21"/>
-      <c r="J342" s="22"/>
-      <c r="K342" s="18"/>
-      <c r="L342" s="19"/>
-    </row>
-    <row r="343" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I343" s="21"/>
-      <c r="J343" s="22"/>
-      <c r="K343" s="18"/>
-      <c r="L343" s="19"/>
-    </row>
-    <row r="344" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I344" s="21"/>
-      <c r="J344" s="22"/>
-      <c r="K344" s="18"/>
-      <c r="L344" s="19"/>
-    </row>
-    <row r="345" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I345" s="21"/>
-      <c r="J345" s="22"/>
-      <c r="K345" s="18"/>
-      <c r="L345" s="19"/>
-    </row>
-    <row r="346" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I346" s="21"/>
-      <c r="J346" s="22"/>
-      <c r="K346" s="18"/>
-      <c r="L346" s="19"/>
-    </row>
-    <row r="347" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I347" s="21"/>
-      <c r="J347" s="22"/>
-      <c r="K347" s="18"/>
-      <c r="L347" s="19"/>
-    </row>
-    <row r="348" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I348" s="21"/>
-      <c r="J348" s="22"/>
-      <c r="K348" s="18"/>
-      <c r="L348" s="19"/>
-    </row>
-    <row r="349" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I349" s="21"/>
-      <c r="J349" s="22"/>
-      <c r="K349" s="18"/>
-      <c r="L349" s="19"/>
-    </row>
-    <row r="350" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I350" s="21"/>
-      <c r="J350" s="22"/>
-      <c r="K350" s="18"/>
-      <c r="L350" s="19"/>
-    </row>
-    <row r="351" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I351" s="21"/>
-      <c r="J351" s="22"/>
-      <c r="K351" s="18"/>
-      <c r="L351" s="19"/>
-    </row>
-    <row r="352" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I352" s="21"/>
-      <c r="J352" s="22"/>
-      <c r="K352" s="18"/>
-      <c r="L352" s="19"/>
-    </row>
-    <row r="353" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I353" s="21"/>
-      <c r="J353" s="22"/>
-      <c r="K353" s="18"/>
-      <c r="L353" s="19"/>
-    </row>
-    <row r="354" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I354" s="21"/>
-      <c r="J354" s="22"/>
-      <c r="K354" s="18"/>
-      <c r="L354" s="19"/>
-    </row>
-    <row r="355" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I355" s="21"/>
-      <c r="J355" s="22"/>
-      <c r="K355" s="18"/>
-      <c r="L355" s="19"/>
-    </row>
-    <row r="356" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I356" s="21"/>
-      <c r="J356" s="22"/>
-      <c r="K356" s="18"/>
-      <c r="L356" s="19"/>
-    </row>
-    <row r="357" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I357" s="21"/>
-      <c r="J357" s="22"/>
-      <c r="K357" s="18"/>
-      <c r="L357" s="19"/>
-    </row>
-    <row r="358" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I358" s="21"/>
-      <c r="J358" s="22"/>
-      <c r="K358" s="18"/>
-      <c r="L358" s="19"/>
-    </row>
-    <row r="359" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I359" s="21"/>
-      <c r="J359" s="22"/>
-      <c r="K359" s="18"/>
-      <c r="L359" s="19"/>
-    </row>
-    <row r="360" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I360" s="21"/>
-      <c r="J360" s="22"/>
-      <c r="K360" s="18"/>
-      <c r="L360" s="19"/>
-    </row>
-    <row r="361" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I361" s="21"/>
-      <c r="J361" s="22"/>
-      <c r="K361" s="18"/>
-      <c r="L361" s="19"/>
-    </row>
-    <row r="362" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I362" s="21"/>
-      <c r="J362" s="22"/>
-      <c r="K362" s="18"/>
-      <c r="L362" s="19"/>
-    </row>
-    <row r="363" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I363" s="21"/>
-      <c r="J363" s="22"/>
-      <c r="K363" s="18"/>
-      <c r="L363" s="19"/>
-    </row>
-    <row r="364" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I364" s="21"/>
-      <c r="J364" s="22"/>
-      <c r="K364" s="18"/>
-      <c r="L364" s="19"/>
-    </row>
-    <row r="365" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I365" s="21"/>
-      <c r="J365" s="22"/>
-      <c r="K365" s="18"/>
-      <c r="L365" s="19"/>
-    </row>
-    <row r="366" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I366" s="21"/>
-      <c r="J366" s="22"/>
-      <c r="K366" s="18"/>
-      <c r="L366" s="19"/>
-    </row>
-    <row r="367" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I367" s="21"/>
-      <c r="J367" s="22"/>
-      <c r="K367" s="18"/>
-      <c r="L367" s="19"/>
-    </row>
-    <row r="368" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I368" s="21"/>
-      <c r="J368" s="22"/>
-      <c r="K368" s="18"/>
-      <c r="L368" s="19"/>
-    </row>
-    <row r="369" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I369" s="21"/>
-      <c r="J369" s="22"/>
-      <c r="K369" s="18"/>
-      <c r="L369" s="19"/>
-    </row>
-    <row r="370" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I370" s="21"/>
-      <c r="J370" s="22"/>
-      <c r="K370" s="18"/>
-      <c r="L370" s="19"/>
-    </row>
-    <row r="371" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I371" s="21"/>
-      <c r="J371" s="22"/>
-      <c r="K371" s="18"/>
-      <c r="L371" s="19"/>
-    </row>
-    <row r="372" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I372" s="21"/>
-      <c r="J372" s="22"/>
-      <c r="K372" s="18"/>
-      <c r="L372" s="19"/>
-    </row>
-    <row r="373" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I373" s="21"/>
-      <c r="J373" s="22"/>
-      <c r="K373" s="18"/>
-      <c r="L373" s="19"/>
-    </row>
-    <row r="374" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I374" s="21"/>
-      <c r="J374" s="22"/>
-      <c r="K374" s="18"/>
-      <c r="L374" s="19"/>
-    </row>
-    <row r="375" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I375" s="21"/>
-      <c r="J375" s="22"/>
-      <c r="K375" s="18"/>
-      <c r="L375" s="19"/>
-    </row>
-    <row r="376" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I376" s="21"/>
-      <c r="J376" s="22"/>
-      <c r="K376" s="18"/>
-      <c r="L376" s="19"/>
-    </row>
-    <row r="377" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I377" s="21"/>
-      <c r="J377" s="22"/>
-      <c r="K377" s="18"/>
-      <c r="L377" s="19"/>
-    </row>
-    <row r="378" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I378" s="21"/>
-      <c r="J378" s="22"/>
-      <c r="K378" s="18"/>
-      <c r="L378" s="19"/>
-    </row>
-    <row r="379" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I379" s="21"/>
-      <c r="J379" s="22"/>
-      <c r="K379" s="18"/>
-      <c r="L379" s="19"/>
-    </row>
-    <row r="380" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I380" s="21"/>
-      <c r="J380" s="22"/>
-      <c r="K380" s="18"/>
-      <c r="L380" s="19"/>
-    </row>
-    <row r="381" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I381" s="21"/>
-      <c r="J381" s="22"/>
-      <c r="K381" s="18"/>
-      <c r="L381" s="19"/>
-    </row>
-    <row r="382" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I382" s="21"/>
-      <c r="J382" s="22"/>
-      <c r="K382" s="18"/>
-      <c r="L382" s="19"/>
-    </row>
-    <row r="383" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I383" s="21"/>
-      <c r="J383" s="22"/>
-      <c r="K383" s="18"/>
-      <c r="L383" s="19"/>
-    </row>
-    <row r="384" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I384" s="21"/>
-      <c r="J384" s="22"/>
-      <c r="K384" s="18"/>
-      <c r="L384" s="19"/>
-    </row>
-    <row r="385" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I385" s="21"/>
-      <c r="J385" s="22"/>
-      <c r="K385" s="18"/>
-      <c r="L385" s="19"/>
-    </row>
-    <row r="386" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I386" s="21"/>
-      <c r="J386" s="22"/>
-      <c r="K386" s="18"/>
-      <c r="L386" s="19"/>
-    </row>
-    <row r="387" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I387" s="21"/>
-      <c r="J387" s="22"/>
-      <c r="K387" s="18"/>
-      <c r="L387" s="19"/>
-    </row>
-    <row r="388" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I388" s="21"/>
-      <c r="J388" s="22"/>
-      <c r="K388" s="18"/>
-      <c r="L388" s="19"/>
-    </row>
-    <row r="389" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I389" s="21"/>
-      <c r="J389" s="22"/>
-      <c r="K389" s="18"/>
-      <c r="L389" s="19"/>
-    </row>
-    <row r="390" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I390" s="21"/>
-      <c r="J390" s="22"/>
-      <c r="K390" s="18"/>
-      <c r="L390" s="19"/>
-    </row>
-    <row r="391" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I391" s="21"/>
-      <c r="J391" s="22"/>
-      <c r="K391" s="18"/>
-      <c r="L391" s="19"/>
-    </row>
-    <row r="392" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I392" s="21"/>
-      <c r="J392" s="22"/>
-      <c r="K392" s="18"/>
-      <c r="L392" s="19"/>
-    </row>
-    <row r="393" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I393" s="21"/>
-      <c r="J393" s="22"/>
-      <c r="K393" s="18"/>
-      <c r="L393" s="19"/>
-    </row>
-    <row r="394" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I394" s="21"/>
-      <c r="J394" s="22"/>
-      <c r="K394" s="18"/>
-      <c r="L394" s="19"/>
-    </row>
-    <row r="395" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I395" s="21"/>
-      <c r="J395" s="22"/>
-      <c r="K395" s="18"/>
-      <c r="L395" s="19"/>
-    </row>
-    <row r="396" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I396" s="21"/>
-      <c r="J396" s="22"/>
-      <c r="K396" s="18"/>
-      <c r="L396" s="19"/>
-    </row>
-    <row r="397" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I397" s="21"/>
-      <c r="J397" s="22"/>
-      <c r="K397" s="18"/>
-      <c r="L397" s="19"/>
-    </row>
-    <row r="398" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I398" s="21"/>
-      <c r="J398" s="22"/>
-      <c r="K398" s="18"/>
-      <c r="L398" s="19"/>
-    </row>
-    <row r="399" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I399" s="21"/>
-      <c r="J399" s="22"/>
-      <c r="K399" s="18"/>
-      <c r="L399" s="19"/>
-    </row>
-    <row r="400" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I400" s="21"/>
-      <c r="J400" s="22"/>
-      <c r="K400" s="18"/>
-      <c r="L400" s="19"/>
-    </row>
-    <row r="401" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I401" s="21"/>
-      <c r="J401" s="22"/>
-      <c r="K401" s="18"/>
-      <c r="L401" s="19"/>
-    </row>
-    <row r="402" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I402" s="21"/>
-      <c r="J402" s="22"/>
-      <c r="K402" s="18"/>
-      <c r="L402" s="19"/>
-    </row>
-    <row r="403" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I403" s="21"/>
-      <c r="J403" s="22"/>
-      <c r="K403" s="18"/>
-      <c r="L403" s="19"/>
-    </row>
-    <row r="404" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I404" s="21"/>
-      <c r="J404" s="22"/>
-      <c r="K404" s="18"/>
-      <c r="L404" s="19"/>
-    </row>
-    <row r="405" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I405" s="21"/>
-      <c r="J405" s="22"/>
-      <c r="K405" s="18"/>
-      <c r="L405" s="19"/>
-    </row>
-    <row r="406" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I406" s="21"/>
-      <c r="J406" s="22"/>
-      <c r="K406" s="18"/>
-      <c r="L406" s="19"/>
-    </row>
-    <row r="407" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I407" s="21"/>
-      <c r="J407" s="22"/>
-      <c r="K407" s="18"/>
-      <c r="L407" s="19"/>
-    </row>
-    <row r="408" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I408" s="21"/>
-      <c r="J408" s="22"/>
-      <c r="K408" s="18"/>
-      <c r="L408" s="19"/>
-    </row>
-    <row r="409" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I409" s="21"/>
-      <c r="J409" s="22"/>
-      <c r="K409" s="18"/>
-      <c r="L409" s="19"/>
-    </row>
-    <row r="410" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I410" s="21"/>
-      <c r="J410" s="22"/>
-      <c r="K410" s="18"/>
-      <c r="L410" s="19"/>
-    </row>
-    <row r="411" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I411" s="21"/>
-      <c r="J411" s="22"/>
-      <c r="K411" s="18"/>
-      <c r="L411" s="19"/>
-    </row>
-    <row r="412" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I412" s="21"/>
-      <c r="J412" s="22"/>
-      <c r="K412" s="18"/>
-      <c r="L412" s="19"/>
-    </row>
-    <row r="413" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I413" s="21"/>
-      <c r="J413" s="22"/>
-      <c r="K413" s="18"/>
-      <c r="L413" s="19"/>
-    </row>
-    <row r="414" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I414" s="21"/>
-      <c r="J414" s="22"/>
-      <c r="K414" s="18"/>
-      <c r="L414" s="19"/>
-    </row>
-    <row r="415" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I415" s="21"/>
-      <c r="J415" s="22"/>
-      <c r="K415" s="18"/>
-      <c r="L415" s="19"/>
-    </row>
-    <row r="416" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I416" s="21"/>
-      <c r="J416" s="22"/>
-      <c r="K416" s="18"/>
-      <c r="L416" s="19"/>
-    </row>
-    <row r="417" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I417" s="21"/>
-      <c r="J417" s="22"/>
-      <c r="K417" s="18"/>
-      <c r="L417" s="19"/>
-    </row>
-    <row r="418" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I418" s="21"/>
-      <c r="J418" s="22"/>
-      <c r="K418" s="18"/>
-      <c r="L418" s="19"/>
-    </row>
-    <row r="419" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I419" s="21"/>
-      <c r="J419" s="22"/>
-      <c r="K419" s="18"/>
-      <c r="L419" s="19"/>
-    </row>
-    <row r="420" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I420" s="21"/>
-      <c r="J420" s="22"/>
-      <c r="K420" s="18"/>
-      <c r="L420" s="19"/>
-    </row>
-    <row r="421" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I421" s="21"/>
-      <c r="J421" s="22"/>
-      <c r="K421" s="18"/>
-      <c r="L421" s="19"/>
-    </row>
-    <row r="422" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I422" s="21"/>
-      <c r="J422" s="22"/>
-      <c r="K422" s="18"/>
-      <c r="L422" s="19"/>
-    </row>
-    <row r="423" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I423" s="21"/>
-      <c r="J423" s="22"/>
-      <c r="K423" s="18"/>
-      <c r="L423" s="19"/>
-    </row>
-    <row r="424" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I424" s="21"/>
-      <c r="J424" s="22"/>
-      <c r="K424" s="18"/>
-      <c r="L424" s="19"/>
-    </row>
-    <row r="425" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I425" s="21"/>
-      <c r="J425" s="22"/>
-      <c r="K425" s="18"/>
-      <c r="L425" s="19"/>
-    </row>
-    <row r="426" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I426" s="21"/>
-      <c r="J426" s="22"/>
-      <c r="K426" s="18"/>
-      <c r="L426" s="19"/>
-    </row>
-    <row r="427" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I427" s="21"/>
-      <c r="J427" s="22"/>
-      <c r="K427" s="18"/>
-      <c r="L427" s="19"/>
-    </row>
-    <row r="428" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I428" s="21"/>
-      <c r="J428" s="22"/>
-      <c r="K428" s="18"/>
-      <c r="L428" s="19"/>
-    </row>
-    <row r="429" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I429" s="21"/>
-      <c r="J429" s="22"/>
-      <c r="K429" s="18"/>
-      <c r="L429" s="19"/>
-    </row>
-    <row r="430" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I430" s="21"/>
-      <c r="J430" s="22"/>
-      <c r="K430" s="18"/>
-      <c r="L430" s="19"/>
-    </row>
-    <row r="431" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I431" s="21"/>
-      <c r="J431" s="22"/>
-      <c r="K431" s="18"/>
-      <c r="L431" s="19"/>
-    </row>
-    <row r="432" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I432" s="21"/>
-      <c r="J432" s="22"/>
-      <c r="K432" s="18"/>
-      <c r="L432" s="19"/>
-    </row>
-    <row r="433" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I433" s="21"/>
-      <c r="J433" s="22"/>
-      <c r="K433" s="18"/>
-      <c r="L433" s="19"/>
-    </row>
-    <row r="434" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I434" s="21"/>
-      <c r="J434" s="22"/>
-      <c r="K434" s="18"/>
-      <c r="L434" s="19"/>
-    </row>
-    <row r="435" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I435" s="21"/>
-      <c r="J435" s="22"/>
-      <c r="K435" s="18"/>
-      <c r="L435" s="19"/>
-    </row>
-    <row r="436" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I436" s="21"/>
-      <c r="J436" s="22"/>
-      <c r="K436" s="18"/>
-      <c r="L436" s="19"/>
-    </row>
-    <row r="437" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I437" s="21"/>
-      <c r="J437" s="22"/>
-      <c r="K437" s="18"/>
-      <c r="L437" s="19"/>
-    </row>
-    <row r="438" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I438" s="21"/>
-      <c r="J438" s="22"/>
-      <c r="K438" s="18"/>
-      <c r="L438" s="19"/>
-    </row>
-    <row r="439" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I439" s="21"/>
-      <c r="J439" s="22"/>
-      <c r="K439" s="18"/>
-      <c r="L439" s="19"/>
-    </row>
-    <row r="440" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I440" s="21"/>
-      <c r="J440" s="22"/>
-      <c r="K440" s="18"/>
-      <c r="L440" s="19"/>
-    </row>
-    <row r="441" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I441" s="21"/>
-      <c r="J441" s="22"/>
-      <c r="K441" s="18"/>
-      <c r="L441" s="19"/>
-    </row>
-    <row r="442" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I442" s="21"/>
-      <c r="J442" s="22"/>
-      <c r="K442" s="18"/>
-      <c r="L442" s="19"/>
-    </row>
-    <row r="443" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I443" s="21"/>
-      <c r="J443" s="22"/>
-      <c r="K443" s="18"/>
-      <c r="L443" s="19"/>
-    </row>
-    <row r="444" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I444" s="21"/>
-      <c r="J444" s="22"/>
-      <c r="K444" s="18"/>
-      <c r="L444" s="19"/>
-    </row>
-    <row r="445" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I445" s="21"/>
-      <c r="J445" s="22"/>
-      <c r="K445" s="18"/>
-      <c r="L445" s="19"/>
-    </row>
-    <row r="446" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I446" s="21"/>
-      <c r="J446" s="22"/>
-      <c r="K446" s="18"/>
-      <c r="L446" s="19"/>
-    </row>
-    <row r="447" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I447" s="21"/>
-      <c r="J447" s="22"/>
-      <c r="K447" s="18"/>
-      <c r="L447" s="19"/>
-    </row>
-    <row r="448" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I448" s="21"/>
-      <c r="J448" s="22"/>
-      <c r="K448" s="18"/>
-      <c r="L448" s="19"/>
-    </row>
-    <row r="449" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I449" s="21"/>
-      <c r="J449" s="22"/>
-      <c r="K449" s="18"/>
-      <c r="L449" s="19"/>
-    </row>
-    <row r="450" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I450" s="21"/>
-      <c r="J450" s="22"/>
-      <c r="K450" s="18"/>
-      <c r="L450" s="19"/>
-    </row>
-    <row r="451" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I451" s="21"/>
-      <c r="J451" s="22"/>
-      <c r="K451" s="18"/>
-      <c r="L451" s="19"/>
-    </row>
-    <row r="452" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I452" s="21"/>
-      <c r="J452" s="22"/>
-      <c r="K452" s="18"/>
-      <c r="L452" s="19"/>
-    </row>
-    <row r="453" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I453" s="21"/>
-      <c r="J453" s="22"/>
-      <c r="K453" s="18"/>
-      <c r="L453" s="19"/>
-    </row>
-    <row r="454" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I454" s="21"/>
-      <c r="J454" s="22"/>
-      <c r="K454" s="18"/>
-      <c r="L454" s="19"/>
-    </row>
-    <row r="455" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I455" s="21"/>
-      <c r="J455" s="22"/>
-      <c r="K455" s="18"/>
-      <c r="L455" s="19"/>
-    </row>
-    <row r="456" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I456" s="21"/>
-      <c r="J456" s="22"/>
-      <c r="K456" s="18"/>
-      <c r="L456" s="19"/>
-    </row>
-    <row r="457" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I457" s="21"/>
-      <c r="J457" s="22"/>
-      <c r="K457" s="18"/>
-      <c r="L457" s="19"/>
-    </row>
-    <row r="458" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I458" s="21"/>
-      <c r="J458" s="22"/>
-      <c r="K458" s="18"/>
-      <c r="L458" s="19"/>
-    </row>
-    <row r="459" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I459" s="21"/>
-      <c r="J459" s="22"/>
-      <c r="K459" s="18"/>
-      <c r="L459" s="19"/>
-    </row>
-    <row r="460" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I460" s="21"/>
-      <c r="J460" s="22"/>
-      <c r="K460" s="18"/>
-      <c r="L460" s="19"/>
-    </row>
-    <row r="461" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I461" s="21"/>
-      <c r="J461" s="22"/>
-      <c r="K461" s="18"/>
-      <c r="L461" s="19"/>
-    </row>
-    <row r="462" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I462" s="21"/>
-      <c r="J462" s="22"/>
-      <c r="K462" s="18"/>
-      <c r="L462" s="19"/>
-    </row>
-    <row r="463" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I463" s="21"/>
-      <c r="J463" s="22"/>
-      <c r="K463" s="18"/>
-      <c r="L463" s="19"/>
-    </row>
-    <row r="464" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I464" s="21"/>
-      <c r="J464" s="22"/>
-      <c r="K464" s="18"/>
-      <c r="L464" s="19"/>
-    </row>
-    <row r="465" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I465" s="21"/>
-      <c r="J465" s="22"/>
-      <c r="K465" s="18"/>
-      <c r="L465" s="19"/>
-    </row>
-    <row r="466" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I466" s="21"/>
-      <c r="J466" s="22"/>
-      <c r="K466" s="18"/>
-      <c r="L466" s="19"/>
-    </row>
-    <row r="467" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I467" s="21"/>
-      <c r="J467" s="22"/>
-      <c r="K467" s="18"/>
-      <c r="L467" s="19"/>
-    </row>
-    <row r="468" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I468" s="21"/>
-      <c r="J468" s="22"/>
-      <c r="K468" s="18"/>
-      <c r="L468" s="19"/>
-    </row>
-    <row r="469" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I469" s="21"/>
-      <c r="J469" s="22"/>
-      <c r="K469" s="18"/>
-      <c r="L469" s="19"/>
-    </row>
-    <row r="470" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I470" s="21"/>
-      <c r="J470" s="22"/>
-      <c r="K470" s="18"/>
-      <c r="L470" s="19"/>
-    </row>
-    <row r="471" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I471" s="21"/>
-      <c r="J471" s="22"/>
-      <c r="K471" s="18"/>
-      <c r="L471" s="19"/>
-    </row>
-    <row r="472" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I472" s="21"/>
-      <c r="J472" s="22"/>
-      <c r="K472" s="18"/>
-      <c r="L472" s="19"/>
-    </row>
-    <row r="473" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I473" s="21"/>
-      <c r="J473" s="22"/>
-      <c r="K473" s="18"/>
-      <c r="L473" s="19"/>
-    </row>
-    <row r="474" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I474" s="21"/>
-      <c r="J474" s="22"/>
-      <c r="K474" s="18"/>
-      <c r="L474" s="19"/>
-    </row>
-    <row r="475" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I475" s="21"/>
-      <c r="J475" s="22"/>
-      <c r="K475" s="18"/>
-      <c r="L475" s="19"/>
-    </row>
-    <row r="476" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I476" s="21"/>
-      <c r="J476" s="22"/>
-      <c r="K476" s="18"/>
-      <c r="L476" s="19"/>
-    </row>
-    <row r="477" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I477" s="21"/>
-      <c r="J477" s="22"/>
-      <c r="K477" s="18"/>
-      <c r="L477" s="19"/>
-    </row>
-    <row r="478" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I478" s="21"/>
-      <c r="J478" s="22"/>
-      <c r="K478" s="18"/>
-      <c r="L478" s="19"/>
-    </row>
-    <row r="479" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I479" s="21"/>
-      <c r="J479" s="22"/>
-      <c r="K479" s="18"/>
-      <c r="L479" s="19"/>
-    </row>
-    <row r="480" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I480" s="21"/>
-      <c r="J480" s="22"/>
-      <c r="K480" s="18"/>
-      <c r="L480" s="19"/>
-    </row>
-    <row r="481" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I481" s="21"/>
-      <c r="J481" s="22"/>
-      <c r="K481" s="18"/>
-      <c r="L481" s="19"/>
-    </row>
-    <row r="482" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I482" s="21"/>
-      <c r="J482" s="22"/>
-      <c r="K482" s="18"/>
-      <c r="L482" s="19"/>
-    </row>
-    <row r="483" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I483" s="21"/>
-      <c r="J483" s="22"/>
-      <c r="K483" s="18"/>
-      <c r="L483" s="19"/>
-    </row>
-    <row r="484" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I484" s="21"/>
-      <c r="J484" s="22"/>
-      <c r="K484" s="18"/>
-      <c r="L484" s="19"/>
-    </row>
-    <row r="485" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I485" s="21"/>
-      <c r="J485" s="22"/>
-      <c r="K485" s="18"/>
-      <c r="L485" s="19"/>
-    </row>
-    <row r="486" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I486" s="21"/>
-      <c r="J486" s="22"/>
-      <c r="K486" s="18"/>
-      <c r="L486" s="19"/>
-    </row>
-    <row r="487" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I487" s="21"/>
-      <c r="J487" s="22"/>
-      <c r="K487" s="18"/>
-      <c r="L487" s="19"/>
-    </row>
-    <row r="488" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I488" s="21"/>
-      <c r="J488" s="22"/>
-      <c r="K488" s="18"/>
-      <c r="L488" s="19"/>
-    </row>
-    <row r="489" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I489" s="21"/>
-      <c r="J489" s="22"/>
-      <c r="K489" s="18"/>
-      <c r="L489" s="19"/>
-    </row>
-    <row r="490" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I490" s="21"/>
-      <c r="J490" s="22"/>
-      <c r="K490" s="18"/>
-      <c r="L490" s="19"/>
-    </row>
-    <row r="491" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I491" s="21"/>
-      <c r="J491" s="22"/>
-      <c r="K491" s="18"/>
-      <c r="L491" s="19"/>
-    </row>
-    <row r="492" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I492" s="21"/>
-      <c r="J492" s="22"/>
-      <c r="K492" s="18"/>
-      <c r="L492" s="19"/>
-    </row>
-    <row r="493" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I493" s="21"/>
-      <c r="J493" s="22"/>
-      <c r="K493" s="18"/>
-      <c r="L493" s="19"/>
-    </row>
-    <row r="494" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I494" s="21"/>
-      <c r="J494" s="22"/>
-      <c r="K494" s="18"/>
-      <c r="L494" s="19"/>
-    </row>
-    <row r="495" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I495" s="21"/>
-      <c r="J495" s="22"/>
-      <c r="K495" s="18"/>
-      <c r="L495" s="19"/>
-    </row>
-    <row r="496" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I496" s="21"/>
-      <c r="J496" s="22"/>
-      <c r="K496" s="18"/>
-      <c r="L496" s="19"/>
-    </row>
-    <row r="497" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I497" s="21"/>
-      <c r="J497" s="22"/>
-      <c r="K497" s="18"/>
-      <c r="L497" s="19"/>
-    </row>
-    <row r="498" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I498" s="21"/>
-      <c r="J498" s="22"/>
-      <c r="K498" s="18"/>
-      <c r="L498" s="19"/>
-    </row>
-    <row r="499" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I499" s="21"/>
-      <c r="J499" s="22"/>
-      <c r="K499" s="18"/>
-      <c r="L499" s="19"/>
-    </row>
-    <row r="500" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I500" s="21"/>
-      <c r="J500" s="22"/>
-      <c r="K500" s="18"/>
-      <c r="L500" s="19"/>
-    </row>
-    <row r="501" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I501" s="21"/>
-      <c r="J501" s="22"/>
-      <c r="K501" s="18"/>
-      <c r="L501" s="19"/>
-    </row>
-    <row r="502" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I502" s="21"/>
-      <c r="J502" s="22"/>
-      <c r="K502" s="18"/>
-      <c r="L502" s="19"/>
-    </row>
-    <row r="503" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I503" s="21"/>
-      <c r="J503" s="22"/>
-      <c r="K503" s="18"/>
-      <c r="L503" s="19"/>
-    </row>
-    <row r="504" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I504" s="21"/>
-      <c r="J504" s="22"/>
-      <c r="K504" s="18"/>
-      <c r="L504" s="19"/>
-    </row>
-    <row r="505" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I505" s="21"/>
-      <c r="J505" s="22"/>
-      <c r="K505" s="18"/>
-      <c r="L505" s="19"/>
-    </row>
-    <row r="506" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I506" s="21"/>
-      <c r="J506" s="22"/>
-      <c r="K506" s="18"/>
-      <c r="L506" s="19"/>
-    </row>
-    <row r="507" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I507" s="21"/>
-      <c r="J507" s="22"/>
-      <c r="K507" s="18"/>
-      <c r="L507" s="19"/>
-    </row>
-    <row r="508" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I508" s="21"/>
-      <c r="J508" s="22"/>
-      <c r="K508" s="18"/>
-      <c r="L508" s="19"/>
-    </row>
-    <row r="509" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I509" s="21"/>
-      <c r="J509" s="22"/>
-      <c r="K509" s="18"/>
-      <c r="L509" s="19"/>
-    </row>
-    <row r="510" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I510" s="21"/>
-      <c r="J510" s="22"/>
-      <c r="K510" s="18"/>
-      <c r="L510" s="19"/>
-    </row>
-    <row r="511" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I511" s="21"/>
-      <c r="J511" s="22"/>
-      <c r="K511" s="18"/>
-      <c r="L511" s="19"/>
-    </row>
-    <row r="512" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I512" s="21"/>
-      <c r="J512" s="22"/>
-      <c r="K512" s="18"/>
-      <c r="L512" s="19"/>
-    </row>
-    <row r="513" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I513" s="21"/>
-      <c r="J513" s="22"/>
-      <c r="K513" s="18"/>
-      <c r="L513" s="19"/>
-    </row>
-    <row r="514" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I514" s="21"/>
-      <c r="J514" s="22"/>
-      <c r="K514" s="18"/>
-      <c r="L514" s="19"/>
-    </row>
-    <row r="515" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I515" s="21"/>
-      <c r="J515" s="22"/>
-      <c r="K515" s="18"/>
-      <c r="L515" s="19"/>
-    </row>
-    <row r="516" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I516" s="21"/>
-      <c r="J516" s="22"/>
-      <c r="K516" s="18"/>
-      <c r="L516" s="19"/>
-    </row>
-    <row r="517" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I517" s="21"/>
-      <c r="J517" s="22"/>
-      <c r="K517" s="18"/>
-      <c r="L517" s="19"/>
-    </row>
-    <row r="518" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I518" s="21"/>
-      <c r="J518" s="22"/>
-      <c r="K518" s="18"/>
-      <c r="L518" s="19"/>
-    </row>
-    <row r="519" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I519" s="21"/>
-      <c r="J519" s="22"/>
-      <c r="K519" s="18"/>
-      <c r="L519" s="19"/>
-    </row>
-    <row r="520" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I520" s="21"/>
-      <c r="J520" s="22"/>
-      <c r="K520" s="18"/>
-      <c r="L520" s="19"/>
-    </row>
-    <row r="521" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I521" s="21"/>
-      <c r="J521" s="22"/>
-      <c r="K521" s="18"/>
-      <c r="L521" s="19"/>
-    </row>
-    <row r="522" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I522" s="21"/>
-      <c r="J522" s="22"/>
-      <c r="K522" s="18"/>
-      <c r="L522" s="19"/>
-    </row>
-    <row r="523" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I523" s="21"/>
-      <c r="J523" s="22"/>
-      <c r="K523" s="18"/>
-      <c r="L523" s="19"/>
-    </row>
-    <row r="524" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I524" s="21"/>
-      <c r="J524" s="22"/>
-      <c r="K524" s="18"/>
-      <c r="L524" s="19"/>
-    </row>
-    <row r="525" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I525" s="21"/>
-      <c r="J525" s="22"/>
-      <c r="K525" s="18"/>
-      <c r="L525" s="19"/>
-    </row>
-    <row r="526" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I526" s="21"/>
-      <c r="J526" s="22"/>
-      <c r="K526" s="18"/>
-      <c r="L526" s="19"/>
-    </row>
-    <row r="527" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I527" s="21"/>
-      <c r="J527" s="22"/>
-      <c r="K527" s="18"/>
-      <c r="L527" s="19"/>
-    </row>
-    <row r="528" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I528" s="21"/>
-      <c r="J528" s="22"/>
-      <c r="K528" s="18"/>
-      <c r="L528" s="19"/>
-    </row>
-    <row r="529" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I529" s="21"/>
-      <c r="J529" s="22"/>
-      <c r="K529" s="18"/>
-      <c r="L529" s="19"/>
-    </row>
-    <row r="530" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I530" s="21"/>
-      <c r="J530" s="22"/>
-      <c r="K530" s="18"/>
-      <c r="L530" s="19"/>
-    </row>
-    <row r="531" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I531" s="21"/>
-      <c r="J531" s="22"/>
-      <c r="K531" s="18"/>
-      <c r="L531" s="19"/>
-    </row>
-    <row r="532" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I532" s="21"/>
-      <c r="J532" s="22"/>
-      <c r="K532" s="18"/>
-      <c r="L532" s="19"/>
-    </row>
-    <row r="533" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I533" s="21"/>
-      <c r="J533" s="22"/>
-      <c r="K533" s="18"/>
-      <c r="L533" s="19"/>
-    </row>
-    <row r="534" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I534" s="21"/>
-      <c r="J534" s="22"/>
-      <c r="K534" s="18"/>
-      <c r="L534" s="19"/>
-    </row>
-    <row r="535" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I535" s="21"/>
-      <c r="J535" s="22"/>
-      <c r="K535" s="18"/>
-      <c r="L535" s="19"/>
-    </row>
-    <row r="536" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I536" s="21"/>
-      <c r="J536" s="22"/>
-      <c r="K536" s="18"/>
-      <c r="L536" s="19"/>
-    </row>
-    <row r="537" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I537" s="21"/>
-      <c r="J537" s="22"/>
-      <c r="K537" s="18"/>
-      <c r="L537" s="19"/>
-    </row>
-    <row r="538" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I538" s="21"/>
-      <c r="J538" s="22"/>
-      <c r="K538" s="18"/>
-      <c r="L538" s="19"/>
-    </row>
-    <row r="539" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I539" s="21"/>
-      <c r="J539" s="22"/>
-      <c r="K539" s="18"/>
-      <c r="L539" s="19"/>
-    </row>
-    <row r="540" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I540" s="21"/>
-      <c r="J540" s="22"/>
-      <c r="K540" s="18"/>
-      <c r="L540" s="19"/>
-    </row>
-    <row r="541" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I541" s="21"/>
-      <c r="J541" s="22"/>
-      <c r="K541" s="18"/>
-      <c r="L541" s="19"/>
-    </row>
-    <row r="542" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I542" s="21"/>
-      <c r="J542" s="22"/>
-      <c r="K542" s="18"/>
-      <c r="L542" s="19"/>
-    </row>
-    <row r="543" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I543" s="21"/>
-      <c r="J543" s="22"/>
-      <c r="K543" s="18"/>
-      <c r="L543" s="19"/>
-    </row>
-    <row r="544" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I544" s="21"/>
-      <c r="J544" s="22"/>
-      <c r="K544" s="18"/>
-      <c r="L544" s="19"/>
-    </row>
-    <row r="545" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I545" s="21"/>
-      <c r="J545" s="22"/>
-      <c r="K545" s="18"/>
-      <c r="L545" s="19"/>
-    </row>
-    <row r="546" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I546" s="21"/>
-      <c r="J546" s="22"/>
-      <c r="K546" s="18"/>
-      <c r="L546" s="19"/>
-    </row>
-    <row r="547" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I547" s="21"/>
-      <c r="J547" s="22"/>
-      <c r="K547" s="18"/>
-      <c r="L547" s="19"/>
-    </row>
-    <row r="548" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I548" s="21"/>
-      <c r="J548" s="22"/>
-      <c r="K548" s="18"/>
-      <c r="L548" s="19"/>
-    </row>
-    <row r="549" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I549" s="21"/>
-      <c r="J549" s="22"/>
-      <c r="K549" s="18"/>
-      <c r="L549" s="19"/>
-    </row>
-    <row r="550" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I550" s="21"/>
-      <c r="J550" s="22"/>
-      <c r="K550" s="18"/>
-      <c r="L550" s="19"/>
-    </row>
-    <row r="551" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I551" s="21"/>
-      <c r="J551" s="22"/>
-      <c r="K551" s="18"/>
-      <c r="L551" s="19"/>
-    </row>
-    <row r="552" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I552" s="21"/>
-      <c r="J552" s="22"/>
-      <c r="K552" s="18"/>
-      <c r="L552" s="19"/>
-    </row>
-    <row r="553" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I553" s="21"/>
-      <c r="J553" s="22"/>
-      <c r="K553" s="18"/>
-      <c r="L553" s="19"/>
-    </row>
-    <row r="554" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I554" s="21"/>
-      <c r="J554" s="22"/>
-      <c r="K554" s="18"/>
-      <c r="L554" s="19"/>
-    </row>
-    <row r="555" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I555" s="21"/>
-      <c r="J555" s="22"/>
-      <c r="K555" s="18"/>
-      <c r="L555" s="19"/>
-    </row>
-    <row r="556" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I556" s="21"/>
-      <c r="J556" s="22"/>
-      <c r="K556" s="18"/>
-      <c r="L556" s="19"/>
-    </row>
-    <row r="557" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I557" s="21"/>
-      <c r="J557" s="22"/>
-      <c r="K557" s="18"/>
-      <c r="L557" s="19"/>
-    </row>
-    <row r="558" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I558" s="21"/>
-      <c r="J558" s="22"/>
-      <c r="K558" s="18"/>
-      <c r="L558" s="19"/>
-    </row>
-    <row r="559" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I559" s="21"/>
-      <c r="J559" s="22"/>
-      <c r="K559" s="18"/>
-      <c r="L559" s="19"/>
-    </row>
-    <row r="560" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I560" s="21"/>
-      <c r="J560" s="22"/>
-      <c r="K560" s="18"/>
-      <c r="L560" s="19"/>
-    </row>
-    <row r="561" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I561" s="21"/>
-      <c r="J561" s="22"/>
-      <c r="K561" s="18"/>
-      <c r="L561" s="19"/>
-    </row>
-    <row r="562" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I562" s="21"/>
-      <c r="J562" s="22"/>
-      <c r="K562" s="18"/>
-      <c r="L562" s="19"/>
-    </row>
-    <row r="563" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I563" s="21"/>
-      <c r="J563" s="22"/>
-      <c r="K563" s="18"/>
-      <c r="L563" s="19"/>
-    </row>
-    <row r="564" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I564" s="21"/>
-      <c r="J564" s="22"/>
-      <c r="K564" s="18"/>
-      <c r="L564" s="19"/>
-    </row>
-    <row r="565" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I565" s="21"/>
-      <c r="J565" s="22"/>
-      <c r="K565" s="18"/>
-      <c r="L565" s="19"/>
-    </row>
-    <row r="566" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I566" s="21"/>
-      <c r="J566" s="22"/>
-      <c r="K566" s="18"/>
-      <c r="L566" s="19"/>
-    </row>
-    <row r="567" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I567" s="21"/>
-      <c r="J567" s="22"/>
-      <c r="K567" s="18"/>
-      <c r="L567" s="19"/>
-    </row>
-    <row r="568" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I568" s="21"/>
-      <c r="J568" s="22"/>
-      <c r="K568" s="18"/>
-      <c r="L568" s="19"/>
-    </row>
-    <row r="569" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I569" s="21"/>
-      <c r="J569" s="22"/>
-      <c r="K569" s="18"/>
-      <c r="L569" s="19"/>
-    </row>
-    <row r="570" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I570" s="21"/>
-      <c r="J570" s="22"/>
-      <c r="K570" s="18"/>
-      <c r="L570" s="19"/>
-    </row>
-    <row r="571" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I571" s="21"/>
-      <c r="J571" s="22"/>
-      <c r="K571" s="18"/>
-      <c r="L571" s="19"/>
-    </row>
-    <row r="572" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I572" s="21"/>
-      <c r="J572" s="22"/>
-      <c r="K572" s="18"/>
-      <c r="L572" s="19"/>
-    </row>
-    <row r="573" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I573" s="21"/>
-      <c r="J573" s="22"/>
-      <c r="K573" s="18"/>
-      <c r="L573" s="19"/>
-    </row>
-    <row r="574" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I574" s="21"/>
-      <c r="J574" s="22"/>
-      <c r="K574" s="18"/>
-      <c r="L574" s="19"/>
-    </row>
-    <row r="575" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I575" s="21"/>
-      <c r="J575" s="22"/>
-      <c r="K575" s="18"/>
-      <c r="L575" s="19"/>
-    </row>
-    <row r="576" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I576" s="21"/>
-      <c r="J576" s="22"/>
-      <c r="K576" s="18"/>
-      <c r="L576" s="19"/>
-    </row>
-    <row r="577" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I577" s="21"/>
-      <c r="J577" s="22"/>
-      <c r="K577" s="18"/>
-      <c r="L577" s="19"/>
-    </row>
-    <row r="578" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I578" s="21"/>
-      <c r="J578" s="22"/>
-      <c r="K578" s="18"/>
-      <c r="L578" s="19"/>
-    </row>
-    <row r="579" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I579" s="21"/>
-      <c r="J579" s="22"/>
-      <c r="K579" s="18"/>
-      <c r="L579" s="19"/>
-    </row>
-    <row r="580" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I580" s="21"/>
-      <c r="J580" s="22"/>
-      <c r="K580" s="18"/>
-      <c r="L580" s="19"/>
-    </row>
-    <row r="581" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I581" s="21"/>
-      <c r="J581" s="22"/>
-      <c r="K581" s="18"/>
-      <c r="L581" s="19"/>
-    </row>
-    <row r="582" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I582" s="21"/>
-      <c r="J582" s="22"/>
-      <c r="K582" s="18"/>
-      <c r="L582" s="19"/>
-    </row>
-    <row r="583" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I583" s="21"/>
-      <c r="J583" s="22"/>
-      <c r="K583" s="18"/>
-      <c r="L583" s="19"/>
-    </row>
-    <row r="584" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I584" s="21"/>
-      <c r="J584" s="22"/>
-      <c r="K584" s="18"/>
-      <c r="L584" s="19"/>
-    </row>
-    <row r="585" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I585" s="21"/>
-      <c r="J585" s="22"/>
-      <c r="K585" s="18"/>
-      <c r="L585" s="19"/>
-    </row>
-    <row r="586" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I586" s="21"/>
-      <c r="J586" s="22"/>
-      <c r="K586" s="18"/>
-      <c r="L586" s="19"/>
-    </row>
-    <row r="587" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I587" s="21"/>
-      <c r="J587" s="22"/>
-      <c r="K587" s="18"/>
-      <c r="L587" s="19"/>
-    </row>
-    <row r="588" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I588" s="21"/>
-      <c r="J588" s="22"/>
-      <c r="K588" s="18"/>
-      <c r="L588" s="19"/>
-    </row>
-    <row r="589" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I589" s="21"/>
-      <c r="J589" s="22"/>
-      <c r="K589" s="18"/>
-      <c r="L589" s="19"/>
-    </row>
-    <row r="590" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I590" s="21"/>
-      <c r="J590" s="22"/>
-      <c r="K590" s="18"/>
-      <c r="L590" s="19"/>
-    </row>
-    <row r="591" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I591" s="21"/>
-      <c r="J591" s="22"/>
-      <c r="K591" s="18"/>
-      <c r="L591" s="19"/>
-    </row>
-    <row r="592" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I592" s="21"/>
-      <c r="J592" s="22"/>
-      <c r="K592" s="18"/>
-      <c r="L592" s="19"/>
-    </row>
-    <row r="593" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I593" s="21"/>
-      <c r="J593" s="22"/>
-      <c r="K593" s="18"/>
-      <c r="L593" s="19"/>
-    </row>
-    <row r="594" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I594" s="21"/>
-      <c r="J594" s="22"/>
-      <c r="K594" s="18"/>
-      <c r="L594" s="19"/>
-    </row>
-    <row r="595" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I595" s="21"/>
-      <c r="J595" s="22"/>
-      <c r="K595" s="18"/>
-      <c r="L595" s="19"/>
-    </row>
-    <row r="596" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I596" s="21"/>
-      <c r="J596" s="22"/>
-      <c r="K596" s="18"/>
-      <c r="L596" s="19"/>
-    </row>
-    <row r="597" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I597" s="21"/>
-      <c r="J597" s="22"/>
-      <c r="K597" s="18"/>
-      <c r="L597" s="19"/>
-    </row>
-    <row r="598" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I598" s="21"/>
-      <c r="J598" s="22"/>
-      <c r="K598" s="18"/>
-      <c r="L598" s="19"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="24">
+        <f>SUM(G6:G62)</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="24">
+        <f>SUM(I6:I62)</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="21"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="19"/>
+    </row>
+    <row r="65" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J65" s="21"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="19"/>
+    </row>
+    <row r="66" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J66" s="21"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="19"/>
+    </row>
+    <row r="67" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J67" s="21"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="19"/>
+    </row>
+    <row r="68" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J68" s="21"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="19"/>
+    </row>
+    <row r="69" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J69" s="21"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="19"/>
+    </row>
+    <row r="70" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J70" s="21"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="19"/>
+    </row>
+    <row r="71" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J71" s="21"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="19"/>
+    </row>
+    <row r="72" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J72" s="21"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="19"/>
+    </row>
+    <row r="73" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J73" s="21"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="19"/>
+    </row>
+    <row r="74" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J74" s="21"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="19"/>
+    </row>
+    <row r="75" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J75" s="21"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="19"/>
+    </row>
+    <row r="76" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J76" s="21"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="19"/>
+    </row>
+    <row r="77" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J77" s="21"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="19"/>
+    </row>
+    <row r="78" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J78" s="21"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="19"/>
+    </row>
+    <row r="79" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J79" s="21"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="19"/>
+    </row>
+    <row r="80" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J80" s="21"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="19"/>
+    </row>
+    <row r="81" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J81" s="21"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="19"/>
+    </row>
+    <row r="82" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J82" s="21"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="19"/>
+    </row>
+    <row r="83" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J83" s="21"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="19"/>
+    </row>
+    <row r="84" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J84" s="21"/>
+      <c r="K84" s="22"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="19"/>
+    </row>
+    <row r="85" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J85" s="21"/>
+      <c r="K85" s="22"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="19"/>
+    </row>
+    <row r="86" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J86" s="21"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="19"/>
+    </row>
+    <row r="87" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J87" s="21"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="19"/>
+    </row>
+    <row r="88" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J88" s="21"/>
+      <c r="K88" s="22"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="19"/>
+    </row>
+    <row r="89" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J89" s="21"/>
+      <c r="K89" s="22"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="19"/>
+    </row>
+    <row r="90" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J90" s="21"/>
+      <c r="K90" s="22"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="19"/>
+    </row>
+    <row r="91" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J91" s="21"/>
+      <c r="K91" s="22"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="19"/>
+    </row>
+    <row r="92" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J92" s="21"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="19"/>
+    </row>
+    <row r="93" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J93" s="21"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="19"/>
+    </row>
+    <row r="94" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J94" s="21"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="19"/>
+    </row>
+    <row r="95" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J95" s="21"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="19"/>
+    </row>
+    <row r="96" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J96" s="21"/>
+      <c r="K96" s="22"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="19"/>
+    </row>
+    <row r="97" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J97" s="21"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="19"/>
+    </row>
+    <row r="98" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J98" s="21"/>
+      <c r="K98" s="22"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="19"/>
+    </row>
+    <row r="99" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J99" s="21"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="19"/>
+    </row>
+    <row r="100" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J100" s="21"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="19"/>
+    </row>
+    <row r="101" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J101" s="21"/>
+      <c r="K101" s="22"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="19"/>
+    </row>
+    <row r="102" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J102" s="21"/>
+      <c r="K102" s="22"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="19"/>
+    </row>
+    <row r="103" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J103" s="21"/>
+      <c r="K103" s="22"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="19"/>
+    </row>
+    <row r="104" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J104" s="21"/>
+      <c r="K104" s="22"/>
+      <c r="L104" s="18"/>
+      <c r="M104" s="19"/>
+    </row>
+    <row r="105" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J105" s="21"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="19"/>
+    </row>
+    <row r="106" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J106" s="21"/>
+      <c r="K106" s="22"/>
+      <c r="L106" s="18"/>
+      <c r="M106" s="19"/>
+    </row>
+    <row r="107" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J107" s="21"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="18"/>
+      <c r="M107" s="19"/>
+    </row>
+    <row r="108" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J108" s="21"/>
+      <c r="K108" s="22"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="19"/>
+    </row>
+    <row r="109" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J109" s="21"/>
+      <c r="K109" s="22"/>
+      <c r="L109" s="18"/>
+      <c r="M109" s="19"/>
+    </row>
+    <row r="110" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J110" s="21"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="18"/>
+      <c r="M110" s="19"/>
+    </row>
+    <row r="111" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J111" s="21"/>
+      <c r="K111" s="22"/>
+      <c r="L111" s="18"/>
+      <c r="M111" s="19"/>
+    </row>
+    <row r="112" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J112" s="21"/>
+      <c r="K112" s="22"/>
+      <c r="L112" s="18"/>
+      <c r="M112" s="19"/>
+    </row>
+    <row r="113" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J113" s="21"/>
+      <c r="K113" s="22"/>
+      <c r="L113" s="18"/>
+      <c r="M113" s="19"/>
+    </row>
+    <row r="114" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J114" s="21"/>
+      <c r="K114" s="22"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="19"/>
+    </row>
+    <row r="115" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J115" s="21"/>
+      <c r="K115" s="22"/>
+      <c r="L115" s="18"/>
+      <c r="M115" s="19"/>
+    </row>
+    <row r="116" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J116" s="21"/>
+      <c r="K116" s="22"/>
+      <c r="L116" s="18"/>
+      <c r="M116" s="19"/>
+    </row>
+    <row r="117" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J117" s="21"/>
+      <c r="K117" s="22"/>
+      <c r="L117" s="18"/>
+      <c r="M117" s="19"/>
+    </row>
+    <row r="118" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J118" s="21"/>
+      <c r="K118" s="22"/>
+      <c r="L118" s="18"/>
+      <c r="M118" s="19"/>
+    </row>
+    <row r="119" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J119" s="21"/>
+      <c r="K119" s="22"/>
+      <c r="L119" s="18"/>
+      <c r="M119" s="19"/>
+    </row>
+    <row r="120" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J120" s="21"/>
+      <c r="K120" s="22"/>
+      <c r="L120" s="18"/>
+      <c r="M120" s="19"/>
+    </row>
+    <row r="121" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J121" s="21"/>
+      <c r="K121" s="22"/>
+      <c r="L121" s="18"/>
+      <c r="M121" s="19"/>
+    </row>
+    <row r="122" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J122" s="21"/>
+      <c r="K122" s="22"/>
+      <c r="L122" s="18"/>
+      <c r="M122" s="19"/>
+    </row>
+    <row r="123" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J123" s="21"/>
+      <c r="K123" s="22"/>
+      <c r="L123" s="18"/>
+      <c r="M123" s="19"/>
+    </row>
+    <row r="124" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J124" s="21"/>
+      <c r="K124" s="22"/>
+      <c r="L124" s="18"/>
+      <c r="M124" s="19"/>
+    </row>
+    <row r="125" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J125" s="21"/>
+      <c r="K125" s="22"/>
+      <c r="L125" s="18"/>
+      <c r="M125" s="19"/>
+    </row>
+    <row r="126" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J126" s="21"/>
+      <c r="K126" s="22"/>
+      <c r="L126" s="18"/>
+      <c r="M126" s="19"/>
+    </row>
+    <row r="127" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J127" s="21"/>
+      <c r="K127" s="22"/>
+      <c r="L127" s="18"/>
+      <c r="M127" s="19"/>
+    </row>
+    <row r="128" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J128" s="21"/>
+      <c r="K128" s="22"/>
+      <c r="L128" s="18"/>
+      <c r="M128" s="19"/>
+    </row>
+    <row r="129" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J129" s="21"/>
+      <c r="K129" s="22"/>
+      <c r="L129" s="18"/>
+      <c r="M129" s="19"/>
+    </row>
+    <row r="130" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J130" s="21"/>
+      <c r="K130" s="22"/>
+      <c r="L130" s="18"/>
+      <c r="M130" s="19"/>
+    </row>
+    <row r="131" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J131" s="21"/>
+      <c r="K131" s="22"/>
+      <c r="L131" s="18"/>
+      <c r="M131" s="19"/>
+    </row>
+    <row r="132" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J132" s="21"/>
+      <c r="K132" s="22"/>
+      <c r="L132" s="18"/>
+      <c r="M132" s="19"/>
+    </row>
+    <row r="133" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J133" s="21"/>
+      <c r="K133" s="22"/>
+      <c r="L133" s="18"/>
+      <c r="M133" s="19"/>
+    </row>
+    <row r="134" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J134" s="21"/>
+      <c r="K134" s="22"/>
+      <c r="L134" s="18"/>
+      <c r="M134" s="19"/>
+    </row>
+    <row r="135" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J135" s="21"/>
+      <c r="K135" s="22"/>
+      <c r="L135" s="18"/>
+      <c r="M135" s="19"/>
+    </row>
+    <row r="136" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J136" s="21"/>
+      <c r="K136" s="22"/>
+      <c r="L136" s="18"/>
+      <c r="M136" s="19"/>
+    </row>
+    <row r="137" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J137" s="21"/>
+      <c r="K137" s="22"/>
+      <c r="L137" s="18"/>
+      <c r="M137" s="19"/>
+    </row>
+    <row r="138" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J138" s="21"/>
+      <c r="K138" s="22"/>
+      <c r="L138" s="18"/>
+      <c r="M138" s="19"/>
+    </row>
+    <row r="139" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J139" s="21"/>
+      <c r="K139" s="22"/>
+      <c r="L139" s="18"/>
+      <c r="M139" s="19"/>
+    </row>
+    <row r="140" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J140" s="21"/>
+      <c r="K140" s="22"/>
+      <c r="L140" s="18"/>
+      <c r="M140" s="19"/>
+    </row>
+    <row r="141" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J141" s="21"/>
+      <c r="K141" s="22"/>
+      <c r="L141" s="18"/>
+      <c r="M141" s="19"/>
+    </row>
+    <row r="142" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J142" s="21"/>
+      <c r="K142" s="22"/>
+      <c r="L142" s="18"/>
+      <c r="M142" s="19"/>
+    </row>
+    <row r="143" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J143" s="21"/>
+      <c r="K143" s="22"/>
+      <c r="L143" s="18"/>
+      <c r="M143" s="19"/>
+    </row>
+    <row r="144" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J144" s="21"/>
+      <c r="K144" s="22"/>
+      <c r="L144" s="18"/>
+      <c r="M144" s="19"/>
+    </row>
+    <row r="145" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J145" s="21"/>
+      <c r="K145" s="22"/>
+      <c r="L145" s="18"/>
+      <c r="M145" s="19"/>
+    </row>
+    <row r="146" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J146" s="21"/>
+      <c r="K146" s="22"/>
+      <c r="L146" s="18"/>
+      <c r="M146" s="19"/>
+    </row>
+    <row r="147" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J147" s="21"/>
+      <c r="K147" s="22"/>
+      <c r="L147" s="18"/>
+      <c r="M147" s="19"/>
+    </row>
+    <row r="148" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J148" s="21"/>
+      <c r="K148" s="22"/>
+      <c r="L148" s="18"/>
+      <c r="M148" s="19"/>
+    </row>
+    <row r="149" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J149" s="21"/>
+      <c r="K149" s="22"/>
+      <c r="L149" s="18"/>
+      <c r="M149" s="19"/>
+    </row>
+    <row r="150" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J150" s="21"/>
+      <c r="K150" s="22"/>
+      <c r="L150" s="18"/>
+      <c r="M150" s="19"/>
+    </row>
+    <row r="151" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J151" s="21"/>
+      <c r="K151" s="22"/>
+      <c r="L151" s="18"/>
+      <c r="M151" s="19"/>
+    </row>
+    <row r="152" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J152" s="21"/>
+      <c r="K152" s="22"/>
+      <c r="L152" s="18"/>
+      <c r="M152" s="19"/>
+    </row>
+    <row r="153" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J153" s="21"/>
+      <c r="K153" s="22"/>
+      <c r="L153" s="18"/>
+      <c r="M153" s="19"/>
+    </row>
+    <row r="154" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J154" s="21"/>
+      <c r="K154" s="22"/>
+      <c r="L154" s="18"/>
+      <c r="M154" s="19"/>
+    </row>
+    <row r="155" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J155" s="21"/>
+      <c r="K155" s="22"/>
+      <c r="L155" s="18"/>
+      <c r="M155" s="19"/>
+    </row>
+    <row r="156" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J156" s="21"/>
+      <c r="K156" s="22"/>
+      <c r="L156" s="18"/>
+      <c r="M156" s="19"/>
+    </row>
+    <row r="157" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J157" s="21"/>
+      <c r="K157" s="22"/>
+      <c r="L157" s="18"/>
+      <c r="M157" s="19"/>
+    </row>
+    <row r="158" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J158" s="21"/>
+      <c r="K158" s="22"/>
+      <c r="L158" s="18"/>
+      <c r="M158" s="19"/>
+    </row>
+    <row r="159" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J159" s="21"/>
+      <c r="K159" s="22"/>
+      <c r="L159" s="18"/>
+      <c r="M159" s="19"/>
+    </row>
+    <row r="160" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J160" s="21"/>
+      <c r="K160" s="22"/>
+      <c r="L160" s="18"/>
+      <c r="M160" s="19"/>
+    </row>
+    <row r="161" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J161" s="21"/>
+      <c r="K161" s="22"/>
+      <c r="L161" s="18"/>
+      <c r="M161" s="19"/>
+    </row>
+    <row r="162" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J162" s="21"/>
+      <c r="K162" s="22"/>
+      <c r="L162" s="18"/>
+      <c r="M162" s="19"/>
+    </row>
+    <row r="163" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J163" s="21"/>
+      <c r="K163" s="22"/>
+      <c r="L163" s="18"/>
+      <c r="M163" s="19"/>
+    </row>
+    <row r="164" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J164" s="21"/>
+      <c r="K164" s="22"/>
+      <c r="L164" s="18"/>
+      <c r="M164" s="19"/>
+    </row>
+    <row r="165" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J165" s="21"/>
+      <c r="K165" s="22"/>
+      <c r="L165" s="18"/>
+      <c r="M165" s="19"/>
+    </row>
+    <row r="166" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J166" s="21"/>
+      <c r="K166" s="22"/>
+      <c r="L166" s="18"/>
+      <c r="M166" s="19"/>
+    </row>
+    <row r="167" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J167" s="21"/>
+      <c r="K167" s="22"/>
+      <c r="L167" s="18"/>
+      <c r="M167" s="19"/>
+    </row>
+    <row r="168" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J168" s="21"/>
+      <c r="K168" s="22"/>
+      <c r="L168" s="18"/>
+      <c r="M168" s="19"/>
+    </row>
+    <row r="169" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J169" s="21"/>
+      <c r="K169" s="22"/>
+      <c r="L169" s="18"/>
+      <c r="M169" s="19"/>
+    </row>
+    <row r="170" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J170" s="21"/>
+      <c r="K170" s="22"/>
+      <c r="L170" s="18"/>
+      <c r="M170" s="19"/>
+    </row>
+    <row r="171" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J171" s="21"/>
+      <c r="K171" s="22"/>
+      <c r="L171" s="18"/>
+      <c r="M171" s="19"/>
+    </row>
+    <row r="172" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J172" s="21"/>
+      <c r="K172" s="22"/>
+      <c r="L172" s="18"/>
+      <c r="M172" s="19"/>
+    </row>
+    <row r="173" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J173" s="21"/>
+      <c r="K173" s="22"/>
+      <c r="L173" s="18"/>
+      <c r="M173" s="19"/>
+    </row>
+    <row r="174" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J174" s="21"/>
+      <c r="K174" s="22"/>
+      <c r="L174" s="18"/>
+      <c r="M174" s="19"/>
+    </row>
+    <row r="175" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J175" s="21"/>
+      <c r="K175" s="22"/>
+      <c r="L175" s="18"/>
+      <c r="M175" s="19"/>
+    </row>
+    <row r="176" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J176" s="21"/>
+      <c r="K176" s="22"/>
+      <c r="L176" s="18"/>
+      <c r="M176" s="19"/>
+    </row>
+    <row r="177" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J177" s="21"/>
+      <c r="K177" s="22"/>
+      <c r="L177" s="18"/>
+      <c r="M177" s="19"/>
+    </row>
+    <row r="178" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J178" s="21"/>
+      <c r="K178" s="22"/>
+      <c r="L178" s="18"/>
+      <c r="M178" s="19"/>
+    </row>
+    <row r="179" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J179" s="21"/>
+      <c r="K179" s="22"/>
+      <c r="L179" s="18"/>
+      <c r="M179" s="19"/>
+    </row>
+    <row r="180" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J180" s="21"/>
+      <c r="K180" s="22"/>
+      <c r="L180" s="18"/>
+      <c r="M180" s="19"/>
+    </row>
+    <row r="181" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J181" s="21"/>
+      <c r="K181" s="22"/>
+      <c r="L181" s="18"/>
+      <c r="M181" s="19"/>
+    </row>
+    <row r="182" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J182" s="21"/>
+      <c r="K182" s="22"/>
+      <c r="L182" s="18"/>
+      <c r="M182" s="19"/>
+    </row>
+    <row r="183" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J183" s="21"/>
+      <c r="K183" s="22"/>
+      <c r="L183" s="18"/>
+      <c r="M183" s="19"/>
+    </row>
+    <row r="184" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J184" s="21"/>
+      <c r="K184" s="22"/>
+      <c r="L184" s="18"/>
+      <c r="M184" s="19"/>
+    </row>
+    <row r="185" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J185" s="21"/>
+      <c r="K185" s="22"/>
+      <c r="L185" s="18"/>
+      <c r="M185" s="19"/>
+    </row>
+    <row r="186" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J186" s="21"/>
+      <c r="K186" s="22"/>
+      <c r="L186" s="18"/>
+      <c r="M186" s="19"/>
+    </row>
+    <row r="187" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J187" s="21"/>
+      <c r="K187" s="22"/>
+      <c r="L187" s="18"/>
+      <c r="M187" s="19"/>
+    </row>
+    <row r="188" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J188" s="21"/>
+      <c r="K188" s="22"/>
+      <c r="L188" s="18"/>
+      <c r="M188" s="19"/>
+    </row>
+    <row r="189" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J189" s="21"/>
+      <c r="K189" s="22"/>
+      <c r="L189" s="18"/>
+      <c r="M189" s="19"/>
+    </row>
+    <row r="190" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J190" s="21"/>
+      <c r="K190" s="22"/>
+      <c r="L190" s="18"/>
+      <c r="M190" s="19"/>
+    </row>
+    <row r="191" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J191" s="21"/>
+      <c r="K191" s="22"/>
+      <c r="L191" s="18"/>
+      <c r="M191" s="19"/>
+    </row>
+    <row r="192" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J192" s="21"/>
+      <c r="K192" s="22"/>
+      <c r="L192" s="18"/>
+      <c r="M192" s="19"/>
+    </row>
+    <row r="193" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J193" s="21"/>
+      <c r="K193" s="22"/>
+      <c r="L193" s="18"/>
+      <c r="M193" s="19"/>
+    </row>
+    <row r="194" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J194" s="21"/>
+      <c r="K194" s="22"/>
+      <c r="L194" s="18"/>
+      <c r="M194" s="19"/>
+    </row>
+    <row r="195" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J195" s="21"/>
+      <c r="K195" s="22"/>
+      <c r="L195" s="18"/>
+      <c r="M195" s="19"/>
+    </row>
+    <row r="196" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J196" s="21"/>
+      <c r="K196" s="22"/>
+      <c r="L196" s="18"/>
+      <c r="M196" s="19"/>
+    </row>
+    <row r="197" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J197" s="21"/>
+      <c r="K197" s="22"/>
+      <c r="L197" s="18"/>
+      <c r="M197" s="19"/>
+    </row>
+    <row r="198" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J198" s="21"/>
+      <c r="K198" s="22"/>
+      <c r="L198" s="18"/>
+      <c r="M198" s="19"/>
+    </row>
+    <row r="199" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J199" s="21"/>
+      <c r="K199" s="22"/>
+      <c r="L199" s="18"/>
+      <c r="M199" s="19"/>
+    </row>
+    <row r="200" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J200" s="21"/>
+      <c r="K200" s="22"/>
+      <c r="L200" s="18"/>
+      <c r="M200" s="19"/>
+    </row>
+    <row r="201" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J201" s="21"/>
+      <c r="K201" s="22"/>
+      <c r="L201" s="18"/>
+      <c r="M201" s="19"/>
+    </row>
+    <row r="202" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J202" s="21"/>
+      <c r="K202" s="22"/>
+      <c r="L202" s="18"/>
+      <c r="M202" s="19"/>
+    </row>
+    <row r="203" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J203" s="21"/>
+      <c r="K203" s="22"/>
+      <c r="L203" s="18"/>
+      <c r="M203" s="19"/>
+    </row>
+    <row r="204" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J204" s="21"/>
+      <c r="K204" s="22"/>
+      <c r="L204" s="18"/>
+      <c r="M204" s="19"/>
+    </row>
+    <row r="205" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J205" s="21"/>
+      <c r="K205" s="22"/>
+      <c r="L205" s="18"/>
+      <c r="M205" s="19"/>
+    </row>
+    <row r="206" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J206" s="21"/>
+      <c r="K206" s="22"/>
+      <c r="L206" s="18"/>
+      <c r="M206" s="19"/>
+    </row>
+    <row r="207" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J207" s="21"/>
+      <c r="K207" s="22"/>
+      <c r="L207" s="18"/>
+      <c r="M207" s="19"/>
+    </row>
+    <row r="208" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J208" s="21"/>
+      <c r="K208" s="22"/>
+      <c r="L208" s="18"/>
+      <c r="M208" s="19"/>
+    </row>
+    <row r="209" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J209" s="21"/>
+      <c r="K209" s="22"/>
+      <c r="L209" s="18"/>
+      <c r="M209" s="19"/>
+    </row>
+    <row r="210" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J210" s="21"/>
+      <c r="K210" s="22"/>
+      <c r="L210" s="18"/>
+      <c r="M210" s="19"/>
+    </row>
+    <row r="211" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J211" s="21"/>
+      <c r="K211" s="22"/>
+      <c r="L211" s="18"/>
+      <c r="M211" s="19"/>
+    </row>
+    <row r="212" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J212" s="21"/>
+      <c r="K212" s="22"/>
+      <c r="L212" s="18"/>
+      <c r="M212" s="19"/>
+    </row>
+    <row r="213" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J213" s="21"/>
+      <c r="K213" s="22"/>
+      <c r="L213" s="18"/>
+      <c r="M213" s="19"/>
+    </row>
+    <row r="214" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J214" s="21"/>
+      <c r="K214" s="22"/>
+      <c r="L214" s="18"/>
+      <c r="M214" s="19"/>
+    </row>
+    <row r="215" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J215" s="21"/>
+      <c r="K215" s="22"/>
+      <c r="L215" s="18"/>
+      <c r="M215" s="19"/>
+    </row>
+    <row r="216" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J216" s="21"/>
+      <c r="K216" s="22"/>
+      <c r="L216" s="18"/>
+      <c r="M216" s="19"/>
+    </row>
+    <row r="217" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J217" s="21"/>
+      <c r="K217" s="22"/>
+      <c r="L217" s="18"/>
+      <c r="M217" s="19"/>
+    </row>
+    <row r="218" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J218" s="21"/>
+      <c r="K218" s="22"/>
+      <c r="L218" s="18"/>
+      <c r="M218" s="19"/>
+    </row>
+    <row r="219" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J219" s="21"/>
+      <c r="K219" s="22"/>
+      <c r="L219" s="18"/>
+      <c r="M219" s="19"/>
+    </row>
+    <row r="220" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J220" s="21"/>
+      <c r="K220" s="22"/>
+      <c r="L220" s="18"/>
+      <c r="M220" s="19"/>
+    </row>
+    <row r="221" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J221" s="21"/>
+      <c r="K221" s="22"/>
+      <c r="L221" s="18"/>
+      <c r="M221" s="19"/>
+    </row>
+    <row r="222" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J222" s="21"/>
+      <c r="K222" s="22"/>
+      <c r="L222" s="18"/>
+      <c r="M222" s="19"/>
+    </row>
+    <row r="223" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J223" s="21"/>
+      <c r="K223" s="22"/>
+      <c r="L223" s="18"/>
+      <c r="M223" s="19"/>
+    </row>
+    <row r="224" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J224" s="21"/>
+      <c r="K224" s="22"/>
+      <c r="L224" s="18"/>
+      <c r="M224" s="19"/>
+    </row>
+    <row r="225" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J225" s="21"/>
+      <c r="K225" s="22"/>
+      <c r="L225" s="18"/>
+      <c r="M225" s="19"/>
+    </row>
+    <row r="226" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J226" s="21"/>
+      <c r="K226" s="22"/>
+      <c r="L226" s="18"/>
+      <c r="M226" s="19"/>
+    </row>
+    <row r="227" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J227" s="21"/>
+      <c r="K227" s="22"/>
+      <c r="L227" s="18"/>
+      <c r="M227" s="19"/>
+    </row>
+    <row r="228" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J228" s="21"/>
+      <c r="K228" s="22"/>
+      <c r="L228" s="18"/>
+      <c r="M228" s="19"/>
+    </row>
+    <row r="229" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J229" s="21"/>
+      <c r="K229" s="22"/>
+      <c r="L229" s="18"/>
+      <c r="M229" s="19"/>
+    </row>
+    <row r="230" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J230" s="21"/>
+      <c r="K230" s="22"/>
+      <c r="L230" s="18"/>
+      <c r="M230" s="19"/>
+    </row>
+    <row r="231" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J231" s="21"/>
+      <c r="K231" s="22"/>
+      <c r="L231" s="18"/>
+      <c r="M231" s="19"/>
+    </row>
+    <row r="232" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J232" s="21"/>
+      <c r="K232" s="22"/>
+      <c r="L232" s="18"/>
+      <c r="M232" s="19"/>
+    </row>
+    <row r="233" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J233" s="21"/>
+      <c r="K233" s="22"/>
+      <c r="L233" s="18"/>
+      <c r="M233" s="19"/>
+    </row>
+    <row r="234" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J234" s="21"/>
+      <c r="K234" s="22"/>
+      <c r="L234" s="18"/>
+      <c r="M234" s="19"/>
+    </row>
+    <row r="235" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J235" s="21"/>
+      <c r="K235" s="22"/>
+      <c r="L235" s="18"/>
+      <c r="M235" s="19"/>
+    </row>
+    <row r="236" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J236" s="21"/>
+      <c r="K236" s="22"/>
+      <c r="L236" s="18"/>
+      <c r="M236" s="19"/>
+    </row>
+    <row r="237" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J237" s="21"/>
+      <c r="K237" s="22"/>
+      <c r="L237" s="18"/>
+      <c r="M237" s="19"/>
+    </row>
+    <row r="238" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J238" s="21"/>
+      <c r="K238" s="22"/>
+      <c r="L238" s="18"/>
+      <c r="M238" s="19"/>
+    </row>
+    <row r="239" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J239" s="21"/>
+      <c r="K239" s="22"/>
+      <c r="L239" s="18"/>
+      <c r="M239" s="19"/>
+    </row>
+    <row r="240" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J240" s="21"/>
+      <c r="K240" s="22"/>
+      <c r="L240" s="18"/>
+      <c r="M240" s="19"/>
+    </row>
+    <row r="241" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J241" s="21"/>
+      <c r="K241" s="22"/>
+      <c r="L241" s="18"/>
+      <c r="M241" s="19"/>
+    </row>
+    <row r="242" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J242" s="21"/>
+      <c r="K242" s="22"/>
+      <c r="L242" s="18"/>
+      <c r="M242" s="19"/>
+    </row>
+    <row r="243" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J243" s="21"/>
+      <c r="K243" s="22"/>
+      <c r="L243" s="18"/>
+      <c r="M243" s="19"/>
+    </row>
+    <row r="244" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J244" s="21"/>
+      <c r="K244" s="22"/>
+      <c r="L244" s="18"/>
+      <c r="M244" s="19"/>
+    </row>
+    <row r="245" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J245" s="21"/>
+      <c r="K245" s="22"/>
+      <c r="L245" s="18"/>
+      <c r="M245" s="19"/>
+    </row>
+    <row r="246" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J246" s="21"/>
+      <c r="K246" s="22"/>
+      <c r="L246" s="18"/>
+      <c r="M246" s="19"/>
+    </row>
+    <row r="247" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J247" s="21"/>
+      <c r="K247" s="22"/>
+      <c r="L247" s="18"/>
+      <c r="M247" s="19"/>
+    </row>
+    <row r="248" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J248" s="21"/>
+      <c r="K248" s="22"/>
+      <c r="L248" s="18"/>
+      <c r="M248" s="19"/>
+    </row>
+    <row r="249" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J249" s="21"/>
+      <c r="K249" s="22"/>
+      <c r="L249" s="18"/>
+      <c r="M249" s="19"/>
+    </row>
+    <row r="250" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J250" s="21"/>
+      <c r="K250" s="22"/>
+      <c r="L250" s="18"/>
+      <c r="M250" s="19"/>
+    </row>
+    <row r="251" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J251" s="21"/>
+      <c r="K251" s="22"/>
+      <c r="L251" s="18"/>
+      <c r="M251" s="19"/>
+    </row>
+    <row r="252" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J252" s="21"/>
+      <c r="K252" s="22"/>
+      <c r="L252" s="18"/>
+      <c r="M252" s="19"/>
+    </row>
+    <row r="253" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J253" s="21"/>
+      <c r="K253" s="22"/>
+      <c r="L253" s="18"/>
+      <c r="M253" s="19"/>
+    </row>
+    <row r="254" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J254" s="21"/>
+      <c r="K254" s="22"/>
+      <c r="L254" s="18"/>
+      <c r="M254" s="19"/>
+    </row>
+    <row r="255" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J255" s="21"/>
+      <c r="K255" s="22"/>
+      <c r="L255" s="18"/>
+      <c r="M255" s="19"/>
+    </row>
+    <row r="256" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J256" s="21"/>
+      <c r="K256" s="22"/>
+      <c r="L256" s="18"/>
+      <c r="M256" s="19"/>
+    </row>
+    <row r="257" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J257" s="21"/>
+      <c r="K257" s="22"/>
+      <c r="L257" s="18"/>
+      <c r="M257" s="19"/>
+    </row>
+    <row r="258" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J258" s="21"/>
+      <c r="K258" s="22"/>
+      <c r="L258" s="18"/>
+      <c r="M258" s="19"/>
+    </row>
+    <row r="259" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J259" s="21"/>
+      <c r="K259" s="22"/>
+      <c r="L259" s="18"/>
+      <c r="M259" s="19"/>
+    </row>
+    <row r="260" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J260" s="21"/>
+      <c r="K260" s="22"/>
+      <c r="L260" s="18"/>
+      <c r="M260" s="19"/>
+    </row>
+    <row r="261" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J261" s="21"/>
+      <c r="K261" s="22"/>
+      <c r="L261" s="18"/>
+      <c r="M261" s="19"/>
+    </row>
+    <row r="262" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J262" s="21"/>
+      <c r="K262" s="22"/>
+      <c r="L262" s="18"/>
+      <c r="M262" s="19"/>
+    </row>
+    <row r="263" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J263" s="21"/>
+      <c r="K263" s="22"/>
+      <c r="L263" s="18"/>
+      <c r="M263" s="19"/>
+    </row>
+    <row r="264" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J264" s="21"/>
+      <c r="K264" s="22"/>
+      <c r="L264" s="18"/>
+      <c r="M264" s="19"/>
+    </row>
+    <row r="265" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J265" s="21"/>
+      <c r="K265" s="22"/>
+      <c r="L265" s="18"/>
+      <c r="M265" s="19"/>
+    </row>
+    <row r="266" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J266" s="21"/>
+      <c r="K266" s="22"/>
+      <c r="L266" s="18"/>
+      <c r="M266" s="19"/>
+    </row>
+    <row r="267" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J267" s="21"/>
+      <c r="K267" s="22"/>
+      <c r="L267" s="18"/>
+      <c r="M267" s="19"/>
+    </row>
+    <row r="268" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J268" s="21"/>
+      <c r="K268" s="22"/>
+      <c r="L268" s="18"/>
+      <c r="M268" s="19"/>
+    </row>
+    <row r="269" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J269" s="21"/>
+      <c r="K269" s="22"/>
+      <c r="L269" s="18"/>
+      <c r="M269" s="19"/>
+    </row>
+    <row r="270" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J270" s="21"/>
+      <c r="K270" s="22"/>
+      <c r="L270" s="18"/>
+      <c r="M270" s="19"/>
+    </row>
+    <row r="271" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J271" s="21"/>
+      <c r="K271" s="22"/>
+      <c r="L271" s="18"/>
+      <c r="M271" s="19"/>
+    </row>
+    <row r="272" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J272" s="21"/>
+      <c r="K272" s="22"/>
+      <c r="L272" s="18"/>
+      <c r="M272" s="19"/>
+    </row>
+    <row r="273" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J273" s="21"/>
+      <c r="K273" s="22"/>
+      <c r="L273" s="18"/>
+      <c r="M273" s="19"/>
+    </row>
+    <row r="274" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J274" s="21"/>
+      <c r="K274" s="22"/>
+      <c r="L274" s="18"/>
+      <c r="M274" s="19"/>
+    </row>
+    <row r="275" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J275" s="21"/>
+      <c r="K275" s="22"/>
+      <c r="L275" s="18"/>
+      <c r="M275" s="19"/>
+    </row>
+    <row r="276" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J276" s="21"/>
+      <c r="K276" s="22"/>
+      <c r="L276" s="18"/>
+      <c r="M276" s="19"/>
+    </row>
+    <row r="277" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J277" s="21"/>
+      <c r="K277" s="22"/>
+      <c r="L277" s="18"/>
+      <c r="M277" s="19"/>
+    </row>
+    <row r="278" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J278" s="21"/>
+      <c r="K278" s="22"/>
+      <c r="L278" s="18"/>
+      <c r="M278" s="19"/>
+    </row>
+    <row r="279" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J279" s="21"/>
+      <c r="K279" s="22"/>
+      <c r="L279" s="18"/>
+      <c r="M279" s="19"/>
+    </row>
+    <row r="280" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J280" s="21"/>
+      <c r="K280" s="22"/>
+      <c r="L280" s="18"/>
+      <c r="M280" s="19"/>
+    </row>
+    <row r="281" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J281" s="21"/>
+      <c r="K281" s="22"/>
+      <c r="L281" s="18"/>
+      <c r="M281" s="19"/>
+    </row>
+    <row r="282" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J282" s="21"/>
+      <c r="K282" s="22"/>
+      <c r="L282" s="18"/>
+      <c r="M282" s="19"/>
+    </row>
+    <row r="283" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J283" s="21"/>
+      <c r="K283" s="22"/>
+      <c r="L283" s="18"/>
+      <c r="M283" s="19"/>
+    </row>
+    <row r="284" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J284" s="21"/>
+      <c r="K284" s="22"/>
+      <c r="L284" s="18"/>
+      <c r="M284" s="19"/>
+    </row>
+    <row r="285" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J285" s="21"/>
+      <c r="K285" s="22"/>
+      <c r="L285" s="18"/>
+      <c r="M285" s="19"/>
+    </row>
+    <row r="286" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J286" s="21"/>
+      <c r="K286" s="22"/>
+      <c r="L286" s="18"/>
+      <c r="M286" s="19"/>
+    </row>
+    <row r="287" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J287" s="21"/>
+      <c r="K287" s="22"/>
+      <c r="L287" s="18"/>
+      <c r="M287" s="19"/>
+    </row>
+    <row r="288" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J288" s="21"/>
+      <c r="K288" s="22"/>
+      <c r="L288" s="18"/>
+      <c r="M288" s="19"/>
+    </row>
+    <row r="289" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J289" s="21"/>
+      <c r="K289" s="22"/>
+      <c r="L289" s="18"/>
+      <c r="M289" s="19"/>
+    </row>
+    <row r="290" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J290" s="21"/>
+      <c r="K290" s="22"/>
+      <c r="L290" s="18"/>
+      <c r="M290" s="19"/>
+    </row>
+    <row r="291" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J291" s="21"/>
+      <c r="K291" s="22"/>
+      <c r="L291" s="18"/>
+      <c r="M291" s="19"/>
+    </row>
+    <row r="292" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J292" s="21"/>
+      <c r="K292" s="22"/>
+      <c r="L292" s="18"/>
+      <c r="M292" s="19"/>
+    </row>
+    <row r="293" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J293" s="21"/>
+      <c r="K293" s="22"/>
+      <c r="L293" s="18"/>
+      <c r="M293" s="19"/>
+    </row>
+    <row r="294" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J294" s="21"/>
+      <c r="K294" s="22"/>
+      <c r="L294" s="18"/>
+      <c r="M294" s="19"/>
+    </row>
+    <row r="295" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J295" s="21"/>
+      <c r="K295" s="22"/>
+      <c r="L295" s="18"/>
+      <c r="M295" s="19"/>
+    </row>
+    <row r="296" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J296" s="21"/>
+      <c r="K296" s="22"/>
+      <c r="L296" s="18"/>
+      <c r="M296" s="19"/>
+    </row>
+    <row r="297" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J297" s="21"/>
+      <c r="K297" s="22"/>
+      <c r="L297" s="18"/>
+      <c r="M297" s="19"/>
+    </row>
+    <row r="298" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J298" s="21"/>
+      <c r="K298" s="22"/>
+      <c r="L298" s="18"/>
+      <c r="M298" s="19"/>
+    </row>
+    <row r="299" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J299" s="21"/>
+      <c r="K299" s="22"/>
+      <c r="L299" s="18"/>
+      <c r="M299" s="19"/>
+    </row>
+    <row r="300" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J300" s="21"/>
+      <c r="K300" s="22"/>
+      <c r="L300" s="18"/>
+      <c r="M300" s="19"/>
+    </row>
+    <row r="301" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J301" s="21"/>
+      <c r="K301" s="22"/>
+      <c r="L301" s="18"/>
+      <c r="M301" s="19"/>
+    </row>
+    <row r="302" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J302" s="21"/>
+      <c r="K302" s="22"/>
+      <c r="L302" s="18"/>
+      <c r="M302" s="19"/>
+    </row>
+    <row r="303" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J303" s="21"/>
+      <c r="K303" s="22"/>
+      <c r="L303" s="18"/>
+      <c r="M303" s="19"/>
+    </row>
+    <row r="304" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J304" s="21"/>
+      <c r="K304" s="22"/>
+      <c r="L304" s="18"/>
+      <c r="M304" s="19"/>
+    </row>
+    <row r="305" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J305" s="21"/>
+      <c r="K305" s="22"/>
+      <c r="L305" s="18"/>
+      <c r="M305" s="19"/>
+    </row>
+    <row r="306" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J306" s="21"/>
+      <c r="K306" s="22"/>
+      <c r="L306" s="18"/>
+      <c r="M306" s="19"/>
+    </row>
+    <row r="307" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J307" s="21"/>
+      <c r="K307" s="22"/>
+      <c r="L307" s="18"/>
+      <c r="M307" s="19"/>
+    </row>
+    <row r="308" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J308" s="21"/>
+      <c r="K308" s="22"/>
+      <c r="L308" s="18"/>
+      <c r="M308" s="19"/>
+    </row>
+    <row r="309" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J309" s="21"/>
+      <c r="K309" s="22"/>
+      <c r="L309" s="18"/>
+      <c r="M309" s="19"/>
+    </row>
+    <row r="310" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J310" s="21"/>
+      <c r="K310" s="22"/>
+      <c r="L310" s="18"/>
+      <c r="M310" s="19"/>
+    </row>
+    <row r="311" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J311" s="21"/>
+      <c r="K311" s="22"/>
+      <c r="L311" s="18"/>
+      <c r="M311" s="19"/>
+    </row>
+    <row r="312" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J312" s="21"/>
+      <c r="K312" s="22"/>
+      <c r="L312" s="18"/>
+      <c r="M312" s="19"/>
+    </row>
+    <row r="313" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J313" s="21"/>
+      <c r="K313" s="22"/>
+      <c r="L313" s="18"/>
+      <c r="M313" s="19"/>
+    </row>
+    <row r="314" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J314" s="21"/>
+      <c r="K314" s="22"/>
+      <c r="L314" s="18"/>
+      <c r="M314" s="19"/>
+    </row>
+    <row r="315" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J315" s="21"/>
+      <c r="K315" s="22"/>
+      <c r="L315" s="18"/>
+      <c r="M315" s="19"/>
+    </row>
+    <row r="316" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J316" s="21"/>
+      <c r="K316" s="22"/>
+      <c r="L316" s="18"/>
+      <c r="M316" s="19"/>
+    </row>
+    <row r="317" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J317" s="21"/>
+      <c r="K317" s="22"/>
+      <c r="L317" s="18"/>
+      <c r="M317" s="19"/>
+    </row>
+    <row r="318" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J318" s="21"/>
+      <c r="K318" s="22"/>
+      <c r="L318" s="18"/>
+      <c r="M318" s="19"/>
+    </row>
+    <row r="319" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J319" s="21"/>
+      <c r="K319" s="22"/>
+      <c r="L319" s="18"/>
+      <c r="M319" s="19"/>
+    </row>
+    <row r="320" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J320" s="21"/>
+      <c r="K320" s="22"/>
+      <c r="L320" s="18"/>
+      <c r="M320" s="19"/>
+    </row>
+    <row r="321" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J321" s="21"/>
+      <c r="K321" s="22"/>
+      <c r="L321" s="18"/>
+      <c r="M321" s="19"/>
+    </row>
+    <row r="322" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J322" s="21"/>
+      <c r="K322" s="22"/>
+      <c r="L322" s="18"/>
+      <c r="M322" s="19"/>
+    </row>
+    <row r="323" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J323" s="21"/>
+      <c r="K323" s="22"/>
+      <c r="L323" s="18"/>
+      <c r="M323" s="19"/>
+    </row>
+    <row r="324" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J324" s="21"/>
+      <c r="K324" s="22"/>
+      <c r="L324" s="18"/>
+      <c r="M324" s="19"/>
+    </row>
+    <row r="325" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J325" s="21"/>
+      <c r="K325" s="22"/>
+      <c r="L325" s="18"/>
+      <c r="M325" s="19"/>
+    </row>
+    <row r="326" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J326" s="21"/>
+      <c r="K326" s="22"/>
+      <c r="L326" s="18"/>
+      <c r="M326" s="19"/>
+    </row>
+    <row r="327" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J327" s="21"/>
+      <c r="K327" s="22"/>
+      <c r="L327" s="18"/>
+      <c r="M327" s="19"/>
+    </row>
+    <row r="328" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J328" s="21"/>
+      <c r="K328" s="22"/>
+      <c r="L328" s="18"/>
+      <c r="M328" s="19"/>
+    </row>
+    <row r="329" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J329" s="21"/>
+      <c r="K329" s="22"/>
+      <c r="L329" s="18"/>
+      <c r="M329" s="19"/>
+    </row>
+    <row r="330" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J330" s="21"/>
+      <c r="K330" s="22"/>
+      <c r="L330" s="18"/>
+      <c r="M330" s="19"/>
+    </row>
+    <row r="331" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J331" s="21"/>
+      <c r="K331" s="22"/>
+      <c r="L331" s="18"/>
+      <c r="M331" s="19"/>
+    </row>
+    <row r="332" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J332" s="21"/>
+      <c r="K332" s="22"/>
+      <c r="L332" s="18"/>
+      <c r="M332" s="19"/>
+    </row>
+    <row r="333" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J333" s="21"/>
+      <c r="K333" s="22"/>
+      <c r="L333" s="18"/>
+      <c r="M333" s="19"/>
+    </row>
+    <row r="334" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J334" s="21"/>
+      <c r="K334" s="22"/>
+      <c r="L334" s="18"/>
+      <c r="M334" s="19"/>
+    </row>
+    <row r="335" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J335" s="21"/>
+      <c r="K335" s="22"/>
+      <c r="L335" s="18"/>
+      <c r="M335" s="19"/>
+    </row>
+    <row r="336" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J336" s="21"/>
+      <c r="K336" s="22"/>
+      <c r="L336" s="18"/>
+      <c r="M336" s="19"/>
+    </row>
+    <row r="337" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J337" s="21"/>
+      <c r="K337" s="22"/>
+      <c r="L337" s="18"/>
+      <c r="M337" s="19"/>
+    </row>
+    <row r="338" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J338" s="21"/>
+      <c r="K338" s="22"/>
+      <c r="L338" s="18"/>
+      <c r="M338" s="19"/>
+    </row>
+    <row r="339" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J339" s="21"/>
+      <c r="K339" s="22"/>
+      <c r="L339" s="18"/>
+      <c r="M339" s="19"/>
+    </row>
+    <row r="340" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J340" s="21"/>
+      <c r="K340" s="22"/>
+      <c r="L340" s="18"/>
+      <c r="M340" s="19"/>
+    </row>
+    <row r="341" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J341" s="21"/>
+      <c r="K341" s="22"/>
+      <c r="L341" s="18"/>
+      <c r="M341" s="19"/>
+    </row>
+    <row r="342" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J342" s="21"/>
+      <c r="K342" s="22"/>
+      <c r="L342" s="18"/>
+      <c r="M342" s="19"/>
+    </row>
+    <row r="343" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J343" s="21"/>
+      <c r="K343" s="22"/>
+      <c r="L343" s="18"/>
+      <c r="M343" s="19"/>
+    </row>
+    <row r="344" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J344" s="21"/>
+      <c r="K344" s="22"/>
+      <c r="L344" s="18"/>
+      <c r="M344" s="19"/>
+    </row>
+    <row r="345" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J345" s="21"/>
+      <c r="K345" s="22"/>
+      <c r="L345" s="18"/>
+      <c r="M345" s="19"/>
+    </row>
+    <row r="346" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J346" s="21"/>
+      <c r="K346" s="22"/>
+      <c r="L346" s="18"/>
+      <c r="M346" s="19"/>
+    </row>
+    <row r="347" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J347" s="21"/>
+      <c r="K347" s="22"/>
+      <c r="L347" s="18"/>
+      <c r="M347" s="19"/>
+    </row>
+    <row r="348" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J348" s="21"/>
+      <c r="K348" s="22"/>
+      <c r="L348" s="18"/>
+      <c r="M348" s="19"/>
+    </row>
+    <row r="349" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J349" s="21"/>
+      <c r="K349" s="22"/>
+      <c r="L349" s="18"/>
+      <c r="M349" s="19"/>
+    </row>
+    <row r="350" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J350" s="21"/>
+      <c r="K350" s="22"/>
+      <c r="L350" s="18"/>
+      <c r="M350" s="19"/>
+    </row>
+    <row r="351" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J351" s="21"/>
+      <c r="K351" s="22"/>
+      <c r="L351" s="18"/>
+      <c r="M351" s="19"/>
+    </row>
+    <row r="352" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J352" s="21"/>
+      <c r="K352" s="22"/>
+      <c r="L352" s="18"/>
+      <c r="M352" s="19"/>
+    </row>
+    <row r="353" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J353" s="21"/>
+      <c r="K353" s="22"/>
+      <c r="L353" s="18"/>
+      <c r="M353" s="19"/>
+    </row>
+    <row r="354" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J354" s="21"/>
+      <c r="K354" s="22"/>
+      <c r="L354" s="18"/>
+      <c r="M354" s="19"/>
+    </row>
+    <row r="355" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J355" s="21"/>
+      <c r="K355" s="22"/>
+      <c r="L355" s="18"/>
+      <c r="M355" s="19"/>
+    </row>
+    <row r="356" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J356" s="21"/>
+      <c r="K356" s="22"/>
+      <c r="L356" s="18"/>
+      <c r="M356" s="19"/>
+    </row>
+    <row r="357" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J357" s="21"/>
+      <c r="K357" s="22"/>
+      <c r="L357" s="18"/>
+      <c r="M357" s="19"/>
+    </row>
+    <row r="358" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J358" s="21"/>
+      <c r="K358" s="22"/>
+      <c r="L358" s="18"/>
+      <c r="M358" s="19"/>
+    </row>
+    <row r="359" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J359" s="21"/>
+      <c r="K359" s="22"/>
+      <c r="L359" s="18"/>
+      <c r="M359" s="19"/>
+    </row>
+    <row r="360" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J360" s="21"/>
+      <c r="K360" s="22"/>
+      <c r="L360" s="18"/>
+      <c r="M360" s="19"/>
+    </row>
+    <row r="361" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J361" s="21"/>
+      <c r="K361" s="22"/>
+      <c r="L361" s="18"/>
+      <c r="M361" s="19"/>
+    </row>
+    <row r="362" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J362" s="21"/>
+      <c r="K362" s="22"/>
+      <c r="L362" s="18"/>
+      <c r="M362" s="19"/>
+    </row>
+    <row r="363" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J363" s="21"/>
+      <c r="K363" s="22"/>
+      <c r="L363" s="18"/>
+      <c r="M363" s="19"/>
+    </row>
+    <row r="364" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J364" s="21"/>
+      <c r="K364" s="22"/>
+      <c r="L364" s="18"/>
+      <c r="M364" s="19"/>
+    </row>
+    <row r="365" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J365" s="21"/>
+      <c r="K365" s="22"/>
+      <c r="L365" s="18"/>
+      <c r="M365" s="19"/>
+    </row>
+    <row r="366" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J366" s="21"/>
+      <c r="K366" s="22"/>
+      <c r="L366" s="18"/>
+      <c r="M366" s="19"/>
+    </row>
+    <row r="367" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J367" s="21"/>
+      <c r="K367" s="22"/>
+      <c r="L367" s="18"/>
+      <c r="M367" s="19"/>
+    </row>
+    <row r="368" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J368" s="21"/>
+      <c r="K368" s="22"/>
+      <c r="L368" s="18"/>
+      <c r="M368" s="19"/>
+    </row>
+    <row r="369" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J369" s="21"/>
+      <c r="K369" s="22"/>
+      <c r="L369" s="18"/>
+      <c r="M369" s="19"/>
+    </row>
+    <row r="370" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J370" s="21"/>
+      <c r="K370" s="22"/>
+      <c r="L370" s="18"/>
+      <c r="M370" s="19"/>
+    </row>
+    <row r="371" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J371" s="21"/>
+      <c r="K371" s="22"/>
+      <c r="L371" s="18"/>
+      <c r="M371" s="19"/>
+    </row>
+    <row r="372" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J372" s="21"/>
+      <c r="K372" s="22"/>
+      <c r="L372" s="18"/>
+      <c r="M372" s="19"/>
+    </row>
+    <row r="373" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J373" s="21"/>
+      <c r="K373" s="22"/>
+      <c r="L373" s="18"/>
+      <c r="M373" s="19"/>
+    </row>
+    <row r="374" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J374" s="21"/>
+      <c r="K374" s="22"/>
+      <c r="L374" s="18"/>
+      <c r="M374" s="19"/>
+    </row>
+    <row r="375" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J375" s="21"/>
+      <c r="K375" s="22"/>
+      <c r="L375" s="18"/>
+      <c r="M375" s="19"/>
+    </row>
+    <row r="376" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J376" s="21"/>
+      <c r="K376" s="22"/>
+      <c r="L376" s="18"/>
+      <c r="M376" s="19"/>
+    </row>
+    <row r="377" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J377" s="21"/>
+      <c r="K377" s="22"/>
+      <c r="L377" s="18"/>
+      <c r="M377" s="19"/>
+    </row>
+    <row r="378" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J378" s="21"/>
+      <c r="K378" s="22"/>
+      <c r="L378" s="18"/>
+      <c r="M378" s="19"/>
+    </row>
+    <row r="379" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J379" s="21"/>
+      <c r="K379" s="22"/>
+      <c r="L379" s="18"/>
+      <c r="M379" s="19"/>
+    </row>
+    <row r="380" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J380" s="21"/>
+      <c r="K380" s="22"/>
+      <c r="L380" s="18"/>
+      <c r="M380" s="19"/>
+    </row>
+    <row r="381" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J381" s="21"/>
+      <c r="K381" s="22"/>
+      <c r="L381" s="18"/>
+      <c r="M381" s="19"/>
+    </row>
+    <row r="382" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J382" s="21"/>
+      <c r="K382" s="22"/>
+      <c r="L382" s="18"/>
+      <c r="M382" s="19"/>
+    </row>
+    <row r="383" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J383" s="21"/>
+      <c r="K383" s="22"/>
+      <c r="L383" s="18"/>
+      <c r="M383" s="19"/>
+    </row>
+    <row r="384" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J384" s="21"/>
+      <c r="K384" s="22"/>
+      <c r="L384" s="18"/>
+      <c r="M384" s="19"/>
+    </row>
+    <row r="385" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J385" s="21"/>
+      <c r="K385" s="22"/>
+      <c r="L385" s="18"/>
+      <c r="M385" s="19"/>
+    </row>
+    <row r="386" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J386" s="21"/>
+      <c r="K386" s="22"/>
+      <c r="L386" s="18"/>
+      <c r="M386" s="19"/>
+    </row>
+    <row r="387" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J387" s="21"/>
+      <c r="K387" s="22"/>
+      <c r="L387" s="18"/>
+      <c r="M387" s="19"/>
+    </row>
+    <row r="388" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J388" s="21"/>
+      <c r="K388" s="22"/>
+      <c r="L388" s="18"/>
+      <c r="M388" s="19"/>
+    </row>
+    <row r="389" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J389" s="21"/>
+      <c r="K389" s="22"/>
+      <c r="L389" s="18"/>
+      <c r="M389" s="19"/>
+    </row>
+    <row r="390" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J390" s="21"/>
+      <c r="K390" s="22"/>
+      <c r="L390" s="18"/>
+      <c r="M390" s="19"/>
+    </row>
+    <row r="391" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J391" s="21"/>
+      <c r="K391" s="22"/>
+      <c r="L391" s="18"/>
+      <c r="M391" s="19"/>
+    </row>
+    <row r="392" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J392" s="21"/>
+      <c r="K392" s="22"/>
+      <c r="L392" s="18"/>
+      <c r="M392" s="19"/>
+    </row>
+    <row r="393" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J393" s="21"/>
+      <c r="K393" s="22"/>
+      <c r="L393" s="18"/>
+      <c r="M393" s="19"/>
+    </row>
+    <row r="394" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J394" s="21"/>
+      <c r="K394" s="22"/>
+      <c r="L394" s="18"/>
+      <c r="M394" s="19"/>
+    </row>
+    <row r="395" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J395" s="21"/>
+      <c r="K395" s="22"/>
+      <c r="L395" s="18"/>
+      <c r="M395" s="19"/>
+    </row>
+    <row r="396" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J396" s="21"/>
+      <c r="K396" s="22"/>
+      <c r="L396" s="18"/>
+      <c r="M396" s="19"/>
+    </row>
+    <row r="397" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J397" s="21"/>
+      <c r="K397" s="22"/>
+      <c r="L397" s="18"/>
+      <c r="M397" s="19"/>
+    </row>
+    <row r="398" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J398" s="21"/>
+      <c r="K398" s="22"/>
+      <c r="L398" s="18"/>
+      <c r="M398" s="19"/>
+    </row>
+    <row r="399" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J399" s="21"/>
+      <c r="K399" s="22"/>
+      <c r="L399" s="18"/>
+      <c r="M399" s="19"/>
+    </row>
+    <row r="400" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J400" s="21"/>
+      <c r="K400" s="22"/>
+      <c r="L400" s="18"/>
+      <c r="M400" s="19"/>
+    </row>
+    <row r="401" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J401" s="21"/>
+      <c r="K401" s="22"/>
+      <c r="L401" s="18"/>
+      <c r="M401" s="19"/>
+    </row>
+    <row r="402" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J402" s="21"/>
+      <c r="K402" s="22"/>
+      <c r="L402" s="18"/>
+      <c r="M402" s="19"/>
+    </row>
+    <row r="403" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J403" s="21"/>
+      <c r="K403" s="22"/>
+      <c r="L403" s="18"/>
+      <c r="M403" s="19"/>
+    </row>
+    <row r="404" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J404" s="21"/>
+      <c r="K404" s="22"/>
+      <c r="L404" s="18"/>
+      <c r="M404" s="19"/>
+    </row>
+    <row r="405" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J405" s="21"/>
+      <c r="K405" s="22"/>
+      <c r="L405" s="18"/>
+      <c r="M405" s="19"/>
+    </row>
+    <row r="406" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J406" s="21"/>
+      <c r="K406" s="22"/>
+      <c r="L406" s="18"/>
+      <c r="M406" s="19"/>
+    </row>
+    <row r="407" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J407" s="21"/>
+      <c r="K407" s="22"/>
+      <c r="L407" s="18"/>
+      <c r="M407" s="19"/>
+    </row>
+    <row r="408" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J408" s="21"/>
+      <c r="K408" s="22"/>
+      <c r="L408" s="18"/>
+      <c r="M408" s="19"/>
+    </row>
+    <row r="409" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J409" s="21"/>
+      <c r="K409" s="22"/>
+      <c r="L409" s="18"/>
+      <c r="M409" s="19"/>
+    </row>
+    <row r="410" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J410" s="21"/>
+      <c r="K410" s="22"/>
+      <c r="L410" s="18"/>
+      <c r="M410" s="19"/>
+    </row>
+    <row r="411" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J411" s="21"/>
+      <c r="K411" s="22"/>
+      <c r="L411" s="18"/>
+      <c r="M411" s="19"/>
+    </row>
+    <row r="412" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J412" s="21"/>
+      <c r="K412" s="22"/>
+      <c r="L412" s="18"/>
+      <c r="M412" s="19"/>
+    </row>
+    <row r="413" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J413" s="21"/>
+      <c r="K413" s="22"/>
+      <c r="L413" s="18"/>
+      <c r="M413" s="19"/>
+    </row>
+    <row r="414" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J414" s="21"/>
+      <c r="K414" s="22"/>
+      <c r="L414" s="18"/>
+      <c r="M414" s="19"/>
+    </row>
+    <row r="415" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J415" s="21"/>
+      <c r="K415" s="22"/>
+      <c r="L415" s="18"/>
+      <c r="M415" s="19"/>
+    </row>
+    <row r="416" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J416" s="21"/>
+      <c r="K416" s="22"/>
+      <c r="L416" s="18"/>
+      <c r="M416" s="19"/>
+    </row>
+    <row r="417" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J417" s="21"/>
+      <c r="K417" s="22"/>
+      <c r="L417" s="18"/>
+      <c r="M417" s="19"/>
+    </row>
+    <row r="418" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J418" s="21"/>
+      <c r="K418" s="22"/>
+      <c r="L418" s="18"/>
+      <c r="M418" s="19"/>
+    </row>
+    <row r="419" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J419" s="21"/>
+      <c r="K419" s="22"/>
+      <c r="L419" s="18"/>
+      <c r="M419" s="19"/>
+    </row>
+    <row r="420" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J420" s="21"/>
+      <c r="K420" s="22"/>
+      <c r="L420" s="18"/>
+      <c r="M420" s="19"/>
+    </row>
+    <row r="421" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J421" s="21"/>
+      <c r="K421" s="22"/>
+      <c r="L421" s="18"/>
+      <c r="M421" s="19"/>
+    </row>
+    <row r="422" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J422" s="21"/>
+      <c r="K422" s="22"/>
+      <c r="L422" s="18"/>
+      <c r="M422" s="19"/>
+    </row>
+    <row r="423" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J423" s="21"/>
+      <c r="K423" s="22"/>
+      <c r="L423" s="18"/>
+      <c r="M423" s="19"/>
+    </row>
+    <row r="424" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J424" s="21"/>
+      <c r="K424" s="22"/>
+      <c r="L424" s="18"/>
+      <c r="M424" s="19"/>
+    </row>
+    <row r="425" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J425" s="21"/>
+      <c r="K425" s="22"/>
+      <c r="L425" s="18"/>
+      <c r="M425" s="19"/>
+    </row>
+    <row r="426" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J426" s="21"/>
+      <c r="K426" s="22"/>
+      <c r="L426" s="18"/>
+      <c r="M426" s="19"/>
+    </row>
+    <row r="427" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J427" s="21"/>
+      <c r="K427" s="22"/>
+      <c r="L427" s="18"/>
+      <c r="M427" s="19"/>
+    </row>
+    <row r="428" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J428" s="21"/>
+      <c r="K428" s="22"/>
+      <c r="L428" s="18"/>
+      <c r="M428" s="19"/>
+    </row>
+    <row r="429" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J429" s="21"/>
+      <c r="K429" s="22"/>
+      <c r="L429" s="18"/>
+      <c r="M429" s="19"/>
+    </row>
+    <row r="430" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J430" s="21"/>
+      <c r="K430" s="22"/>
+      <c r="L430" s="18"/>
+      <c r="M430" s="19"/>
+    </row>
+    <row r="431" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J431" s="21"/>
+      <c r="K431" s="22"/>
+      <c r="L431" s="18"/>
+      <c r="M431" s="19"/>
+    </row>
+    <row r="432" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J432" s="21"/>
+      <c r="K432" s="22"/>
+      <c r="L432" s="18"/>
+      <c r="M432" s="19"/>
+    </row>
+    <row r="433" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J433" s="21"/>
+      <c r="K433" s="22"/>
+      <c r="L433" s="18"/>
+      <c r="M433" s="19"/>
+    </row>
+    <row r="434" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J434" s="21"/>
+      <c r="K434" s="22"/>
+      <c r="L434" s="18"/>
+      <c r="M434" s="19"/>
+    </row>
+    <row r="435" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J435" s="21"/>
+      <c r="K435" s="22"/>
+      <c r="L435" s="18"/>
+      <c r="M435" s="19"/>
+    </row>
+    <row r="436" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J436" s="21"/>
+      <c r="K436" s="22"/>
+      <c r="L436" s="18"/>
+      <c r="M436" s="19"/>
+    </row>
+    <row r="437" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J437" s="21"/>
+      <c r="K437" s="22"/>
+      <c r="L437" s="18"/>
+      <c r="M437" s="19"/>
+    </row>
+    <row r="438" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J438" s="21"/>
+      <c r="K438" s="22"/>
+      <c r="L438" s="18"/>
+      <c r="M438" s="19"/>
+    </row>
+    <row r="439" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J439" s="21"/>
+      <c r="K439" s="22"/>
+      <c r="L439" s="18"/>
+      <c r="M439" s="19"/>
+    </row>
+    <row r="440" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J440" s="21"/>
+      <c r="K440" s="22"/>
+      <c r="L440" s="18"/>
+      <c r="M440" s="19"/>
+    </row>
+    <row r="441" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J441" s="21"/>
+      <c r="K441" s="22"/>
+      <c r="L441" s="18"/>
+      <c r="M441" s="19"/>
+    </row>
+    <row r="442" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J442" s="21"/>
+      <c r="K442" s="22"/>
+      <c r="L442" s="18"/>
+      <c r="M442" s="19"/>
+    </row>
+    <row r="443" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J443" s="21"/>
+      <c r="K443" s="22"/>
+      <c r="L443" s="18"/>
+      <c r="M443" s="19"/>
+    </row>
+    <row r="444" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J444" s="21"/>
+      <c r="K444" s="22"/>
+      <c r="L444" s="18"/>
+      <c r="M444" s="19"/>
+    </row>
+    <row r="445" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J445" s="21"/>
+      <c r="K445" s="22"/>
+      <c r="L445" s="18"/>
+      <c r="M445" s="19"/>
+    </row>
+    <row r="446" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J446" s="21"/>
+      <c r="K446" s="22"/>
+      <c r="L446" s="18"/>
+      <c r="M446" s="19"/>
+    </row>
+    <row r="447" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J447" s="21"/>
+      <c r="K447" s="22"/>
+      <c r="L447" s="18"/>
+      <c r="M447" s="19"/>
+    </row>
+    <row r="448" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J448" s="21"/>
+      <c r="K448" s="22"/>
+      <c r="L448" s="18"/>
+      <c r="M448" s="19"/>
+    </row>
+    <row r="449" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J449" s="21"/>
+      <c r="K449" s="22"/>
+      <c r="L449" s="18"/>
+      <c r="M449" s="19"/>
+    </row>
+    <row r="450" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J450" s="21"/>
+      <c r="K450" s="22"/>
+      <c r="L450" s="18"/>
+      <c r="M450" s="19"/>
+    </row>
+    <row r="451" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J451" s="21"/>
+      <c r="K451" s="22"/>
+      <c r="L451" s="18"/>
+      <c r="M451" s="19"/>
+    </row>
+    <row r="452" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J452" s="21"/>
+      <c r="K452" s="22"/>
+      <c r="L452" s="18"/>
+      <c r="M452" s="19"/>
+    </row>
+    <row r="453" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J453" s="21"/>
+      <c r="K453" s="22"/>
+      <c r="L453" s="18"/>
+      <c r="M453" s="19"/>
+    </row>
+    <row r="454" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J454" s="21"/>
+      <c r="K454" s="22"/>
+      <c r="L454" s="18"/>
+      <c r="M454" s="19"/>
+    </row>
+    <row r="455" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J455" s="21"/>
+      <c r="K455" s="22"/>
+      <c r="L455" s="18"/>
+      <c r="M455" s="19"/>
+    </row>
+    <row r="456" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J456" s="21"/>
+      <c r="K456" s="22"/>
+      <c r="L456" s="18"/>
+      <c r="M456" s="19"/>
+    </row>
+    <row r="457" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J457" s="21"/>
+      <c r="K457" s="22"/>
+      <c r="L457" s="18"/>
+      <c r="M457" s="19"/>
+    </row>
+    <row r="458" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J458" s="21"/>
+      <c r="K458" s="22"/>
+      <c r="L458" s="18"/>
+      <c r="M458" s="19"/>
+    </row>
+    <row r="459" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J459" s="21"/>
+      <c r="K459" s="22"/>
+      <c r="L459" s="18"/>
+      <c r="M459" s="19"/>
+    </row>
+    <row r="460" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J460" s="21"/>
+      <c r="K460" s="22"/>
+      <c r="L460" s="18"/>
+      <c r="M460" s="19"/>
+    </row>
+    <row r="461" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J461" s="21"/>
+      <c r="K461" s="22"/>
+      <c r="L461" s="18"/>
+      <c r="M461" s="19"/>
+    </row>
+    <row r="462" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J462" s="21"/>
+      <c r="K462" s="22"/>
+      <c r="L462" s="18"/>
+      <c r="M462" s="19"/>
+    </row>
+    <row r="463" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J463" s="21"/>
+      <c r="K463" s="22"/>
+      <c r="L463" s="18"/>
+      <c r="M463" s="19"/>
+    </row>
+    <row r="464" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J464" s="21"/>
+      <c r="K464" s="22"/>
+      <c r="L464" s="18"/>
+      <c r="M464" s="19"/>
+    </row>
+    <row r="465" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J465" s="21"/>
+      <c r="K465" s="22"/>
+      <c r="L465" s="18"/>
+      <c r="M465" s="19"/>
+    </row>
+    <row r="466" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J466" s="21"/>
+      <c r="K466" s="22"/>
+      <c r="L466" s="18"/>
+      <c r="M466" s="19"/>
+    </row>
+    <row r="467" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J467" s="21"/>
+      <c r="K467" s="22"/>
+      <c r="L467" s="18"/>
+      <c r="M467" s="19"/>
+    </row>
+    <row r="468" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J468" s="21"/>
+      <c r="K468" s="22"/>
+      <c r="L468" s="18"/>
+      <c r="M468" s="19"/>
+    </row>
+    <row r="469" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J469" s="21"/>
+      <c r="K469" s="22"/>
+      <c r="L469" s="18"/>
+      <c r="M469" s="19"/>
+    </row>
+    <row r="470" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J470" s="21"/>
+      <c r="K470" s="22"/>
+      <c r="L470" s="18"/>
+      <c r="M470" s="19"/>
+    </row>
+    <row r="471" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J471" s="21"/>
+      <c r="K471" s="22"/>
+      <c r="L471" s="18"/>
+      <c r="M471" s="19"/>
+    </row>
+    <row r="472" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J472" s="21"/>
+      <c r="K472" s="22"/>
+      <c r="L472" s="18"/>
+      <c r="M472" s="19"/>
+    </row>
+    <row r="473" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J473" s="21"/>
+      <c r="K473" s="22"/>
+      <c r="L473" s="18"/>
+      <c r="M473" s="19"/>
+    </row>
+    <row r="474" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J474" s="21"/>
+      <c r="K474" s="22"/>
+      <c r="L474" s="18"/>
+      <c r="M474" s="19"/>
+    </row>
+    <row r="475" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J475" s="21"/>
+      <c r="K475" s="22"/>
+      <c r="L475" s="18"/>
+      <c r="M475" s="19"/>
+    </row>
+    <row r="476" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J476" s="21"/>
+      <c r="K476" s="22"/>
+      <c r="L476" s="18"/>
+      <c r="M476" s="19"/>
+    </row>
+    <row r="477" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J477" s="21"/>
+      <c r="K477" s="22"/>
+      <c r="L477" s="18"/>
+      <c r="M477" s="19"/>
+    </row>
+    <row r="478" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J478" s="21"/>
+      <c r="K478" s="22"/>
+      <c r="L478" s="18"/>
+      <c r="M478" s="19"/>
+    </row>
+    <row r="479" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J479" s="21"/>
+      <c r="K479" s="22"/>
+      <c r="L479" s="18"/>
+      <c r="M479" s="19"/>
+    </row>
+    <row r="480" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J480" s="21"/>
+      <c r="K480" s="22"/>
+      <c r="L480" s="18"/>
+      <c r="M480" s="19"/>
+    </row>
+    <row r="481" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J481" s="21"/>
+      <c r="K481" s="22"/>
+      <c r="L481" s="18"/>
+      <c r="M481" s="19"/>
+    </row>
+    <row r="482" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J482" s="21"/>
+      <c r="K482" s="22"/>
+      <c r="L482" s="18"/>
+      <c r="M482" s="19"/>
+    </row>
+    <row r="483" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J483" s="21"/>
+      <c r="K483" s="22"/>
+      <c r="L483" s="18"/>
+      <c r="M483" s="19"/>
+    </row>
+    <row r="484" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J484" s="21"/>
+      <c r="K484" s="22"/>
+      <c r="L484" s="18"/>
+      <c r="M484" s="19"/>
+    </row>
+    <row r="485" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J485" s="21"/>
+      <c r="K485" s="22"/>
+      <c r="L485" s="18"/>
+      <c r="M485" s="19"/>
+    </row>
+    <row r="486" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J486" s="21"/>
+      <c r="K486" s="22"/>
+      <c r="L486" s="18"/>
+      <c r="M486" s="19"/>
+    </row>
+    <row r="487" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J487" s="21"/>
+      <c r="K487" s="22"/>
+      <c r="L487" s="18"/>
+      <c r="M487" s="19"/>
+    </row>
+    <row r="488" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J488" s="21"/>
+      <c r="K488" s="22"/>
+      <c r="L488" s="18"/>
+      <c r="M488" s="19"/>
+    </row>
+    <row r="489" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J489" s="21"/>
+      <c r="K489" s="22"/>
+      <c r="L489" s="18"/>
+      <c r="M489" s="19"/>
+    </row>
+    <row r="490" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J490" s="21"/>
+      <c r="K490" s="22"/>
+      <c r="L490" s="18"/>
+      <c r="M490" s="19"/>
+    </row>
+    <row r="491" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J491" s="21"/>
+      <c r="K491" s="22"/>
+      <c r="L491" s="18"/>
+      <c r="M491" s="19"/>
+    </row>
+    <row r="492" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J492" s="21"/>
+      <c r="K492" s="22"/>
+      <c r="L492" s="18"/>
+      <c r="M492" s="19"/>
+    </row>
+    <row r="493" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J493" s="21"/>
+      <c r="K493" s="22"/>
+      <c r="L493" s="18"/>
+      <c r="M493" s="19"/>
+    </row>
+    <row r="494" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J494" s="21"/>
+      <c r="K494" s="22"/>
+      <c r="L494" s="18"/>
+      <c r="M494" s="19"/>
+    </row>
+    <row r="495" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J495" s="21"/>
+      <c r="K495" s="22"/>
+      <c r="L495" s="18"/>
+      <c r="M495" s="19"/>
+    </row>
+    <row r="496" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J496" s="21"/>
+      <c r="K496" s="22"/>
+      <c r="L496" s="18"/>
+      <c r="M496" s="19"/>
+    </row>
+    <row r="497" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J497" s="21"/>
+      <c r="K497" s="22"/>
+      <c r="L497" s="18"/>
+      <c r="M497" s="19"/>
+    </row>
+    <row r="498" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J498" s="21"/>
+      <c r="K498" s="22"/>
+      <c r="L498" s="18"/>
+      <c r="M498" s="19"/>
+    </row>
+    <row r="499" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J499" s="21"/>
+      <c r="K499" s="22"/>
+      <c r="L499" s="18"/>
+      <c r="M499" s="19"/>
+    </row>
+    <row r="500" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J500" s="21"/>
+      <c r="K500" s="22"/>
+      <c r="L500" s="18"/>
+      <c r="M500" s="19"/>
+    </row>
+    <row r="501" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J501" s="21"/>
+      <c r="K501" s="22"/>
+      <c r="L501" s="18"/>
+      <c r="M501" s="19"/>
+    </row>
+    <row r="502" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J502" s="21"/>
+      <c r="K502" s="22"/>
+      <c r="L502" s="18"/>
+      <c r="M502" s="19"/>
+    </row>
+    <row r="503" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J503" s="21"/>
+      <c r="K503" s="22"/>
+      <c r="L503" s="18"/>
+      <c r="M503" s="19"/>
+    </row>
+    <row r="504" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J504" s="21"/>
+      <c r="K504" s="22"/>
+      <c r="L504" s="18"/>
+      <c r="M504" s="19"/>
+    </row>
+    <row r="505" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J505" s="21"/>
+      <c r="K505" s="22"/>
+      <c r="L505" s="18"/>
+      <c r="M505" s="19"/>
+    </row>
+    <row r="506" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J506" s="21"/>
+      <c r="K506" s="22"/>
+      <c r="L506" s="18"/>
+      <c r="M506" s="19"/>
+    </row>
+    <row r="507" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J507" s="21"/>
+      <c r="K507" s="22"/>
+      <c r="L507" s="18"/>
+      <c r="M507" s="19"/>
+    </row>
+    <row r="508" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J508" s="21"/>
+      <c r="K508" s="22"/>
+      <c r="L508" s="18"/>
+      <c r="M508" s="19"/>
+    </row>
+    <row r="509" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J509" s="21"/>
+      <c r="K509" s="22"/>
+      <c r="L509" s="18"/>
+      <c r="M509" s="19"/>
+    </row>
+    <row r="510" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J510" s="21"/>
+      <c r="K510" s="22"/>
+      <c r="L510" s="18"/>
+      <c r="M510" s="19"/>
+    </row>
+    <row r="511" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J511" s="21"/>
+      <c r="K511" s="22"/>
+      <c r="L511" s="18"/>
+      <c r="M511" s="19"/>
+    </row>
+    <row r="512" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J512" s="21"/>
+      <c r="K512" s="22"/>
+      <c r="L512" s="18"/>
+      <c r="M512" s="19"/>
+    </row>
+    <row r="513" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J513" s="21"/>
+      <c r="K513" s="22"/>
+      <c r="L513" s="18"/>
+      <c r="M513" s="19"/>
+    </row>
+    <row r="514" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J514" s="21"/>
+      <c r="K514" s="22"/>
+      <c r="L514" s="18"/>
+      <c r="M514" s="19"/>
+    </row>
+    <row r="515" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J515" s="21"/>
+      <c r="K515" s="22"/>
+      <c r="L515" s="18"/>
+      <c r="M515" s="19"/>
+    </row>
+    <row r="516" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J516" s="21"/>
+      <c r="K516" s="22"/>
+      <c r="L516" s="18"/>
+      <c r="M516" s="19"/>
+    </row>
+    <row r="517" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J517" s="21"/>
+      <c r="K517" s="22"/>
+      <c r="L517" s="18"/>
+      <c r="M517" s="19"/>
+    </row>
+    <row r="518" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J518" s="21"/>
+      <c r="K518" s="22"/>
+      <c r="L518" s="18"/>
+      <c r="M518" s="19"/>
+    </row>
+    <row r="519" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J519" s="21"/>
+      <c r="K519" s="22"/>
+      <c r="L519" s="18"/>
+      <c r="M519" s="19"/>
+    </row>
+    <row r="520" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J520" s="21"/>
+      <c r="K520" s="22"/>
+      <c r="L520" s="18"/>
+      <c r="M520" s="19"/>
+    </row>
+    <row r="521" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J521" s="21"/>
+      <c r="K521" s="22"/>
+      <c r="L521" s="18"/>
+      <c r="M521" s="19"/>
+    </row>
+    <row r="522" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J522" s="21"/>
+      <c r="K522" s="22"/>
+      <c r="L522" s="18"/>
+      <c r="M522" s="19"/>
+    </row>
+    <row r="523" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J523" s="21"/>
+      <c r="K523" s="22"/>
+      <c r="L523" s="18"/>
+      <c r="M523" s="19"/>
+    </row>
+    <row r="524" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J524" s="21"/>
+      <c r="K524" s="22"/>
+      <c r="L524" s="18"/>
+      <c r="M524" s="19"/>
+    </row>
+    <row r="525" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J525" s="21"/>
+      <c r="K525" s="22"/>
+      <c r="L525" s="18"/>
+      <c r="M525" s="19"/>
+    </row>
+    <row r="526" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J526" s="21"/>
+      <c r="K526" s="22"/>
+      <c r="L526" s="18"/>
+      <c r="M526" s="19"/>
+    </row>
+    <row r="527" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J527" s="21"/>
+      <c r="K527" s="22"/>
+      <c r="L527" s="18"/>
+      <c r="M527" s="19"/>
+    </row>
+    <row r="528" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J528" s="21"/>
+      <c r="K528" s="22"/>
+      <c r="L528" s="18"/>
+      <c r="M528" s="19"/>
+    </row>
+    <row r="529" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J529" s="21"/>
+      <c r="K529" s="22"/>
+      <c r="L529" s="18"/>
+      <c r="M529" s="19"/>
+    </row>
+    <row r="530" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J530" s="21"/>
+      <c r="K530" s="22"/>
+      <c r="L530" s="18"/>
+      <c r="M530" s="19"/>
+    </row>
+    <row r="531" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J531" s="21"/>
+      <c r="K531" s="22"/>
+      <c r="L531" s="18"/>
+      <c r="M531" s="19"/>
+    </row>
+    <row r="532" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J532" s="21"/>
+      <c r="K532" s="22"/>
+      <c r="L532" s="18"/>
+      <c r="M532" s="19"/>
+    </row>
+    <row r="533" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J533" s="21"/>
+      <c r="K533" s="22"/>
+      <c r="L533" s="18"/>
+      <c r="M533" s="19"/>
+    </row>
+    <row r="534" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J534" s="21"/>
+      <c r="K534" s="22"/>
+      <c r="L534" s="18"/>
+      <c r="M534" s="19"/>
+    </row>
+    <row r="535" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J535" s="21"/>
+      <c r="K535" s="22"/>
+      <c r="L535" s="18"/>
+      <c r="M535" s="19"/>
+    </row>
+    <row r="536" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J536" s="21"/>
+      <c r="K536" s="22"/>
+      <c r="L536" s="18"/>
+      <c r="M536" s="19"/>
+    </row>
+    <row r="537" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J537" s="21"/>
+      <c r="K537" s="22"/>
+      <c r="L537" s="18"/>
+      <c r="M537" s="19"/>
+    </row>
+    <row r="538" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J538" s="21"/>
+      <c r="K538" s="22"/>
+      <c r="L538" s="18"/>
+      <c r="M538" s="19"/>
+    </row>
+    <row r="539" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J539" s="21"/>
+      <c r="K539" s="22"/>
+      <c r="L539" s="18"/>
+      <c r="M539" s="19"/>
+    </row>
+    <row r="540" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J540" s="21"/>
+      <c r="K540" s="22"/>
+      <c r="L540" s="18"/>
+      <c r="M540" s="19"/>
+    </row>
+    <row r="541" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J541" s="21"/>
+      <c r="K541" s="22"/>
+      <c r="L541" s="18"/>
+      <c r="M541" s="19"/>
+    </row>
+    <row r="542" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J542" s="21"/>
+      <c r="K542" s="22"/>
+      <c r="L542" s="18"/>
+      <c r="M542" s="19"/>
+    </row>
+    <row r="543" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J543" s="21"/>
+      <c r="K543" s="22"/>
+      <c r="L543" s="18"/>
+      <c r="M543" s="19"/>
+    </row>
+    <row r="544" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J544" s="21"/>
+      <c r="K544" s="22"/>
+      <c r="L544" s="18"/>
+      <c r="M544" s="19"/>
+    </row>
+    <row r="545" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J545" s="21"/>
+      <c r="K545" s="22"/>
+      <c r="L545" s="18"/>
+      <c r="M545" s="19"/>
+    </row>
+    <row r="546" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J546" s="21"/>
+      <c r="K546" s="22"/>
+      <c r="L546" s="18"/>
+      <c r="M546" s="19"/>
+    </row>
+    <row r="547" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J547" s="21"/>
+      <c r="K547" s="22"/>
+      <c r="L547" s="18"/>
+      <c r="M547" s="19"/>
+    </row>
+    <row r="548" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J548" s="21"/>
+      <c r="K548" s="22"/>
+      <c r="L548" s="18"/>
+      <c r="M548" s="19"/>
+    </row>
+    <row r="549" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J549" s="21"/>
+      <c r="K549" s="22"/>
+      <c r="L549" s="18"/>
+      <c r="M549" s="19"/>
+    </row>
+    <row r="550" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J550" s="21"/>
+      <c r="K550" s="22"/>
+      <c r="L550" s="18"/>
+      <c r="M550" s="19"/>
+    </row>
+    <row r="551" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J551" s="21"/>
+      <c r="K551" s="22"/>
+      <c r="L551" s="18"/>
+      <c r="M551" s="19"/>
+    </row>
+    <row r="552" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J552" s="21"/>
+      <c r="K552" s="22"/>
+      <c r="L552" s="18"/>
+      <c r="M552" s="19"/>
+    </row>
+    <row r="553" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J553" s="21"/>
+      <c r="K553" s="22"/>
+      <c r="L553" s="18"/>
+      <c r="M553" s="19"/>
+    </row>
+    <row r="554" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J554" s="21"/>
+      <c r="K554" s="22"/>
+      <c r="L554" s="18"/>
+      <c r="M554" s="19"/>
+    </row>
+    <row r="555" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J555" s="21"/>
+      <c r="K555" s="22"/>
+      <c r="L555" s="18"/>
+      <c r="M555" s="19"/>
+    </row>
+    <row r="556" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J556" s="21"/>
+      <c r="K556" s="22"/>
+      <c r="L556" s="18"/>
+      <c r="M556" s="19"/>
+    </row>
+    <row r="557" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J557" s="21"/>
+      <c r="K557" s="22"/>
+      <c r="L557" s="18"/>
+      <c r="M557" s="19"/>
+    </row>
+    <row r="558" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J558" s="21"/>
+      <c r="K558" s="22"/>
+      <c r="L558" s="18"/>
+      <c r="M558" s="19"/>
+    </row>
+    <row r="559" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J559" s="21"/>
+      <c r="K559" s="22"/>
+      <c r="L559" s="18"/>
+      <c r="M559" s="19"/>
+    </row>
+    <row r="560" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J560" s="21"/>
+      <c r="K560" s="22"/>
+      <c r="L560" s="18"/>
+      <c r="M560" s="19"/>
+    </row>
+    <row r="561" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J561" s="21"/>
+      <c r="K561" s="22"/>
+      <c r="L561" s="18"/>
+      <c r="M561" s="19"/>
+    </row>
+    <row r="562" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J562" s="21"/>
+      <c r="K562" s="22"/>
+      <c r="L562" s="18"/>
+      <c r="M562" s="19"/>
+    </row>
+    <row r="563" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J563" s="21"/>
+      <c r="K563" s="22"/>
+      <c r="L563" s="18"/>
+      <c r="M563" s="19"/>
+    </row>
+    <row r="564" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J564" s="21"/>
+      <c r="K564" s="22"/>
+      <c r="L564" s="18"/>
+      <c r="M564" s="19"/>
+    </row>
+    <row r="565" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J565" s="21"/>
+      <c r="K565" s="22"/>
+      <c r="L565" s="18"/>
+      <c r="M565" s="19"/>
+    </row>
+    <row r="566" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J566" s="21"/>
+      <c r="K566" s="22"/>
+      <c r="L566" s="18"/>
+      <c r="M566" s="19"/>
+    </row>
+    <row r="567" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J567" s="21"/>
+      <c r="K567" s="22"/>
+      <c r="L567" s="18"/>
+      <c r="M567" s="19"/>
+    </row>
+    <row r="568" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J568" s="21"/>
+      <c r="K568" s="22"/>
+      <c r="L568" s="18"/>
+      <c r="M568" s="19"/>
+    </row>
+    <row r="569" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J569" s="21"/>
+      <c r="K569" s="22"/>
+      <c r="L569" s="18"/>
+      <c r="M569" s="19"/>
+    </row>
+    <row r="570" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J570" s="21"/>
+      <c r="K570" s="22"/>
+      <c r="L570" s="18"/>
+      <c r="M570" s="19"/>
+    </row>
+    <row r="571" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J571" s="21"/>
+      <c r="K571" s="22"/>
+      <c r="L571" s="18"/>
+      <c r="M571" s="19"/>
+    </row>
+    <row r="572" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J572" s="21"/>
+      <c r="K572" s="22"/>
+      <c r="L572" s="18"/>
+      <c r="M572" s="19"/>
+    </row>
+    <row r="573" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J573" s="21"/>
+      <c r="K573" s="22"/>
+      <c r="L573" s="18"/>
+      <c r="M573" s="19"/>
+    </row>
+    <row r="574" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J574" s="21"/>
+      <c r="K574" s="22"/>
+      <c r="L574" s="18"/>
+      <c r="M574" s="19"/>
+    </row>
+    <row r="575" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J575" s="21"/>
+      <c r="K575" s="22"/>
+      <c r="L575" s="18"/>
+      <c r="M575" s="19"/>
+    </row>
+    <row r="576" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J576" s="21"/>
+      <c r="K576" s="22"/>
+      <c r="L576" s="18"/>
+      <c r="M576" s="19"/>
+    </row>
+    <row r="577" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J577" s="21"/>
+      <c r="K577" s="22"/>
+      <c r="L577" s="18"/>
+      <c r="M577" s="19"/>
+    </row>
+    <row r="578" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J578" s="21"/>
+      <c r="K578" s="22"/>
+      <c r="L578" s="18"/>
+      <c r="M578" s="19"/>
+    </row>
+    <row r="579" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J579" s="21"/>
+      <c r="K579" s="22"/>
+      <c r="L579" s="18"/>
+      <c r="M579" s="19"/>
+    </row>
+    <row r="580" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J580" s="21"/>
+      <c r="K580" s="22"/>
+      <c r="L580" s="18"/>
+      <c r="M580" s="19"/>
+    </row>
+    <row r="581" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J581" s="21"/>
+      <c r="K581" s="22"/>
+      <c r="L581" s="18"/>
+      <c r="M581" s="19"/>
+    </row>
+    <row r="582" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J582" s="21"/>
+      <c r="K582" s="22"/>
+      <c r="L582" s="18"/>
+      <c r="M582" s="19"/>
+    </row>
+    <row r="583" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J583" s="21"/>
+      <c r="K583" s="22"/>
+      <c r="L583" s="18"/>
+      <c r="M583" s="19"/>
+    </row>
+    <row r="584" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J584" s="21"/>
+      <c r="K584" s="22"/>
+      <c r="L584" s="18"/>
+      <c r="M584" s="19"/>
+    </row>
+    <row r="585" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J585" s="21"/>
+      <c r="K585" s="22"/>
+      <c r="L585" s="18"/>
+      <c r="M585" s="19"/>
+    </row>
+    <row r="586" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J586" s="21"/>
+      <c r="K586" s="22"/>
+      <c r="L586" s="18"/>
+      <c r="M586" s="19"/>
+    </row>
+    <row r="587" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J587" s="21"/>
+      <c r="K587" s="22"/>
+      <c r="L587" s="18"/>
+      <c r="M587" s="19"/>
+    </row>
+    <row r="588" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J588" s="21"/>
+      <c r="K588" s="22"/>
+      <c r="L588" s="18"/>
+      <c r="M588" s="19"/>
+    </row>
+    <row r="589" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J589" s="21"/>
+      <c r="K589" s="22"/>
+      <c r="L589" s="18"/>
+      <c r="M589" s="19"/>
+    </row>
+    <row r="590" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J590" s="21"/>
+      <c r="K590" s="22"/>
+      <c r="L590" s="18"/>
+      <c r="M590" s="19"/>
+    </row>
+    <row r="591" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J591" s="21"/>
+      <c r="K591" s="22"/>
+      <c r="L591" s="18"/>
+      <c r="M591" s="19"/>
+    </row>
+    <row r="592" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J592" s="21"/>
+      <c r="K592" s="22"/>
+      <c r="L592" s="18"/>
+      <c r="M592" s="19"/>
+    </row>
+    <row r="593" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J593" s="21"/>
+      <c r="K593" s="22"/>
+      <c r="L593" s="18"/>
+      <c r="M593" s="19"/>
+    </row>
+    <row r="594" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J594" s="21"/>
+      <c r="K594" s="22"/>
+      <c r="L594" s="18"/>
+      <c r="M594" s="19"/>
+    </row>
+    <row r="595" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J595" s="21"/>
+      <c r="K595" s="22"/>
+      <c r="L595" s="18"/>
+      <c r="M595" s="19"/>
+    </row>
+    <row r="596" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J596" s="21"/>
+      <c r="K596" s="22"/>
+      <c r="L596" s="18"/>
+      <c r="M596" s="19"/>
+    </row>
+    <row r="597" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J597" s="21"/>
+      <c r="K597" s="22"/>
+      <c r="L597" s="18"/>
+      <c r="M597" s="19"/>
+    </row>
+    <row r="598" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J598" s="21"/>
+      <c r="K598" s="22"/>
+      <c r="L598" s="18"/>
+      <c r="M598" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <dataValidations count="4">
@@ -10589,7 +10677,7 @@
       <formula1>" ,Yes"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" promptTitle="What is a Soft Cost?" prompt="Soft costs are budget line items that cannot be verified by a third party inspector. Builders Capital may require additional evidence for soft cost items in order to disburse construction draw funds." sqref="C21:C23"/>
-    <dataValidation type="textLength" operator="lessThanOrEqual" showErrorMessage="1" errorTitle="Character Limit" error="Too many characters entered, please revise to be less than 50. " sqref="E6:E62 G6:G62">
+    <dataValidation type="textLength" operator="lessThanOrEqual" showErrorMessage="1" errorTitle="Character Limit" error="Too many characters entered, please revise to be less than 50. " sqref="F6:F62 H6:H62">
       <formula1>50</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="What is a Soft Cost?" prompt="Soft costs are budget line items that cannot be verified by a third party inspector. Builders Capital may require additional evidence for soft cost items in order to disburse construction draw funds." sqref="C6:C11 C58:C59 C61:C62"/>

--- a/QTOCostEstimation/Lot 13_Comparison.xlsx
+++ b/QTOCostEstimation/Lot 13_Comparison.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tool-Deployment-Order\QTOCostEstimation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\AppData\Roaming\Autodesk\Revit\Addins\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="BQFA" sheetId="3" r:id="rId1"/>
@@ -330,7 +330,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +352,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,7 +612,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -747,6 +759,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -765,8 +780,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1071,15 +1092,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1111,7 +1132,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1142,13 +1163,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>114300</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>419100</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:rowOff>137160</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1180,7 +1201,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1209,15 +1230,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1249,7 +1270,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1278,15 +1299,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1318,7 +1339,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1347,15 +1368,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1387,7 +1408,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1416,15 +1437,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1456,7 +1477,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1485,15 +1506,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1525,7 +1546,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1554,15 +1575,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1594,7 +1615,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1623,15 +1644,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1663,7 +1684,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1692,15 +1713,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1732,7 +1753,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1761,15 +1782,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>14</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1801,7 +1822,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1830,15 +1851,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1870,7 +1891,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1899,15 +1920,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>16</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1939,7 +1960,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -1968,15 +1989,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>17</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2008,7 +2029,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2037,15 +2058,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2077,7 +2098,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2106,15 +2127,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2146,7 +2167,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2175,15 +2196,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2215,7 +2236,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2244,15 +2265,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>21</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2284,7 +2305,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2313,15 +2334,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2353,7 +2374,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2382,15 +2403,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2422,7 +2443,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2451,15 +2472,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2491,7 +2512,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2520,15 +2541,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>25</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2560,7 +2581,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2589,15 +2610,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>26</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2629,7 +2650,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2658,15 +2679,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2698,7 +2719,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2727,15 +2748,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2767,7 +2788,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2796,15 +2817,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2836,7 +2857,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2865,15 +2886,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2905,7 +2926,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -2934,15 +2955,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2974,7 +2995,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3003,15 +3024,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>32</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3043,7 +3064,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3072,15 +3093,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3112,7 +3133,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3141,15 +3162,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>34</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3181,7 +3202,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3210,15 +3231,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3250,7 +3271,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3279,15 +3300,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>36</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3319,7 +3340,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3348,15 +3369,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>37</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3388,7 +3409,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3417,15 +3438,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>38</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3457,7 +3478,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3486,15 +3507,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3526,7 +3547,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3555,15 +3576,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>40</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3595,7 +3616,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3624,15 +3645,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>41</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3664,7 +3685,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3693,15 +3714,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>42</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3733,7 +3754,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3762,15 +3783,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>43</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3802,7 +3823,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3831,15 +3852,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>44</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3871,7 +3892,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3900,15 +3921,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>45</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3940,7 +3961,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -3969,15 +3990,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>46</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4009,7 +4030,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4038,15 +4059,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>47</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4078,7 +4099,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4107,15 +4128,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>48</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4147,7 +4168,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4176,15 +4197,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>49</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4216,7 +4237,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4245,15 +4266,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4285,7 +4306,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4314,15 +4335,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>51</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4354,7 +4375,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4383,15 +4404,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>52</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4423,7 +4444,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4452,15 +4473,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>53</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4492,7 +4513,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4521,15 +4542,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>54</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4561,7 +4582,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4590,15 +4611,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>55</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4630,7 +4651,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4659,15 +4680,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>56</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4699,7 +4720,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4728,15 +4749,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>57</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4768,7 +4789,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4797,15 +4818,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>61</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4837,7 +4858,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4866,15 +4887,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>60</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4906,7 +4927,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -4935,15 +4956,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>59</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4975,7 +4996,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5004,15 +5025,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>45720</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>58</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -5044,7 +5065,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="0" anchor="t" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
@@ -5068,6 +5089,51 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>49695</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1410528" cy="460948"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9124950" y="240195"/>
+          <a:ext cx="1410528" cy="460948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5370,30 +5436,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M598"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E62"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="26.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="22.5703125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="26.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.85546875" style="8" customWidth="1"/>
-    <col min="11" max="11" width="27.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" style="5" customWidth="1"/>
-    <col min="14" max="16" width="9.140625" style="1"/>
-    <col min="17" max="17" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="22.5546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.88671875" style="8" customWidth="1"/>
+    <col min="11" max="11" width="27.109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="16.88671875" style="5" customWidth="1"/>
+    <col min="14" max="16" width="9.109375" style="1"/>
+    <col min="17" max="17" width="12.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5411,7 +5477,7 @@
       <c r="K1" s="43"/>
       <c r="L1" s="42"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="6"/>
       <c r="J2" s="45" t="s">
         <v>68</v>
@@ -5419,41 +5485,41 @@
       <c r="K2" s="46"/>
       <c r="L2" s="42"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="56"/>
       <c r="J3" s="45" t="s">
         <v>69</v>
       </c>
       <c r="K3" s="46"/>
       <c r="L3" s="42"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="6"/>
       <c r="J4" s="45" t="s">
         <v>72</v>
       </c>
       <c r="K4" s="48">
         <f>F64</f>
-        <v>0</v>
+        <v>10624699.210770225</v>
       </c>
       <c r="L4" s="42"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="57"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="52" t="s">
         <v>79</v>
       </c>
@@ -5479,7 +5545,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="13"/>
       <c r="C6" s="14" t="s">
         <v>8</v>
@@ -5487,13 +5553,13 @@
       <c r="D6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="27" t="e">
+      <c r="E6" s="53"/>
+      <c r="F6" s="27">
         <f t="shared" ref="F6:F37" si="0">G6/$F$64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="15">
-        <v>0</v>
+        <v>0.14853937211304047</v>
+      </c>
+      <c r="G6" s="59">
+        <v>1578186.1496577258</v>
       </c>
       <c r="H6" s="27" t="e">
         <f>I6/$H$64</f>
@@ -5517,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="C7" s="14" t="s">
         <v>10</v>
@@ -5525,13 +5591,13 @@
       <c r="D7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="27" t="e">
+      <c r="E7" s="53"/>
+      <c r="F7" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
+        <v>1.7322662489262761E-2</v>
+      </c>
+      <c r="G7" s="59">
+        <v>184048.07847810906</v>
       </c>
       <c r="H7" s="27" t="e">
         <f t="shared" ref="H7:H62" si="2">I7/$H$64</f>
@@ -5556,7 +5622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="C8" s="14" t="s">
         <v>11</v>
@@ -5564,13 +5630,13 @@
       <c r="D8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="27" t="e">
+      <c r="E8" s="53"/>
+      <c r="F8" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
+        <v>3.2659819661218198E-2</v>
+      </c>
+      <c r="G8" s="59">
+        <v>347000.76017844287</v>
       </c>
       <c r="H8" s="27" t="e">
         <f t="shared" si="2"/>
@@ -5594,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="C9" s="14" t="s">
         <v>12</v>
@@ -5602,13 +5668,13 @@
       <c r="D9" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="27" t="e">
+      <c r="E9" s="53"/>
+      <c r="F9" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" s="15">
-        <v>0</v>
+        <v>1.0407025914091971E-2</v>
+      </c>
+      <c r="G9" s="59">
+        <v>110571.52001591824</v>
       </c>
       <c r="H9" s="27" t="e">
         <f t="shared" si="2"/>
@@ -5633,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="C10" s="14" t="s">
         <v>13</v>
@@ -5641,12 +5707,12 @@
       <c r="D10" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="27" t="e">
+      <c r="E10" s="53"/>
+      <c r="F10" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="59">
         <v>0</v>
       </c>
       <c r="H10" s="27" t="e">
@@ -5664,7 +5730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="C11" s="14" t="s">
         <v>14</v>
@@ -5672,12 +5738,12 @@
       <c r="D11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="27" t="e">
+      <c r="E11" s="53"/>
+      <c r="F11" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+      <c r="G11" s="59">
         <v>0</v>
       </c>
       <c r="H11" s="27" t="e">
@@ -5695,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13"/>
       <c r="C12" s="14" t="s">
         <v>15</v>
@@ -5703,12 +5769,12 @@
       <c r="D12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="58"/>
-      <c r="F12" s="27" t="e">
+      <c r="E12" s="53"/>
+      <c r="F12" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="59">
         <v>0</v>
       </c>
       <c r="H12" s="27" t="e">
@@ -5726,7 +5792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="C13" s="14" t="s">
         <v>16</v>
@@ -5734,12 +5800,12 @@
       <c r="D13" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="58"/>
-      <c r="F13" s="27" t="e">
+      <c r="E13" s="53"/>
+      <c r="F13" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+      <c r="G13" s="59">
         <v>0</v>
       </c>
       <c r="H13" s="27" t="e">
@@ -5760,7 +5826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="C14" s="14" t="s">
         <v>17</v>
@@ -5768,12 +5834,12 @@
       <c r="D14" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="27" t="e">
+      <c r="E14" s="53"/>
+      <c r="F14" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="59">
         <v>0</v>
       </c>
       <c r="H14" s="27" t="e">
@@ -5794,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="C15" s="14" t="s">
         <v>18</v>
@@ -5802,12 +5868,12 @@
       <c r="D15" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="58"/>
-      <c r="F15" s="27" t="e">
+      <c r="E15" s="53"/>
+      <c r="F15" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="59">
         <v>0</v>
       </c>
       <c r="H15" s="27" t="e">
@@ -5828,7 +5894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="C16" s="14" t="s">
         <v>19</v>
@@ -5836,12 +5902,12 @@
       <c r="D16" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="27" t="e">
+      <c r="E16" s="53"/>
+      <c r="F16" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="59">
         <v>0</v>
       </c>
       <c r="H16" s="27" t="e">
@@ -5862,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="C17" s="14" t="s">
         <v>20</v>
@@ -5870,12 +5936,12 @@
       <c r="D17" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="27" t="e">
+      <c r="E17" s="53"/>
+      <c r="F17" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="59">
         <v>0</v>
       </c>
       <c r="H17" s="27" t="e">
@@ -5896,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="C18" s="14" t="s">
         <v>21</v>
@@ -5904,12 +5970,12 @@
       <c r="D18" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="27" t="e">
+      <c r="E18" s="53"/>
+      <c r="F18" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="59">
         <v>0</v>
       </c>
       <c r="H18" s="27" t="e">
@@ -5930,7 +5996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="C19" s="14" t="s">
         <v>22</v>
@@ -5938,12 +6004,12 @@
       <c r="D19" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="27" t="e">
+      <c r="E19" s="53"/>
+      <c r="F19" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="59">
         <v>0</v>
       </c>
       <c r="H19" s="27" t="e">
@@ -5964,7 +6030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="C20" s="14" t="s">
         <v>23</v>
@@ -5972,12 +6038,12 @@
       <c r="D20" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="27" t="e">
+      <c r="E20" s="53"/>
+      <c r="F20" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="59">
         <v>0</v>
       </c>
       <c r="H20" s="27" t="e">
@@ -5998,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="C21" s="14" t="s">
         <v>24</v>
@@ -6006,12 +6072,12 @@
       <c r="D21" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="58"/>
-      <c r="F21" s="27" t="e">
+      <c r="E21" s="53"/>
+      <c r="F21" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="59">
         <v>0</v>
       </c>
       <c r="H21" s="27" t="e">
@@ -6032,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="C22" s="14" t="s">
         <v>25</v>
@@ -6040,13 +6106,13 @@
       <c r="D22" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="27" t="e">
+      <c r="E22" s="53"/>
+      <c r="F22" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="15">
-        <v>0</v>
+        <v>5.1001141189317797E-2</v>
+      </c>
+      <c r="G22" s="59">
+        <v>541871.78454252565</v>
       </c>
       <c r="H22" s="27" t="e">
         <f t="shared" si="2"/>
@@ -6066,7 +6132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="C23" s="14" t="s">
         <v>26</v>
@@ -6074,13 +6140,13 @@
       <c r="D23" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="27" t="e">
+      <c r="E23" s="53"/>
+      <c r="F23" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="15">
-        <v>0</v>
+        <v>2.2828314908330773E-4</v>
+      </c>
+      <c r="G23" s="59">
+        <v>2425.4397938975612</v>
       </c>
       <c r="H23" s="27" t="e">
         <f t="shared" si="2"/>
@@ -6100,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="C24" s="14" t="s">
         <v>27</v>
@@ -6108,13 +6174,13 @@
       <c r="D24" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="27" t="e">
+      <c r="E24" s="53"/>
+      <c r="F24" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0</v>
+        <v>9.5297262197103754E-3</v>
+      </c>
+      <c r="G24" s="59">
+        <v>101250.47464541314</v>
       </c>
       <c r="H24" s="27" t="e">
         <f t="shared" si="2"/>
@@ -6134,7 +6200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="C25" s="14" t="s">
         <v>28</v>
@@ -6142,13 +6208,13 @@
       <c r="D25" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="58"/>
-      <c r="F25" s="27" t="e">
+      <c r="E25" s="53"/>
+      <c r="F25" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="15">
-        <v>0</v>
+        <v>8.651259929230647E-3</v>
+      </c>
+      <c r="G25" s="59">
+        <v>91917.034542264926</v>
       </c>
       <c r="H25" s="27" t="e">
         <f t="shared" si="2"/>
@@ -6168,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="C26" s="14" t="s">
         <v>29</v>
@@ -6176,13 +6242,13 @@
       <c r="D26" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="58"/>
-      <c r="F26" s="27" t="e">
+      <c r="E26" s="53"/>
+      <c r="F26" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="15">
-        <v>0</v>
+        <v>2.8367538378734566E-2</v>
+      </c>
+      <c r="G26" s="59">
+        <v>301396.56262403523</v>
       </c>
       <c r="H26" s="27" t="e">
         <f t="shared" si="2"/>
@@ -6202,7 +6268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="C27" s="14" t="s">
         <v>30</v>
@@ -6210,13 +6276,13 @@
       <c r="D27" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="27" t="e">
+      <c r="E27" s="53"/>
+      <c r="F27" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="15">
-        <v>0</v>
+        <v>4.035240370560822E-2</v>
+      </c>
+      <c r="G27" s="59">
+        <v>428732.15180365718</v>
       </c>
       <c r="H27" s="27" t="e">
         <f t="shared" si="2"/>
@@ -6236,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="C28" s="14" t="s">
         <v>31</v>
@@ -6244,13 +6310,13 @@
       <c r="D28" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="58"/>
-      <c r="F28" s="27" t="e">
+      <c r="E28" s="53"/>
+      <c r="F28" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="15">
-        <v>0</v>
+        <v>4.7648631098551879E-2</v>
+      </c>
+      <c r="G28" s="59">
+        <v>506252.37322706572</v>
       </c>
       <c r="H28" s="27" t="e">
         <f t="shared" si="2"/>
@@ -6270,7 +6336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="C29" s="14" t="s">
         <v>32</v>
@@ -6278,13 +6344,13 @@
       <c r="D29" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="27" t="e">
+      <c r="E29" s="53"/>
+      <c r="F29" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="15">
-        <v>0</v>
+        <v>4.2551978989128554E-2</v>
+      </c>
+      <c r="G29" s="59">
+        <v>452101.97758250538</v>
       </c>
       <c r="H29" s="27" t="e">
         <f t="shared" si="2"/>
@@ -6304,7 +6370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="C30" s="14" t="s">
         <v>33</v>
@@ -6312,13 +6378,13 @@
       <c r="D30" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="58"/>
-      <c r="F30" s="27" t="e">
+      <c r="E30" s="53"/>
+      <c r="F30" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G30" s="15">
-        <v>0</v>
+        <v>1.3294136328969093E-2</v>
+      </c>
+      <c r="G30" s="59">
+        <v>141246.19976226971</v>
       </c>
       <c r="H30" s="27" t="e">
         <f t="shared" si="2"/>
@@ -6338,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="C31" s="14" t="s">
         <v>34</v>
@@ -6346,13 +6412,13 @@
       <c r="D31" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="58"/>
-      <c r="F31" s="27" t="e">
+      <c r="E31" s="53"/>
+      <c r="F31" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G31" s="15">
-        <v>0</v>
+        <v>1.4217340240703065E-2</v>
+      </c>
+      <c r="G31" s="59">
+        <v>151054.96363464961</v>
       </c>
       <c r="H31" s="27" t="e">
         <f t="shared" si="2"/>
@@ -6372,7 +6438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
       <c r="C32" s="14" t="s">
         <v>35</v>
@@ -6380,13 +6446,13 @@
       <c r="D32" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="58"/>
-      <c r="F32" s="27" t="e">
+      <c r="E32" s="53"/>
+      <c r="F32" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="15">
-        <v>0</v>
+        <v>1.6785525667890273E-2</v>
+      </c>
+      <c r="G32" s="59">
+        <v>178341.16131599713</v>
       </c>
       <c r="H32" s="27" t="e">
         <f t="shared" si="2"/>
@@ -6406,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
       <c r="C33" s="14" t="s">
         <v>36</v>
@@ -6414,13 +6480,13 @@
       <c r="D33" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="27" t="e">
+      <c r="E33" s="53"/>
+      <c r="F33" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="15">
-        <v>0</v>
+        <v>3.401418921341285E-2</v>
+      </c>
+      <c r="G33" s="59">
+        <v>361390.52929073659</v>
       </c>
       <c r="H33" s="27" t="e">
         <f t="shared" si="2"/>
@@ -6440,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="13"/>
       <c r="C34" s="14" t="s">
         <v>37</v>
@@ -6448,13 +6514,13 @@
       <c r="D34" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="58"/>
-      <c r="F34" s="27" t="e">
+      <c r="E34" s="53"/>
+      <c r="F34" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G34" s="15">
-        <v>0</v>
+        <v>1.7693286896009779E-2</v>
+      </c>
+      <c r="G34" s="60">
+        <v>187985.85131996626</v>
       </c>
       <c r="H34" s="27" t="e">
         <f t="shared" si="2"/>
@@ -6474,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="13"/>
       <c r="C35" s="14" t="s">
         <v>38</v>
@@ -6482,13 +6548,13 @@
       <c r="D35" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="58"/>
-      <c r="F35" s="27" t="e">
+      <c r="E35" s="53"/>
+      <c r="F35" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="15">
-        <v>0</v>
+        <v>2.8509208215371552E-2</v>
+      </c>
+      <c r="G35" s="60">
+        <v>302901.76202554215</v>
       </c>
       <c r="H35" s="27" t="e">
         <f t="shared" si="2"/>
@@ -6508,7 +6574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="13"/>
       <c r="C36" s="14" t="s">
         <v>39</v>
@@ -6516,13 +6582,13 @@
       <c r="D36" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="58"/>
-      <c r="F36" s="27" t="e">
+      <c r="E36" s="53"/>
+      <c r="F36" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="15">
-        <v>0</v>
+        <v>4.196381416972568E-2</v>
+      </c>
+      <c r="G36" s="60">
+        <v>445852.90328999283</v>
       </c>
       <c r="H36" s="27" t="e">
         <f t="shared" si="2"/>
@@ -6542,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="13"/>
       <c r="C37" s="14" t="s">
         <v>40</v>
@@ -6550,13 +6616,13 @@
       <c r="D37" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="27" t="e">
+      <c r="E37" s="53"/>
+      <c r="F37" s="27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="15">
-        <v>0</v>
+        <v>5.0850071458306785E-2</v>
+      </c>
+      <c r="G37" s="60">
+        <v>540266.71409068163</v>
       </c>
       <c r="H37" s="27" t="e">
         <f t="shared" si="2"/>
@@ -6576,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="13"/>
       <c r="C38" s="14" t="s">
         <v>41</v>
@@ -6584,13 +6650,13 @@
       <c r="D38" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E38" s="58"/>
-      <c r="F38" s="27" t="e">
+      <c r="E38" s="53"/>
+      <c r="F38" s="27">
         <f t="shared" ref="F38:F62" si="4">G38/$F$64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G38" s="15">
-        <v>0</v>
+        <v>2.9888978425272144E-2</v>
+      </c>
+      <c r="G38" s="60">
+        <v>317561.40548571723</v>
       </c>
       <c r="H38" s="27" t="e">
         <f t="shared" si="2"/>
@@ -6610,7 +6676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="13"/>
       <c r="C39" s="14" t="s">
         <v>42</v>
@@ -6618,13 +6684,13 @@
       <c r="D39" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="58"/>
-      <c r="F39" s="27" t="e">
+      <c r="E39" s="53"/>
+      <c r="F39" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G39" s="15">
-        <v>0</v>
+        <v>9.5297262197103754E-3</v>
+      </c>
+      <c r="G39" s="61">
+        <v>101250.47464541314</v>
       </c>
       <c r="H39" s="27" t="e">
         <f t="shared" si="2"/>
@@ -6644,7 +6710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="13"/>
       <c r="C40" s="14" t="s">
         <v>43</v>
@@ -6652,12 +6718,12 @@
       <c r="D40" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="58"/>
-      <c r="F40" s="27" t="e">
+      <c r="E40" s="53"/>
+      <c r="F40" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G40" s="15">
+        <v>0</v>
+      </c>
+      <c r="G40" s="61">
         <v>0</v>
       </c>
       <c r="H40" s="27" t="e">
@@ -6678,7 +6744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="13"/>
       <c r="C41" s="14" t="s">
         <v>44</v>
@@ -6686,12 +6752,12 @@
       <c r="D41" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="58"/>
-      <c r="F41" s="27" t="e">
+      <c r="E41" s="53"/>
+      <c r="F41" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G41" s="15">
+        <v>0</v>
+      </c>
+      <c r="G41" s="61">
         <v>0</v>
       </c>
       <c r="H41" s="27" t="e">
@@ -6712,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="13"/>
       <c r="C42" s="14" t="s">
         <v>45</v>
@@ -6720,12 +6786,12 @@
       <c r="D42" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="27" t="e">
+      <c r="E42" s="53"/>
+      <c r="F42" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G42" s="15">
+        <v>0</v>
+      </c>
+      <c r="G42" s="61">
         <v>0</v>
       </c>
       <c r="H42" s="27" t="e">
@@ -6746,7 +6812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="13"/>
       <c r="C43" s="14" t="s">
         <v>46</v>
@@ -6754,12 +6820,12 @@
       <c r="D43" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="58"/>
-      <c r="F43" s="27" t="e">
+      <c r="E43" s="53"/>
+      <c r="F43" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G43" s="15">
+        <v>0</v>
+      </c>
+      <c r="G43" s="61">
         <v>0</v>
       </c>
       <c r="H43" s="27" t="e">
@@ -6780,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="13"/>
       <c r="C44" s="14" t="s">
         <v>47</v>
@@ -6788,13 +6854,13 @@
       <c r="D44" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="58"/>
-      <c r="F44" s="27" t="e">
+      <c r="E44" s="53"/>
+      <c r="F44" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G44" s="15">
-        <v>0</v>
+        <v>1.8853502430174356E-3</v>
+      </c>
+      <c r="G44" s="61">
+        <v>20031.279239012802</v>
       </c>
       <c r="H44" s="27" t="e">
         <f t="shared" si="2"/>
@@ -6814,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="13"/>
       <c r="C45" s="14" t="s">
         <v>48</v>
@@ -6822,13 +6888,13 @@
       <c r="D45" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E45" s="58"/>
-      <c r="F45" s="27" t="e">
+      <c r="E45" s="53"/>
+      <c r="F45" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G45" s="15">
-        <v>0</v>
+        <v>2.3499735935046377E-4</v>
+      </c>
+      <c r="G45" s="61">
+        <v>2496.7762584239595</v>
       </c>
       <c r="H45" s="27" t="e">
         <f t="shared" si="2"/>
@@ -6848,7 +6914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="13"/>
       <c r="C46" s="14" t="s">
         <v>49</v>
@@ -6856,13 +6922,13 @@
       <c r="D46" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="27" t="e">
+      <c r="E46" s="53"/>
+      <c r="F46" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G46" s="15">
-        <v>0</v>
+        <v>3.0744368813307816E-3</v>
+      </c>
+      <c r="G46" s="61">
+        <v>32664.967106638029</v>
       </c>
       <c r="H46" s="27" t="e">
         <f t="shared" si="2"/>
@@ -6882,7 +6948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="13"/>
       <c r="C47" s="14" t="s">
         <v>50</v>
@@ -6890,12 +6956,12 @@
       <c r="D47" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E47" s="58"/>
-      <c r="F47" s="27" t="e">
+      <c r="E47" s="53"/>
+      <c r="F47" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G47" s="15">
+        <v>0</v>
+      </c>
+      <c r="G47" s="61">
         <v>0</v>
       </c>
       <c r="H47" s="27" t="e">
@@ -6916,7 +6982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
       <c r="C48" s="14" t="s">
         <v>51</v>
@@ -6924,12 +6990,12 @@
       <c r="D48" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="58"/>
-      <c r="F48" s="27" t="e">
+      <c r="E48" s="53"/>
+      <c r="F48" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G48" s="15">
+        <v>0</v>
+      </c>
+      <c r="G48" s="61">
         <v>0</v>
       </c>
       <c r="H48" s="27" t="e">
@@ -6950,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="13"/>
       <c r="C49" s="14" t="s">
         <v>52</v>
@@ -6958,12 +7024,12 @@
       <c r="D49" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="58"/>
-      <c r="F49" s="27" t="e">
+      <c r="E49" s="53"/>
+      <c r="F49" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="61">
         <v>0</v>
       </c>
       <c r="H49" s="27" t="e">
@@ -6984,7 +7050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="13"/>
       <c r="C50" s="14" t="s">
         <v>53</v>
@@ -6992,12 +7058,12 @@
       <c r="D50" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="27" t="e">
+      <c r="E50" s="53"/>
+      <c r="F50" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G50" s="15">
+        <v>0</v>
+      </c>
+      <c r="G50" s="61">
         <v>0</v>
       </c>
       <c r="H50" s="27" t="e">
@@ -7018,7 +7084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="13"/>
       <c r="C51" s="14" t="s">
         <v>54</v>
@@ -7026,13 +7092,13 @@
       <c r="D51" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="58"/>
-      <c r="F51" s="27" t="e">
+      <c r="E51" s="53"/>
+      <c r="F51" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G51" s="15">
-        <v>0</v>
+        <v>2.4674722731798703E-3</v>
+      </c>
+      <c r="G51" s="61">
+        <v>26216.150713451581</v>
       </c>
       <c r="H51" s="27" t="e">
         <f t="shared" si="2"/>
@@ -7052,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="13"/>
       <c r="C52" s="14" t="s">
         <v>55</v>
@@ -7060,12 +7126,12 @@
       <c r="D52" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="58"/>
-      <c r="F52" s="27" t="e">
+      <c r="E52" s="53"/>
+      <c r="F52" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G52" s="15">
+        <v>0</v>
+      </c>
+      <c r="G52" s="61">
         <v>0</v>
       </c>
       <c r="H52" s="27" t="e">
@@ -7086,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
       <c r="C53" s="14" t="s">
         <v>56</v>
@@ -7094,13 +7160,13 @@
       <c r="D53" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="58"/>
-      <c r="F53" s="27" t="e">
+      <c r="E53" s="53"/>
+      <c r="F53" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G53" s="15">
-        <v>0</v>
+        <v>4.7648631098551879E-2</v>
+      </c>
+      <c r="G53" s="61">
+        <v>506252.37322706572</v>
       </c>
       <c r="H53" s="27" t="e">
         <f t="shared" si="2"/>
@@ -7120,7 +7186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="13"/>
       <c r="C54" s="14" t="s">
         <v>57</v>
@@ -7128,13 +7194,13 @@
       <c r="D54" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E54" s="58"/>
-      <c r="F54" s="27" t="e">
+      <c r="E54" s="53"/>
+      <c r="F54" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G54" s="15">
-        <v>0</v>
+        <v>4.7648631098551879E-2</v>
+      </c>
+      <c r="G54" s="61">
+        <v>506252.37322706572</v>
       </c>
       <c r="H54" s="27" t="e">
         <f t="shared" si="2"/>
@@ -7154,7 +7220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="13"/>
       <c r="C55" s="14" t="s">
         <v>58</v>
@@ -7162,13 +7228,13 @@
       <c r="D55" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="58"/>
-      <c r="F55" s="27" t="e">
+      <c r="E55" s="53"/>
+      <c r="F55" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G55" s="15">
-        <v>0</v>
+        <v>3.1096864852333518E-2</v>
+      </c>
+      <c r="G55" s="61">
+        <v>330394.83545401628</v>
       </c>
       <c r="H55" s="27" t="e">
         <f t="shared" si="2"/>
@@ -7188,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="13"/>
       <c r="C56" s="14" t="s">
         <v>59</v>
@@ -7196,12 +7262,12 @@
       <c r="D56" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E56" s="58"/>
-      <c r="F56" s="27" t="e">
+      <c r="E56" s="53"/>
+      <c r="F56" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G56" s="15">
+        <v>0</v>
+      </c>
+      <c r="G56" s="61">
         <v>0</v>
       </c>
       <c r="H56" s="27" t="e">
@@ -7222,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="13"/>
       <c r="C57" s="14" t="s">
         <v>60</v>
@@ -7230,13 +7296,13 @@
       <c r="D57" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="58"/>
-      <c r="F57" s="27" t="e">
+      <c r="E57" s="53"/>
+      <c r="F57" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G57" s="15">
-        <v>0</v>
+        <v>7.4897015530126398E-2</v>
+      </c>
+      <c r="G57" s="61">
+        <v>795758.2617919792</v>
       </c>
       <c r="H57" s="27" t="e">
         <f t="shared" si="2"/>
@@ -7256,7 +7322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="13"/>
       <c r="C58" s="14" t="s">
         <v>61</v>
@@ -7264,12 +7330,12 @@
       <c r="D58" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E58" s="58"/>
-      <c r="F58" s="27" t="e">
+      <c r="E58" s="53"/>
+      <c r="F58" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G58" s="15">
+        <v>0</v>
+      </c>
+      <c r="G58" s="61">
         <v>0</v>
       </c>
       <c r="H58" s="27" t="e">
@@ -7290,7 +7356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="13"/>
       <c r="C59" s="14" t="s">
         <v>62</v>
@@ -7298,12 +7364,12 @@
       <c r="D59" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="58"/>
-      <c r="F59" s="27" t="e">
+      <c r="E59" s="53"/>
+      <c r="F59" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G59" s="15">
+        <v>0</v>
+      </c>
+      <c r="G59" s="61">
         <v>0</v>
       </c>
       <c r="H59" s="27" t="e">
@@ -7324,7 +7390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="13"/>
       <c r="C60" s="14" t="s">
         <v>63</v>
@@ -7332,12 +7398,12 @@
       <c r="D60" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="58"/>
-      <c r="F60" s="27" t="e">
+      <c r="E60" s="53"/>
+      <c r="F60" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G60" s="15">
+        <v>0</v>
+      </c>
+      <c r="G60" s="61">
         <v>0</v>
       </c>
       <c r="H60" s="27" t="e">
@@ -7358,7 +7424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="13"/>
       <c r="C61" s="14" t="s">
         <v>64</v>
@@ -7366,13 +7432,13 @@
       <c r="D61" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E61" s="58"/>
-      <c r="F61" s="27" t="e">
+      <c r="E61" s="53"/>
+      <c r="F61" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G61" s="15">
-        <v>0</v>
+        <v>2.4674722731798701E-2</v>
+      </c>
+      <c r="G61" s="61">
+        <v>262161.50713451579</v>
       </c>
       <c r="H61" s="27" t="e">
         <f t="shared" si="2"/>
@@ -7392,7 +7458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="13"/>
       <c r="C62" s="14" t="s">
         <v>65</v>
@@ -7400,13 +7466,13 @@
       <c r="D62" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E62" s="58"/>
-      <c r="F62" s="27" t="e">
+      <c r="E62" s="53"/>
+      <c r="F62" s="27">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G62" s="15">
-        <v>0</v>
+        <v>7.2365758259408539E-2</v>
+      </c>
+      <c r="G62" s="61">
+        <v>768864.41466552683</v>
       </c>
       <c r="H62" s="27" t="e">
         <f t="shared" si="2"/>
@@ -7426,15 +7492,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="13"/>
       <c r="D63" s="25" t="s">
         <v>67</v>
       </c>
       <c r="E63" s="25"/>
-      <c r="F63" s="28" t="e">
+      <c r="F63" s="28">
         <f>SUM(F6:F62)</f>
-        <v>#DIV/0!</v>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="G63" s="61">
+        <v>0</v>
       </c>
       <c r="H63" s="28" t="e">
         <f>SUM(H6:H62)</f>
@@ -7445,14 +7514,17 @@
       <c r="L63" s="18"/>
       <c r="M63" s="19"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D64" s="23" t="s">
         <v>66</v>
       </c>
       <c r="E64" s="23"/>
       <c r="F64" s="24">
         <f>SUM(G6:G62)</f>
-        <v>0</v>
+        <v>10624699.210770225</v>
+      </c>
+      <c r="G64" s="61">
+        <v>114851.70788750214</v>
       </c>
       <c r="H64" s="24">
         <f>SUM(I6:I62)</f>
@@ -7463,3205 +7535,3241 @@
       <c r="L64" s="18"/>
       <c r="M64" s="19"/>
     </row>
-    <row r="65" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G65" s="61">
+        <v>0</v>
+      </c>
       <c r="J65" s="21"/>
       <c r="K65" s="22"/>
       <c r="L65" s="18"/>
       <c r="M65" s="19"/>
     </row>
-    <row r="66" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G66" s="61">
+        <v>395917.37812151364</v>
+      </c>
       <c r="J66" s="21"/>
       <c r="K66" s="22"/>
       <c r="L66" s="18"/>
       <c r="M66" s="19"/>
     </row>
-    <row r="67" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G67" s="61">
+        <v>0</v>
+      </c>
       <c r="J67" s="21"/>
       <c r="K67" s="22"/>
       <c r="L67" s="18"/>
       <c r="M67" s="19"/>
     </row>
-    <row r="68" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G68" s="61">
+        <v>0</v>
+      </c>
       <c r="J68" s="21"/>
       <c r="K68" s="22"/>
       <c r="L68" s="18"/>
       <c r="M68" s="19"/>
     </row>
-    <row r="69" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G69" s="61">
+        <v>35668.232263199425</v>
+      </c>
       <c r="J69" s="21"/>
       <c r="K69" s="22"/>
       <c r="L69" s="18"/>
       <c r="M69" s="19"/>
     </row>
-    <row r="70" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G70" s="61">
+        <v>0</v>
+      </c>
       <c r="J70" s="21"/>
       <c r="K70" s="22"/>
       <c r="L70" s="18"/>
       <c r="M70" s="19"/>
     </row>
-    <row r="71" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G71" s="61">
+        <v>17834.116131599712</v>
+      </c>
       <c r="J71" s="21"/>
       <c r="K71" s="22"/>
       <c r="L71" s="18"/>
       <c r="M71" s="19"/>
     </row>
-    <row r="72" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G72" s="61">
+        <v>0</v>
+      </c>
       <c r="J72" s="21"/>
       <c r="K72" s="22"/>
       <c r="L72" s="18"/>
       <c r="M72" s="19"/>
     </row>
-    <row r="73" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G73" s="61">
+        <v>0</v>
+      </c>
       <c r="J73" s="21"/>
       <c r="K73" s="22"/>
       <c r="L73" s="18"/>
       <c r="M73" s="19"/>
     </row>
-    <row r="74" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G74" s="61">
+        <v>0</v>
+      </c>
       <c r="J74" s="21"/>
       <c r="K74" s="22"/>
       <c r="L74" s="18"/>
       <c r="M74" s="19"/>
     </row>
-    <row r="75" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G75" s="61">
+        <v>0</v>
+      </c>
       <c r="J75" s="21"/>
       <c r="K75" s="22"/>
       <c r="L75" s="18"/>
       <c r="M75" s="19"/>
     </row>
-    <row r="76" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="7:13" x14ac:dyDescent="0.3">
+      <c r="G76" s="61">
+        <v>0</v>
+      </c>
       <c r="J76" s="21"/>
       <c r="K76" s="22"/>
       <c r="L76" s="18"/>
       <c r="M76" s="19"/>
     </row>
-    <row r="77" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="7:13" x14ac:dyDescent="0.3">
       <c r="J77" s="21"/>
       <c r="K77" s="22"/>
       <c r="L77" s="18"/>
       <c r="M77" s="19"/>
     </row>
-    <row r="78" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:13" x14ac:dyDescent="0.3">
       <c r="J78" s="21"/>
       <c r="K78" s="22"/>
       <c r="L78" s="18"/>
       <c r="M78" s="19"/>
     </row>
-    <row r="79" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="7:13" x14ac:dyDescent="0.3">
       <c r="J79" s="21"/>
       <c r="K79" s="22"/>
       <c r="L79" s="18"/>
       <c r="M79" s="19"/>
     </row>
-    <row r="80" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:13" x14ac:dyDescent="0.3">
       <c r="J80" s="21"/>
       <c r="K80" s="22"/>
       <c r="L80" s="18"/>
       <c r="M80" s="19"/>
     </row>
-    <row r="81" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J81" s="21"/>
       <c r="K81" s="22"/>
       <c r="L81" s="18"/>
       <c r="M81" s="19"/>
     </row>
-    <row r="82" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J82" s="21"/>
       <c r="K82" s="22"/>
       <c r="L82" s="18"/>
       <c r="M82" s="19"/>
     </row>
-    <row r="83" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J83" s="21"/>
       <c r="K83" s="22"/>
       <c r="L83" s="18"/>
       <c r="M83" s="19"/>
     </row>
-    <row r="84" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J84" s="21"/>
       <c r="K84" s="22"/>
       <c r="L84" s="18"/>
       <c r="M84" s="19"/>
     </row>
-    <row r="85" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J85" s="21"/>
       <c r="K85" s="22"/>
       <c r="L85" s="18"/>
       <c r="M85" s="19"/>
     </row>
-    <row r="86" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J86" s="21"/>
       <c r="K86" s="22"/>
       <c r="L86" s="18"/>
       <c r="M86" s="19"/>
     </row>
-    <row r="87" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J87" s="21"/>
       <c r="K87" s="22"/>
       <c r="L87" s="18"/>
       <c r="M87" s="19"/>
     </row>
-    <row r="88" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J88" s="21"/>
       <c r="K88" s="22"/>
       <c r="L88" s="18"/>
       <c r="M88" s="19"/>
     </row>
-    <row r="89" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J89" s="21"/>
       <c r="K89" s="22"/>
       <c r="L89" s="18"/>
       <c r="M89" s="19"/>
     </row>
-    <row r="90" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J90" s="21"/>
       <c r="K90" s="22"/>
       <c r="L90" s="18"/>
       <c r="M90" s="19"/>
     </row>
-    <row r="91" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J91" s="21"/>
       <c r="K91" s="22"/>
       <c r="L91" s="18"/>
       <c r="M91" s="19"/>
     </row>
-    <row r="92" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J92" s="21"/>
       <c r="K92" s="22"/>
       <c r="L92" s="18"/>
       <c r="M92" s="19"/>
     </row>
-    <row r="93" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J93" s="21"/>
       <c r="K93" s="22"/>
       <c r="L93" s="18"/>
       <c r="M93" s="19"/>
     </row>
-    <row r="94" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J94" s="21"/>
       <c r="K94" s="22"/>
       <c r="L94" s="18"/>
       <c r="M94" s="19"/>
     </row>
-    <row r="95" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J95" s="21"/>
       <c r="K95" s="22"/>
       <c r="L95" s="18"/>
       <c r="M95" s="19"/>
     </row>
-    <row r="96" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J96" s="21"/>
       <c r="K96" s="22"/>
       <c r="L96" s="18"/>
       <c r="M96" s="19"/>
     </row>
-    <row r="97" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J97" s="21"/>
       <c r="K97" s="22"/>
       <c r="L97" s="18"/>
       <c r="M97" s="19"/>
     </row>
-    <row r="98" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J98" s="21"/>
       <c r="K98" s="22"/>
       <c r="L98" s="18"/>
       <c r="M98" s="19"/>
     </row>
-    <row r="99" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J99" s="21"/>
       <c r="K99" s="22"/>
       <c r="L99" s="18"/>
       <c r="M99" s="19"/>
     </row>
-    <row r="100" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J100" s="21"/>
       <c r="K100" s="22"/>
       <c r="L100" s="18"/>
       <c r="M100" s="19"/>
     </row>
-    <row r="101" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J101" s="21"/>
       <c r="K101" s="22"/>
       <c r="L101" s="18"/>
       <c r="M101" s="19"/>
     </row>
-    <row r="102" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J102" s="21"/>
       <c r="K102" s="22"/>
       <c r="L102" s="18"/>
       <c r="M102" s="19"/>
     </row>
-    <row r="103" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J103" s="21"/>
       <c r="K103" s="22"/>
       <c r="L103" s="18"/>
       <c r="M103" s="19"/>
     </row>
-    <row r="104" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J104" s="21"/>
       <c r="K104" s="22"/>
       <c r="L104" s="18"/>
       <c r="M104" s="19"/>
     </row>
-    <row r="105" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J105" s="21"/>
       <c r="K105" s="22"/>
       <c r="L105" s="18"/>
       <c r="M105" s="19"/>
     </row>
-    <row r="106" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J106" s="21"/>
       <c r="K106" s="22"/>
       <c r="L106" s="18"/>
       <c r="M106" s="19"/>
     </row>
-    <row r="107" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J107" s="21"/>
       <c r="K107" s="22"/>
       <c r="L107" s="18"/>
       <c r="M107" s="19"/>
     </row>
-    <row r="108" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J108" s="21"/>
       <c r="K108" s="22"/>
       <c r="L108" s="18"/>
       <c r="M108" s="19"/>
     </row>
-    <row r="109" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J109" s="21"/>
       <c r="K109" s="22"/>
       <c r="L109" s="18"/>
       <c r="M109" s="19"/>
     </row>
-    <row r="110" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J110" s="21"/>
       <c r="K110" s="22"/>
       <c r="L110" s="18"/>
       <c r="M110" s="19"/>
     </row>
-    <row r="111" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J111" s="21"/>
       <c r="K111" s="22"/>
       <c r="L111" s="18"/>
       <c r="M111" s="19"/>
     </row>
-    <row r="112" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J112" s="21"/>
       <c r="K112" s="22"/>
       <c r="L112" s="18"/>
       <c r="M112" s="19"/>
     </row>
-    <row r="113" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J113" s="21"/>
       <c r="K113" s="22"/>
       <c r="L113" s="18"/>
       <c r="M113" s="19"/>
     </row>
-    <row r="114" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J114" s="21"/>
       <c r="K114" s="22"/>
       <c r="L114" s="18"/>
       <c r="M114" s="19"/>
     </row>
-    <row r="115" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J115" s="21"/>
       <c r="K115" s="22"/>
       <c r="L115" s="18"/>
       <c r="M115" s="19"/>
     </row>
-    <row r="116" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J116" s="21"/>
       <c r="K116" s="22"/>
       <c r="L116" s="18"/>
       <c r="M116" s="19"/>
     </row>
-    <row r="117" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J117" s="21"/>
       <c r="K117" s="22"/>
       <c r="L117" s="18"/>
       <c r="M117" s="19"/>
     </row>
-    <row r="118" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J118" s="21"/>
       <c r="K118" s="22"/>
       <c r="L118" s="18"/>
       <c r="M118" s="19"/>
     </row>
-    <row r="119" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J119" s="21"/>
       <c r="K119" s="22"/>
       <c r="L119" s="18"/>
       <c r="M119" s="19"/>
     </row>
-    <row r="120" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J120" s="21"/>
       <c r="K120" s="22"/>
       <c r="L120" s="18"/>
       <c r="M120" s="19"/>
     </row>
-    <row r="121" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J121" s="21"/>
       <c r="K121" s="22"/>
       <c r="L121" s="18"/>
       <c r="M121" s="19"/>
     </row>
-    <row r="122" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J122" s="21"/>
       <c r="K122" s="22"/>
       <c r="L122" s="18"/>
       <c r="M122" s="19"/>
     </row>
-    <row r="123" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J123" s="21"/>
       <c r="K123" s="22"/>
       <c r="L123" s="18"/>
       <c r="M123" s="19"/>
     </row>
-    <row r="124" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J124" s="21"/>
       <c r="K124" s="22"/>
       <c r="L124" s="18"/>
       <c r="M124" s="19"/>
     </row>
-    <row r="125" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J125" s="21"/>
       <c r="K125" s="22"/>
       <c r="L125" s="18"/>
       <c r="M125" s="19"/>
     </row>
-    <row r="126" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J126" s="21"/>
       <c r="K126" s="22"/>
       <c r="L126" s="18"/>
       <c r="M126" s="19"/>
     </row>
-    <row r="127" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J127" s="21"/>
       <c r="K127" s="22"/>
       <c r="L127" s="18"/>
       <c r="M127" s="19"/>
     </row>
-    <row r="128" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J128" s="21"/>
       <c r="K128" s="22"/>
       <c r="L128" s="18"/>
       <c r="M128" s="19"/>
     </row>
-    <row r="129" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J129" s="21"/>
       <c r="K129" s="22"/>
       <c r="L129" s="18"/>
       <c r="M129" s="19"/>
     </row>
-    <row r="130" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J130" s="21"/>
       <c r="K130" s="22"/>
       <c r="L130" s="18"/>
       <c r="M130" s="19"/>
     </row>
-    <row r="131" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J131" s="21"/>
       <c r="K131" s="22"/>
       <c r="L131" s="18"/>
       <c r="M131" s="19"/>
     </row>
-    <row r="132" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J132" s="21"/>
       <c r="K132" s="22"/>
       <c r="L132" s="18"/>
       <c r="M132" s="19"/>
     </row>
-    <row r="133" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J133" s="21"/>
       <c r="K133" s="22"/>
       <c r="L133" s="18"/>
       <c r="M133" s="19"/>
     </row>
-    <row r="134" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J134" s="21"/>
       <c r="K134" s="22"/>
       <c r="L134" s="18"/>
       <c r="M134" s="19"/>
     </row>
-    <row r="135" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J135" s="21"/>
       <c r="K135" s="22"/>
       <c r="L135" s="18"/>
       <c r="M135" s="19"/>
     </row>
-    <row r="136" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J136" s="21"/>
       <c r="K136" s="22"/>
       <c r="L136" s="18"/>
       <c r="M136" s="19"/>
     </row>
-    <row r="137" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J137" s="21"/>
       <c r="K137" s="22"/>
       <c r="L137" s="18"/>
       <c r="M137" s="19"/>
     </row>
-    <row r="138" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J138" s="21"/>
       <c r="K138" s="22"/>
       <c r="L138" s="18"/>
       <c r="M138" s="19"/>
     </row>
-    <row r="139" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J139" s="21"/>
       <c r="K139" s="22"/>
       <c r="L139" s="18"/>
       <c r="M139" s="19"/>
     </row>
-    <row r="140" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J140" s="21"/>
       <c r="K140" s="22"/>
       <c r="L140" s="18"/>
       <c r="M140" s="19"/>
     </row>
-    <row r="141" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J141" s="21"/>
       <c r="K141" s="22"/>
       <c r="L141" s="18"/>
       <c r="M141" s="19"/>
     </row>
-    <row r="142" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J142" s="21"/>
       <c r="K142" s="22"/>
       <c r="L142" s="18"/>
       <c r="M142" s="19"/>
     </row>
-    <row r="143" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J143" s="21"/>
       <c r="K143" s="22"/>
       <c r="L143" s="18"/>
       <c r="M143" s="19"/>
     </row>
-    <row r="144" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J144" s="21"/>
       <c r="K144" s="22"/>
       <c r="L144" s="18"/>
       <c r="M144" s="19"/>
     </row>
-    <row r="145" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J145" s="21"/>
       <c r="K145" s="22"/>
       <c r="L145" s="18"/>
       <c r="M145" s="19"/>
     </row>
-    <row r="146" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J146" s="21"/>
       <c r="K146" s="22"/>
       <c r="L146" s="18"/>
       <c r="M146" s="19"/>
     </row>
-    <row r="147" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J147" s="21"/>
       <c r="K147" s="22"/>
       <c r="L147" s="18"/>
       <c r="M147" s="19"/>
     </row>
-    <row r="148" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J148" s="21"/>
       <c r="K148" s="22"/>
       <c r="L148" s="18"/>
       <c r="M148" s="19"/>
     </row>
-    <row r="149" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J149" s="21"/>
       <c r="K149" s="22"/>
       <c r="L149" s="18"/>
       <c r="M149" s="19"/>
     </row>
-    <row r="150" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J150" s="21"/>
       <c r="K150" s="22"/>
       <c r="L150" s="18"/>
       <c r="M150" s="19"/>
     </row>
-    <row r="151" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J151" s="21"/>
       <c r="K151" s="22"/>
       <c r="L151" s="18"/>
       <c r="M151" s="19"/>
     </row>
-    <row r="152" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J152" s="21"/>
       <c r="K152" s="22"/>
       <c r="L152" s="18"/>
       <c r="M152" s="19"/>
     </row>
-    <row r="153" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J153" s="21"/>
       <c r="K153" s="22"/>
       <c r="L153" s="18"/>
       <c r="M153" s="19"/>
     </row>
-    <row r="154" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J154" s="21"/>
       <c r="K154" s="22"/>
       <c r="L154" s="18"/>
       <c r="M154" s="19"/>
     </row>
-    <row r="155" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J155" s="21"/>
       <c r="K155" s="22"/>
       <c r="L155" s="18"/>
       <c r="M155" s="19"/>
     </row>
-    <row r="156" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J156" s="21"/>
       <c r="K156" s="22"/>
       <c r="L156" s="18"/>
       <c r="M156" s="19"/>
     </row>
-    <row r="157" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J157" s="21"/>
       <c r="K157" s="22"/>
       <c r="L157" s="18"/>
       <c r="M157" s="19"/>
     </row>
-    <row r="158" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J158" s="21"/>
       <c r="K158" s="22"/>
       <c r="L158" s="18"/>
       <c r="M158" s="19"/>
     </row>
-    <row r="159" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J159" s="21"/>
       <c r="K159" s="22"/>
       <c r="L159" s="18"/>
       <c r="M159" s="19"/>
     </row>
-    <row r="160" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J160" s="21"/>
       <c r="K160" s="22"/>
       <c r="L160" s="18"/>
       <c r="M160" s="19"/>
     </row>
-    <row r="161" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J161" s="21"/>
       <c r="K161" s="22"/>
       <c r="L161" s="18"/>
       <c r="M161" s="19"/>
     </row>
-    <row r="162" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J162" s="21"/>
       <c r="K162" s="22"/>
       <c r="L162" s="18"/>
       <c r="M162" s="19"/>
     </row>
-    <row r="163" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J163" s="21"/>
       <c r="K163" s="22"/>
       <c r="L163" s="18"/>
       <c r="M163" s="19"/>
     </row>
-    <row r="164" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J164" s="21"/>
       <c r="K164" s="22"/>
       <c r="L164" s="18"/>
       <c r="M164" s="19"/>
     </row>
-    <row r="165" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J165" s="21"/>
       <c r="K165" s="22"/>
       <c r="L165" s="18"/>
       <c r="M165" s="19"/>
     </row>
-    <row r="166" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J166" s="21"/>
       <c r="K166" s="22"/>
       <c r="L166" s="18"/>
       <c r="M166" s="19"/>
     </row>
-    <row r="167" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J167" s="21"/>
       <c r="K167" s="22"/>
       <c r="L167" s="18"/>
       <c r="M167" s="19"/>
     </row>
-    <row r="168" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J168" s="21"/>
       <c r="K168" s="22"/>
       <c r="L168" s="18"/>
       <c r="M168" s="19"/>
     </row>
-    <row r="169" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J169" s="21"/>
       <c r="K169" s="22"/>
       <c r="L169" s="18"/>
       <c r="M169" s="19"/>
     </row>
-    <row r="170" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J170" s="21"/>
       <c r="K170" s="22"/>
       <c r="L170" s="18"/>
       <c r="M170" s="19"/>
     </row>
-    <row r="171" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J171" s="21"/>
       <c r="K171" s="22"/>
       <c r="L171" s="18"/>
       <c r="M171" s="19"/>
     </row>
-    <row r="172" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J172" s="21"/>
       <c r="K172" s="22"/>
       <c r="L172" s="18"/>
       <c r="M172" s="19"/>
     </row>
-    <row r="173" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J173" s="21"/>
       <c r="K173" s="22"/>
       <c r="L173" s="18"/>
       <c r="M173" s="19"/>
     </row>
-    <row r="174" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J174" s="21"/>
       <c r="K174" s="22"/>
       <c r="L174" s="18"/>
       <c r="M174" s="19"/>
     </row>
-    <row r="175" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J175" s="21"/>
       <c r="K175" s="22"/>
       <c r="L175" s="18"/>
       <c r="M175" s="19"/>
     </row>
-    <row r="176" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J176" s="21"/>
       <c r="K176" s="22"/>
       <c r="L176" s="18"/>
       <c r="M176" s="19"/>
     </row>
-    <row r="177" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J177" s="21"/>
       <c r="K177" s="22"/>
       <c r="L177" s="18"/>
       <c r="M177" s="19"/>
     </row>
-    <row r="178" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J178" s="21"/>
       <c r="K178" s="22"/>
       <c r="L178" s="18"/>
       <c r="M178" s="19"/>
     </row>
-    <row r="179" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J179" s="21"/>
       <c r="K179" s="22"/>
       <c r="L179" s="18"/>
       <c r="M179" s="19"/>
     </row>
-    <row r="180" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J180" s="21"/>
       <c r="K180" s="22"/>
       <c r="L180" s="18"/>
       <c r="M180" s="19"/>
     </row>
-    <row r="181" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J181" s="21"/>
       <c r="K181" s="22"/>
       <c r="L181" s="18"/>
       <c r="M181" s="19"/>
     </row>
-    <row r="182" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J182" s="21"/>
       <c r="K182" s="22"/>
       <c r="L182" s="18"/>
       <c r="M182" s="19"/>
     </row>
-    <row r="183" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J183" s="21"/>
       <c r="K183" s="22"/>
       <c r="L183" s="18"/>
       <c r="M183" s="19"/>
     </row>
-    <row r="184" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J184" s="21"/>
       <c r="K184" s="22"/>
       <c r="L184" s="18"/>
       <c r="M184" s="19"/>
     </row>
-    <row r="185" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J185" s="21"/>
       <c r="K185" s="22"/>
       <c r="L185" s="18"/>
       <c r="M185" s="19"/>
     </row>
-    <row r="186" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J186" s="21"/>
       <c r="K186" s="22"/>
       <c r="L186" s="18"/>
       <c r="M186" s="19"/>
     </row>
-    <row r="187" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J187" s="21"/>
       <c r="K187" s="22"/>
       <c r="L187" s="18"/>
       <c r="M187" s="19"/>
     </row>
-    <row r="188" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J188" s="21"/>
       <c r="K188" s="22"/>
       <c r="L188" s="18"/>
       <c r="M188" s="19"/>
     </row>
-    <row r="189" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J189" s="21"/>
       <c r="K189" s="22"/>
       <c r="L189" s="18"/>
       <c r="M189" s="19"/>
     </row>
-    <row r="190" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J190" s="21"/>
       <c r="K190" s="22"/>
       <c r="L190" s="18"/>
       <c r="M190" s="19"/>
     </row>
-    <row r="191" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J191" s="21"/>
       <c r="K191" s="22"/>
       <c r="L191" s="18"/>
       <c r="M191" s="19"/>
     </row>
-    <row r="192" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J192" s="21"/>
       <c r="K192" s="22"/>
       <c r="L192" s="18"/>
       <c r="M192" s="19"/>
     </row>
-    <row r="193" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J193" s="21"/>
       <c r="K193" s="22"/>
       <c r="L193" s="18"/>
       <c r="M193" s="19"/>
     </row>
-    <row r="194" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J194" s="21"/>
       <c r="K194" s="22"/>
       <c r="L194" s="18"/>
       <c r="M194" s="19"/>
     </row>
-    <row r="195" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J195" s="21"/>
       <c r="K195" s="22"/>
       <c r="L195" s="18"/>
       <c r="M195" s="19"/>
     </row>
-    <row r="196" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J196" s="21"/>
       <c r="K196" s="22"/>
       <c r="L196" s="18"/>
       <c r="M196" s="19"/>
     </row>
-    <row r="197" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J197" s="21"/>
       <c r="K197" s="22"/>
       <c r="L197" s="18"/>
       <c r="M197" s="19"/>
     </row>
-    <row r="198" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J198" s="21"/>
       <c r="K198" s="22"/>
       <c r="L198" s="18"/>
       <c r="M198" s="19"/>
     </row>
-    <row r="199" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J199" s="21"/>
       <c r="K199" s="22"/>
       <c r="L199" s="18"/>
       <c r="M199" s="19"/>
     </row>
-    <row r="200" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J200" s="21"/>
       <c r="K200" s="22"/>
       <c r="L200" s="18"/>
       <c r="M200" s="19"/>
     </row>
-    <row r="201" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J201" s="21"/>
       <c r="K201" s="22"/>
       <c r="L201" s="18"/>
       <c r="M201" s="19"/>
     </row>
-    <row r="202" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J202" s="21"/>
       <c r="K202" s="22"/>
       <c r="L202" s="18"/>
       <c r="M202" s="19"/>
     </row>
-    <row r="203" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J203" s="21"/>
       <c r="K203" s="22"/>
       <c r="L203" s="18"/>
       <c r="M203" s="19"/>
     </row>
-    <row r="204" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J204" s="21"/>
       <c r="K204" s="22"/>
       <c r="L204" s="18"/>
       <c r="M204" s="19"/>
     </row>
-    <row r="205" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J205" s="21"/>
       <c r="K205" s="22"/>
       <c r="L205" s="18"/>
       <c r="M205" s="19"/>
     </row>
-    <row r="206" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J206" s="21"/>
       <c r="K206" s="22"/>
       <c r="L206" s="18"/>
       <c r="M206" s="19"/>
     </row>
-    <row r="207" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J207" s="21"/>
       <c r="K207" s="22"/>
       <c r="L207" s="18"/>
       <c r="M207" s="19"/>
     </row>
-    <row r="208" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J208" s="21"/>
       <c r="K208" s="22"/>
       <c r="L208" s="18"/>
       <c r="M208" s="19"/>
     </row>
-    <row r="209" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J209" s="21"/>
       <c r="K209" s="22"/>
       <c r="L209" s="18"/>
       <c r="M209" s="19"/>
     </row>
-    <row r="210" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J210" s="21"/>
       <c r="K210" s="22"/>
       <c r="L210" s="18"/>
       <c r="M210" s="19"/>
     </row>
-    <row r="211" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J211" s="21"/>
       <c r="K211" s="22"/>
       <c r="L211" s="18"/>
       <c r="M211" s="19"/>
     </row>
-    <row r="212" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J212" s="21"/>
       <c r="K212" s="22"/>
       <c r="L212" s="18"/>
       <c r="M212" s="19"/>
     </row>
-    <row r="213" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J213" s="21"/>
       <c r="K213" s="22"/>
       <c r="L213" s="18"/>
       <c r="M213" s="19"/>
     </row>
-    <row r="214" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J214" s="21"/>
       <c r="K214" s="22"/>
       <c r="L214" s="18"/>
       <c r="M214" s="19"/>
     </row>
-    <row r="215" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J215" s="21"/>
       <c r="K215" s="22"/>
       <c r="L215" s="18"/>
       <c r="M215" s="19"/>
     </row>
-    <row r="216" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J216" s="21"/>
       <c r="K216" s="22"/>
       <c r="L216" s="18"/>
       <c r="M216" s="19"/>
     </row>
-    <row r="217" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J217" s="21"/>
       <c r="K217" s="22"/>
       <c r="L217" s="18"/>
       <c r="M217" s="19"/>
     </row>
-    <row r="218" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J218" s="21"/>
       <c r="K218" s="22"/>
       <c r="L218" s="18"/>
       <c r="M218" s="19"/>
     </row>
-    <row r="219" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J219" s="21"/>
       <c r="K219" s="22"/>
       <c r="L219" s="18"/>
       <c r="M219" s="19"/>
     </row>
-    <row r="220" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J220" s="21"/>
       <c r="K220" s="22"/>
       <c r="L220" s="18"/>
       <c r="M220" s="19"/>
     </row>
-    <row r="221" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J221" s="21"/>
       <c r="K221" s="22"/>
       <c r="L221" s="18"/>
       <c r="M221" s="19"/>
     </row>
-    <row r="222" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J222" s="21"/>
       <c r="K222" s="22"/>
       <c r="L222" s="18"/>
       <c r="M222" s="19"/>
     </row>
-    <row r="223" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J223" s="21"/>
       <c r="K223" s="22"/>
       <c r="L223" s="18"/>
       <c r="M223" s="19"/>
     </row>
-    <row r="224" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J224" s="21"/>
       <c r="K224" s="22"/>
       <c r="L224" s="18"/>
       <c r="M224" s="19"/>
     </row>
-    <row r="225" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J225" s="21"/>
       <c r="K225" s="22"/>
       <c r="L225" s="18"/>
       <c r="M225" s="19"/>
     </row>
-    <row r="226" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J226" s="21"/>
       <c r="K226" s="22"/>
       <c r="L226" s="18"/>
       <c r="M226" s="19"/>
     </row>
-    <row r="227" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J227" s="21"/>
       <c r="K227" s="22"/>
       <c r="L227" s="18"/>
       <c r="M227" s="19"/>
     </row>
-    <row r="228" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J228" s="21"/>
       <c r="K228" s="22"/>
       <c r="L228" s="18"/>
       <c r="M228" s="19"/>
     </row>
-    <row r="229" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J229" s="21"/>
       <c r="K229" s="22"/>
       <c r="L229" s="18"/>
       <c r="M229" s="19"/>
     </row>
-    <row r="230" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J230" s="21"/>
       <c r="K230" s="22"/>
       <c r="L230" s="18"/>
       <c r="M230" s="19"/>
     </row>
-    <row r="231" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J231" s="21"/>
       <c r="K231" s="22"/>
       <c r="L231" s="18"/>
       <c r="M231" s="19"/>
     </row>
-    <row r="232" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J232" s="21"/>
       <c r="K232" s="22"/>
       <c r="L232" s="18"/>
       <c r="M232" s="19"/>
     </row>
-    <row r="233" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J233" s="21"/>
       <c r="K233" s="22"/>
       <c r="L233" s="18"/>
       <c r="M233" s="19"/>
     </row>
-    <row r="234" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J234" s="21"/>
       <c r="K234" s="22"/>
       <c r="L234" s="18"/>
       <c r="M234" s="19"/>
     </row>
-    <row r="235" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J235" s="21"/>
       <c r="K235" s="22"/>
       <c r="L235" s="18"/>
       <c r="M235" s="19"/>
     </row>
-    <row r="236" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J236" s="21"/>
       <c r="K236" s="22"/>
       <c r="L236" s="18"/>
       <c r="M236" s="19"/>
     </row>
-    <row r="237" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J237" s="21"/>
       <c r="K237" s="22"/>
       <c r="L237" s="18"/>
       <c r="M237" s="19"/>
     </row>
-    <row r="238" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J238" s="21"/>
       <c r="K238" s="22"/>
       <c r="L238" s="18"/>
       <c r="M238" s="19"/>
     </row>
-    <row r="239" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J239" s="21"/>
       <c r="K239" s="22"/>
       <c r="L239" s="18"/>
       <c r="M239" s="19"/>
     </row>
-    <row r="240" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J240" s="21"/>
       <c r="K240" s="22"/>
       <c r="L240" s="18"/>
       <c r="M240" s="19"/>
     </row>
-    <row r="241" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J241" s="21"/>
       <c r="K241" s="22"/>
       <c r="L241" s="18"/>
       <c r="M241" s="19"/>
     </row>
-    <row r="242" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J242" s="21"/>
       <c r="K242" s="22"/>
       <c r="L242" s="18"/>
       <c r="M242" s="19"/>
     </row>
-    <row r="243" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J243" s="21"/>
       <c r="K243" s="22"/>
       <c r="L243" s="18"/>
       <c r="M243" s="19"/>
     </row>
-    <row r="244" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J244" s="21"/>
       <c r="K244" s="22"/>
       <c r="L244" s="18"/>
       <c r="M244" s="19"/>
     </row>
-    <row r="245" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J245" s="21"/>
       <c r="K245" s="22"/>
       <c r="L245" s="18"/>
       <c r="M245" s="19"/>
     </row>
-    <row r="246" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J246" s="21"/>
       <c r="K246" s="22"/>
       <c r="L246" s="18"/>
       <c r="M246" s="19"/>
     </row>
-    <row r="247" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J247" s="21"/>
       <c r="K247" s="22"/>
       <c r="L247" s="18"/>
       <c r="M247" s="19"/>
     </row>
-    <row r="248" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J248" s="21"/>
       <c r="K248" s="22"/>
       <c r="L248" s="18"/>
       <c r="M248" s="19"/>
     </row>
-    <row r="249" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J249" s="21"/>
       <c r="K249" s="22"/>
       <c r="L249" s="18"/>
       <c r="M249" s="19"/>
     </row>
-    <row r="250" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J250" s="21"/>
       <c r="K250" s="22"/>
       <c r="L250" s="18"/>
       <c r="M250" s="19"/>
     </row>
-    <row r="251" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J251" s="21"/>
       <c r="K251" s="22"/>
       <c r="L251" s="18"/>
       <c r="M251" s="19"/>
     </row>
-    <row r="252" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J252" s="21"/>
       <c r="K252" s="22"/>
       <c r="L252" s="18"/>
       <c r="M252" s="19"/>
     </row>
-    <row r="253" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J253" s="21"/>
       <c r="K253" s="22"/>
       <c r="L253" s="18"/>
       <c r="M253" s="19"/>
     </row>
-    <row r="254" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J254" s="21"/>
       <c r="K254" s="22"/>
       <c r="L254" s="18"/>
       <c r="M254" s="19"/>
     </row>
-    <row r="255" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J255" s="21"/>
       <c r="K255" s="22"/>
       <c r="L255" s="18"/>
       <c r="M255" s="19"/>
     </row>
-    <row r="256" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J256" s="21"/>
       <c r="K256" s="22"/>
       <c r="L256" s="18"/>
       <c r="M256" s="19"/>
     </row>
-    <row r="257" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J257" s="21"/>
       <c r="K257" s="22"/>
       <c r="L257" s="18"/>
       <c r="M257" s="19"/>
     </row>
-    <row r="258" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J258" s="21"/>
       <c r="K258" s="22"/>
       <c r="L258" s="18"/>
       <c r="M258" s="19"/>
     </row>
-    <row r="259" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J259" s="21"/>
       <c r="K259" s="22"/>
       <c r="L259" s="18"/>
       <c r="M259" s="19"/>
     </row>
-    <row r="260" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J260" s="21"/>
       <c r="K260" s="22"/>
       <c r="L260" s="18"/>
       <c r="M260" s="19"/>
     </row>
-    <row r="261" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J261" s="21"/>
       <c r="K261" s="22"/>
       <c r="L261" s="18"/>
       <c r="M261" s="19"/>
     </row>
-    <row r="262" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J262" s="21"/>
       <c r="K262" s="22"/>
       <c r="L262" s="18"/>
       <c r="M262" s="19"/>
     </row>
-    <row r="263" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J263" s="21"/>
       <c r="K263" s="22"/>
       <c r="L263" s="18"/>
       <c r="M263" s="19"/>
     </row>
-    <row r="264" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J264" s="21"/>
       <c r="K264" s="22"/>
       <c r="L264" s="18"/>
       <c r="M264" s="19"/>
     </row>
-    <row r="265" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J265" s="21"/>
       <c r="K265" s="22"/>
       <c r="L265" s="18"/>
       <c r="M265" s="19"/>
     </row>
-    <row r="266" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J266" s="21"/>
       <c r="K266" s="22"/>
       <c r="L266" s="18"/>
       <c r="M266" s="19"/>
     </row>
-    <row r="267" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J267" s="21"/>
       <c r="K267" s="22"/>
       <c r="L267" s="18"/>
       <c r="M267" s="19"/>
     </row>
-    <row r="268" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J268" s="21"/>
       <c r="K268" s="22"/>
       <c r="L268" s="18"/>
       <c r="M268" s="19"/>
     </row>
-    <row r="269" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J269" s="21"/>
       <c r="K269" s="22"/>
       <c r="L269" s="18"/>
       <c r="M269" s="19"/>
     </row>
-    <row r="270" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J270" s="21"/>
       <c r="K270" s="22"/>
       <c r="L270" s="18"/>
       <c r="M270" s="19"/>
     </row>
-    <row r="271" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J271" s="21"/>
       <c r="K271" s="22"/>
       <c r="L271" s="18"/>
       <c r="M271" s="19"/>
     </row>
-    <row r="272" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J272" s="21"/>
       <c r="K272" s="22"/>
       <c r="L272" s="18"/>
       <c r="M272" s="19"/>
     </row>
-    <row r="273" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J273" s="21"/>
       <c r="K273" s="22"/>
       <c r="L273" s="18"/>
       <c r="M273" s="19"/>
     </row>
-    <row r="274" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J274" s="21"/>
       <c r="K274" s="22"/>
       <c r="L274" s="18"/>
       <c r="M274" s="19"/>
     </row>
-    <row r="275" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J275" s="21"/>
       <c r="K275" s="22"/>
       <c r="L275" s="18"/>
       <c r="M275" s="19"/>
     </row>
-    <row r="276" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J276" s="21"/>
       <c r="K276" s="22"/>
       <c r="L276" s="18"/>
       <c r="M276" s="19"/>
     </row>
-    <row r="277" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J277" s="21"/>
       <c r="K277" s="22"/>
       <c r="L277" s="18"/>
       <c r="M277" s="19"/>
     </row>
-    <row r="278" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J278" s="21"/>
       <c r="K278" s="22"/>
       <c r="L278" s="18"/>
       <c r="M278" s="19"/>
     </row>
-    <row r="279" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J279" s="21"/>
       <c r="K279" s="22"/>
       <c r="L279" s="18"/>
       <c r="M279" s="19"/>
     </row>
-    <row r="280" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J280" s="21"/>
       <c r="K280" s="22"/>
       <c r="L280" s="18"/>
       <c r="M280" s="19"/>
     </row>
-    <row r="281" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J281" s="21"/>
       <c r="K281" s="22"/>
       <c r="L281" s="18"/>
       <c r="M281" s="19"/>
     </row>
-    <row r="282" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J282" s="21"/>
       <c r="K282" s="22"/>
       <c r="L282" s="18"/>
       <c r="M282" s="19"/>
     </row>
-    <row r="283" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J283" s="21"/>
       <c r="K283" s="22"/>
       <c r="L283" s="18"/>
       <c r="M283" s="19"/>
     </row>
-    <row r="284" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J284" s="21"/>
       <c r="K284" s="22"/>
       <c r="L284" s="18"/>
       <c r="M284" s="19"/>
     </row>
-    <row r="285" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J285" s="21"/>
       <c r="K285" s="22"/>
       <c r="L285" s="18"/>
       <c r="M285" s="19"/>
     </row>
-    <row r="286" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J286" s="21"/>
       <c r="K286" s="22"/>
       <c r="L286" s="18"/>
       <c r="M286" s="19"/>
     </row>
-    <row r="287" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J287" s="21"/>
       <c r="K287" s="22"/>
       <c r="L287" s="18"/>
       <c r="M287" s="19"/>
     </row>
-    <row r="288" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J288" s="21"/>
       <c r="K288" s="22"/>
       <c r="L288" s="18"/>
       <c r="M288" s="19"/>
     </row>
-    <row r="289" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J289" s="21"/>
       <c r="K289" s="22"/>
       <c r="L289" s="18"/>
       <c r="M289" s="19"/>
     </row>
-    <row r="290" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J290" s="21"/>
       <c r="K290" s="22"/>
       <c r="L290" s="18"/>
       <c r="M290" s="19"/>
     </row>
-    <row r="291" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J291" s="21"/>
       <c r="K291" s="22"/>
       <c r="L291" s="18"/>
       <c r="M291" s="19"/>
     </row>
-    <row r="292" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J292" s="21"/>
       <c r="K292" s="22"/>
       <c r="L292" s="18"/>
       <c r="M292" s="19"/>
     </row>
-    <row r="293" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J293" s="21"/>
       <c r="K293" s="22"/>
       <c r="L293" s="18"/>
       <c r="M293" s="19"/>
     </row>
-    <row r="294" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J294" s="21"/>
       <c r="K294" s="22"/>
       <c r="L294" s="18"/>
       <c r="M294" s="19"/>
     </row>
-    <row r="295" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J295" s="21"/>
       <c r="K295" s="22"/>
       <c r="L295" s="18"/>
       <c r="M295" s="19"/>
     </row>
-    <row r="296" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J296" s="21"/>
       <c r="K296" s="22"/>
       <c r="L296" s="18"/>
       <c r="M296" s="19"/>
     </row>
-    <row r="297" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J297" s="21"/>
       <c r="K297" s="22"/>
       <c r="L297" s="18"/>
       <c r="M297" s="19"/>
     </row>
-    <row r="298" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J298" s="21"/>
       <c r="K298" s="22"/>
       <c r="L298" s="18"/>
       <c r="M298" s="19"/>
     </row>
-    <row r="299" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J299" s="21"/>
       <c r="K299" s="22"/>
       <c r="L299" s="18"/>
       <c r="M299" s="19"/>
     </row>
-    <row r="300" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J300" s="21"/>
       <c r="K300" s="22"/>
       <c r="L300" s="18"/>
       <c r="M300" s="19"/>
     </row>
-    <row r="301" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J301" s="21"/>
       <c r="K301" s="22"/>
       <c r="L301" s="18"/>
       <c r="M301" s="19"/>
     </row>
-    <row r="302" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="302" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J302" s="21"/>
       <c r="K302" s="22"/>
       <c r="L302" s="18"/>
       <c r="M302" s="19"/>
     </row>
-    <row r="303" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="303" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J303" s="21"/>
       <c r="K303" s="22"/>
       <c r="L303" s="18"/>
       <c r="M303" s="19"/>
     </row>
-    <row r="304" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="304" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J304" s="21"/>
       <c r="K304" s="22"/>
       <c r="L304" s="18"/>
       <c r="M304" s="19"/>
     </row>
-    <row r="305" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J305" s="21"/>
       <c r="K305" s="22"/>
       <c r="L305" s="18"/>
       <c r="M305" s="19"/>
     </row>
-    <row r="306" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J306" s="21"/>
       <c r="K306" s="22"/>
       <c r="L306" s="18"/>
       <c r="M306" s="19"/>
     </row>
-    <row r="307" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J307" s="21"/>
       <c r="K307" s="22"/>
       <c r="L307" s="18"/>
       <c r="M307" s="19"/>
     </row>
-    <row r="308" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J308" s="21"/>
       <c r="K308" s="22"/>
       <c r="L308" s="18"/>
       <c r="M308" s="19"/>
     </row>
-    <row r="309" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J309" s="21"/>
       <c r="K309" s="22"/>
       <c r="L309" s="18"/>
       <c r="M309" s="19"/>
     </row>
-    <row r="310" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J310" s="21"/>
       <c r="K310" s="22"/>
       <c r="L310" s="18"/>
       <c r="M310" s="19"/>
     </row>
-    <row r="311" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J311" s="21"/>
       <c r="K311" s="22"/>
       <c r="L311" s="18"/>
       <c r="M311" s="19"/>
     </row>
-    <row r="312" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J312" s="21"/>
       <c r="K312" s="22"/>
       <c r="L312" s="18"/>
       <c r="M312" s="19"/>
     </row>
-    <row r="313" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J313" s="21"/>
       <c r="K313" s="22"/>
       <c r="L313" s="18"/>
       <c r="M313" s="19"/>
     </row>
-    <row r="314" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J314" s="21"/>
       <c r="K314" s="22"/>
       <c r="L314" s="18"/>
       <c r="M314" s="19"/>
     </row>
-    <row r="315" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J315" s="21"/>
       <c r="K315" s="22"/>
       <c r="L315" s="18"/>
       <c r="M315" s="19"/>
     </row>
-    <row r="316" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J316" s="21"/>
       <c r="K316" s="22"/>
       <c r="L316" s="18"/>
       <c r="M316" s="19"/>
     </row>
-    <row r="317" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J317" s="21"/>
       <c r="K317" s="22"/>
       <c r="L317" s="18"/>
       <c r="M317" s="19"/>
     </row>
-    <row r="318" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J318" s="21"/>
       <c r="K318" s="22"/>
       <c r="L318" s="18"/>
       <c r="M318" s="19"/>
     </row>
-    <row r="319" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J319" s="21"/>
       <c r="K319" s="22"/>
       <c r="L319" s="18"/>
       <c r="M319" s="19"/>
     </row>
-    <row r="320" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J320" s="21"/>
       <c r="K320" s="22"/>
       <c r="L320" s="18"/>
       <c r="M320" s="19"/>
     </row>
-    <row r="321" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="321" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J321" s="21"/>
       <c r="K321" s="22"/>
       <c r="L321" s="18"/>
       <c r="M321" s="19"/>
     </row>
-    <row r="322" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="322" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J322" s="21"/>
       <c r="K322" s="22"/>
       <c r="L322" s="18"/>
       <c r="M322" s="19"/>
     </row>
-    <row r="323" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="323" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J323" s="21"/>
       <c r="K323" s="22"/>
       <c r="L323" s="18"/>
       <c r="M323" s="19"/>
     </row>
-    <row r="324" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="324" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J324" s="21"/>
       <c r="K324" s="22"/>
       <c r="L324" s="18"/>
       <c r="M324" s="19"/>
     </row>
-    <row r="325" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="325" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J325" s="21"/>
       <c r="K325" s="22"/>
       <c r="L325" s="18"/>
       <c r="M325" s="19"/>
     </row>
-    <row r="326" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J326" s="21"/>
       <c r="K326" s="22"/>
       <c r="L326" s="18"/>
       <c r="M326" s="19"/>
     </row>
-    <row r="327" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="327" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J327" s="21"/>
       <c r="K327" s="22"/>
       <c r="L327" s="18"/>
       <c r="M327" s="19"/>
     </row>
-    <row r="328" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="328" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J328" s="21"/>
       <c r="K328" s="22"/>
       <c r="L328" s="18"/>
       <c r="M328" s="19"/>
     </row>
-    <row r="329" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="329" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J329" s="21"/>
       <c r="K329" s="22"/>
       <c r="L329" s="18"/>
       <c r="M329" s="19"/>
     </row>
-    <row r="330" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="330" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J330" s="21"/>
       <c r="K330" s="22"/>
       <c r="L330" s="18"/>
       <c r="M330" s="19"/>
     </row>
-    <row r="331" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="331" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J331" s="21"/>
       <c r="K331" s="22"/>
       <c r="L331" s="18"/>
       <c r="M331" s="19"/>
     </row>
-    <row r="332" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J332" s="21"/>
       <c r="K332" s="22"/>
       <c r="L332" s="18"/>
       <c r="M332" s="19"/>
     </row>
-    <row r="333" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J333" s="21"/>
       <c r="K333" s="22"/>
       <c r="L333" s="18"/>
       <c r="M333" s="19"/>
     </row>
-    <row r="334" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J334" s="21"/>
       <c r="K334" s="22"/>
       <c r="L334" s="18"/>
       <c r="M334" s="19"/>
     </row>
-    <row r="335" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J335" s="21"/>
       <c r="K335" s="22"/>
       <c r="L335" s="18"/>
       <c r="M335" s="19"/>
     </row>
-    <row r="336" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J336" s="21"/>
       <c r="K336" s="22"/>
       <c r="L336" s="18"/>
       <c r="M336" s="19"/>
     </row>
-    <row r="337" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="337" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J337" s="21"/>
       <c r="K337" s="22"/>
       <c r="L337" s="18"/>
       <c r="M337" s="19"/>
     </row>
-    <row r="338" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="338" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J338" s="21"/>
       <c r="K338" s="22"/>
       <c r="L338" s="18"/>
       <c r="M338" s="19"/>
     </row>
-    <row r="339" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="339" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J339" s="21"/>
       <c r="K339" s="22"/>
       <c r="L339" s="18"/>
       <c r="M339" s="19"/>
     </row>
-    <row r="340" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="340" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J340" s="21"/>
       <c r="K340" s="22"/>
       <c r="L340" s="18"/>
       <c r="M340" s="19"/>
     </row>
-    <row r="341" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="341" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J341" s="21"/>
       <c r="K341" s="22"/>
       <c r="L341" s="18"/>
       <c r="M341" s="19"/>
     </row>
-    <row r="342" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="342" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J342" s="21"/>
       <c r="K342" s="22"/>
       <c r="L342" s="18"/>
       <c r="M342" s="19"/>
     </row>
-    <row r="343" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="343" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J343" s="21"/>
       <c r="K343" s="22"/>
       <c r="L343" s="18"/>
       <c r="M343" s="19"/>
     </row>
-    <row r="344" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="344" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J344" s="21"/>
       <c r="K344" s="22"/>
       <c r="L344" s="18"/>
       <c r="M344" s="19"/>
     </row>
-    <row r="345" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="345" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J345" s="21"/>
       <c r="K345" s="22"/>
       <c r="L345" s="18"/>
       <c r="M345" s="19"/>
     </row>
-    <row r="346" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="346" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J346" s="21"/>
       <c r="K346" s="22"/>
       <c r="L346" s="18"/>
       <c r="M346" s="19"/>
     </row>
-    <row r="347" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="347" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J347" s="21"/>
       <c r="K347" s="22"/>
       <c r="L347" s="18"/>
       <c r="M347" s="19"/>
     </row>
-    <row r="348" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="348" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J348" s="21"/>
       <c r="K348" s="22"/>
       <c r="L348" s="18"/>
       <c r="M348" s="19"/>
     </row>
-    <row r="349" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="349" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J349" s="21"/>
       <c r="K349" s="22"/>
       <c r="L349" s="18"/>
       <c r="M349" s="19"/>
     </row>
-    <row r="350" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="350" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J350" s="21"/>
       <c r="K350" s="22"/>
       <c r="L350" s="18"/>
       <c r="M350" s="19"/>
     </row>
-    <row r="351" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="351" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J351" s="21"/>
       <c r="K351" s="22"/>
       <c r="L351" s="18"/>
       <c r="M351" s="19"/>
     </row>
-    <row r="352" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="352" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J352" s="21"/>
       <c r="K352" s="22"/>
       <c r="L352" s="18"/>
       <c r="M352" s="19"/>
     </row>
-    <row r="353" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="353" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J353" s="21"/>
       <c r="K353" s="22"/>
       <c r="L353" s="18"/>
       <c r="M353" s="19"/>
     </row>
-    <row r="354" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="354" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J354" s="21"/>
       <c r="K354" s="22"/>
       <c r="L354" s="18"/>
       <c r="M354" s="19"/>
     </row>
-    <row r="355" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="355" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J355" s="21"/>
       <c r="K355" s="22"/>
       <c r="L355" s="18"/>
       <c r="M355" s="19"/>
     </row>
-    <row r="356" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="356" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J356" s="21"/>
       <c r="K356" s="22"/>
       <c r="L356" s="18"/>
       <c r="M356" s="19"/>
     </row>
-    <row r="357" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="357" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J357" s="21"/>
       <c r="K357" s="22"/>
       <c r="L357" s="18"/>
       <c r="M357" s="19"/>
     </row>
-    <row r="358" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="358" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J358" s="21"/>
       <c r="K358" s="22"/>
       <c r="L358" s="18"/>
       <c r="M358" s="19"/>
     </row>
-    <row r="359" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="359" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J359" s="21"/>
       <c r="K359" s="22"/>
       <c r="L359" s="18"/>
       <c r="M359" s="19"/>
     </row>
-    <row r="360" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="360" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J360" s="21"/>
       <c r="K360" s="22"/>
       <c r="L360" s="18"/>
       <c r="M360" s="19"/>
     </row>
-    <row r="361" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="361" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J361" s="21"/>
       <c r="K361" s="22"/>
       <c r="L361" s="18"/>
       <c r="M361" s="19"/>
     </row>
-    <row r="362" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="362" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J362" s="21"/>
       <c r="K362" s="22"/>
       <c r="L362" s="18"/>
       <c r="M362" s="19"/>
     </row>
-    <row r="363" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="363" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J363" s="21"/>
       <c r="K363" s="22"/>
       <c r="L363" s="18"/>
       <c r="M363" s="19"/>
     </row>
-    <row r="364" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="364" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J364" s="21"/>
       <c r="K364" s="22"/>
       <c r="L364" s="18"/>
       <c r="M364" s="19"/>
     </row>
-    <row r="365" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="365" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J365" s="21"/>
       <c r="K365" s="22"/>
       <c r="L365" s="18"/>
       <c r="M365" s="19"/>
     </row>
-    <row r="366" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="366" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J366" s="21"/>
       <c r="K366" s="22"/>
       <c r="L366" s="18"/>
       <c r="M366" s="19"/>
     </row>
-    <row r="367" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="367" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J367" s="21"/>
       <c r="K367" s="22"/>
       <c r="L367" s="18"/>
       <c r="M367" s="19"/>
     </row>
-    <row r="368" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="368" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J368" s="21"/>
       <c r="K368" s="22"/>
       <c r="L368" s="18"/>
       <c r="M368" s="19"/>
     </row>
-    <row r="369" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="369" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J369" s="21"/>
       <c r="K369" s="22"/>
       <c r="L369" s="18"/>
       <c r="M369" s="19"/>
     </row>
-    <row r="370" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="370" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J370" s="21"/>
       <c r="K370" s="22"/>
       <c r="L370" s="18"/>
       <c r="M370" s="19"/>
     </row>
-    <row r="371" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="371" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J371" s="21"/>
       <c r="K371" s="22"/>
       <c r="L371" s="18"/>
       <c r="M371" s="19"/>
     </row>
-    <row r="372" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="372" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J372" s="21"/>
       <c r="K372" s="22"/>
       <c r="L372" s="18"/>
       <c r="M372" s="19"/>
     </row>
-    <row r="373" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="373" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J373" s="21"/>
       <c r="K373" s="22"/>
       <c r="L373" s="18"/>
       <c r="M373" s="19"/>
     </row>
-    <row r="374" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="374" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J374" s="21"/>
       <c r="K374" s="22"/>
       <c r="L374" s="18"/>
       <c r="M374" s="19"/>
     </row>
-    <row r="375" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="375" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J375" s="21"/>
       <c r="K375" s="22"/>
       <c r="L375" s="18"/>
       <c r="M375" s="19"/>
     </row>
-    <row r="376" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="376" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J376" s="21"/>
       <c r="K376" s="22"/>
       <c r="L376" s="18"/>
       <c r="M376" s="19"/>
     </row>
-    <row r="377" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="377" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J377" s="21"/>
       <c r="K377" s="22"/>
       <c r="L377" s="18"/>
       <c r="M377" s="19"/>
     </row>
-    <row r="378" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="378" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J378" s="21"/>
       <c r="K378" s="22"/>
       <c r="L378" s="18"/>
       <c r="M378" s="19"/>
     </row>
-    <row r="379" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="379" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J379" s="21"/>
       <c r="K379" s="22"/>
       <c r="L379" s="18"/>
       <c r="M379" s="19"/>
     </row>
-    <row r="380" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="380" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J380" s="21"/>
       <c r="K380" s="22"/>
       <c r="L380" s="18"/>
       <c r="M380" s="19"/>
     </row>
-    <row r="381" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="381" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J381" s="21"/>
       <c r="K381" s="22"/>
       <c r="L381" s="18"/>
       <c r="M381" s="19"/>
     </row>
-    <row r="382" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="382" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J382" s="21"/>
       <c r="K382" s="22"/>
       <c r="L382" s="18"/>
       <c r="M382" s="19"/>
     </row>
-    <row r="383" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="383" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J383" s="21"/>
       <c r="K383" s="22"/>
       <c r="L383" s="18"/>
       <c r="M383" s="19"/>
     </row>
-    <row r="384" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="384" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J384" s="21"/>
       <c r="K384" s="22"/>
       <c r="L384" s="18"/>
       <c r="M384" s="19"/>
     </row>
-    <row r="385" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="385" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J385" s="21"/>
       <c r="K385" s="22"/>
       <c r="L385" s="18"/>
       <c r="M385" s="19"/>
     </row>
-    <row r="386" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="386" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J386" s="21"/>
       <c r="K386" s="22"/>
       <c r="L386" s="18"/>
       <c r="M386" s="19"/>
     </row>
-    <row r="387" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="387" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J387" s="21"/>
       <c r="K387" s="22"/>
       <c r="L387" s="18"/>
       <c r="M387" s="19"/>
     </row>
-    <row r="388" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="388" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J388" s="21"/>
       <c r="K388" s="22"/>
       <c r="L388" s="18"/>
       <c r="M388" s="19"/>
     </row>
-    <row r="389" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="389" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J389" s="21"/>
       <c r="K389" s="22"/>
       <c r="L389" s="18"/>
       <c r="M389" s="19"/>
     </row>
-    <row r="390" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="390" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J390" s="21"/>
       <c r="K390" s="22"/>
       <c r="L390" s="18"/>
       <c r="M390" s="19"/>
     </row>
-    <row r="391" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="391" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J391" s="21"/>
       <c r="K391" s="22"/>
       <c r="L391" s="18"/>
       <c r="M391" s="19"/>
     </row>
-    <row r="392" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="392" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J392" s="21"/>
       <c r="K392" s="22"/>
       <c r="L392" s="18"/>
       <c r="M392" s="19"/>
     </row>
-    <row r="393" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="393" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J393" s="21"/>
       <c r="K393" s="22"/>
       <c r="L393" s="18"/>
       <c r="M393" s="19"/>
     </row>
-    <row r="394" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="394" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J394" s="21"/>
       <c r="K394" s="22"/>
       <c r="L394" s="18"/>
       <c r="M394" s="19"/>
     </row>
-    <row r="395" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="395" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J395" s="21"/>
       <c r="K395" s="22"/>
       <c r="L395" s="18"/>
       <c r="M395" s="19"/>
     </row>
-    <row r="396" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="396" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J396" s="21"/>
       <c r="K396" s="22"/>
       <c r="L396" s="18"/>
       <c r="M396" s="19"/>
     </row>
-    <row r="397" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="397" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J397" s="21"/>
       <c r="K397" s="22"/>
       <c r="L397" s="18"/>
       <c r="M397" s="19"/>
     </row>
-    <row r="398" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="398" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J398" s="21"/>
       <c r="K398" s="22"/>
       <c r="L398" s="18"/>
       <c r="M398" s="19"/>
     </row>
-    <row r="399" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="399" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J399" s="21"/>
       <c r="K399" s="22"/>
       <c r="L399" s="18"/>
       <c r="M399" s="19"/>
     </row>
-    <row r="400" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="400" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J400" s="21"/>
       <c r="K400" s="22"/>
       <c r="L400" s="18"/>
       <c r="M400" s="19"/>
     </row>
-    <row r="401" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="401" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J401" s="21"/>
       <c r="K401" s="22"/>
       <c r="L401" s="18"/>
       <c r="M401" s="19"/>
     </row>
-    <row r="402" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="402" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J402" s="21"/>
       <c r="K402" s="22"/>
       <c r="L402" s="18"/>
       <c r="M402" s="19"/>
     </row>
-    <row r="403" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="403" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J403" s="21"/>
       <c r="K403" s="22"/>
       <c r="L403" s="18"/>
       <c r="M403" s="19"/>
     </row>
-    <row r="404" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="404" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J404" s="21"/>
       <c r="K404" s="22"/>
       <c r="L404" s="18"/>
       <c r="M404" s="19"/>
     </row>
-    <row r="405" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="405" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J405" s="21"/>
       <c r="K405" s="22"/>
       <c r="L405" s="18"/>
       <c r="M405" s="19"/>
     </row>
-    <row r="406" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="406" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J406" s="21"/>
       <c r="K406" s="22"/>
       <c r="L406" s="18"/>
       <c r="M406" s="19"/>
     </row>
-    <row r="407" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="407" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J407" s="21"/>
       <c r="K407" s="22"/>
       <c r="L407" s="18"/>
       <c r="M407" s="19"/>
     </row>
-    <row r="408" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="408" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J408" s="21"/>
       <c r="K408" s="22"/>
       <c r="L408" s="18"/>
       <c r="M408" s="19"/>
     </row>
-    <row r="409" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="409" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J409" s="21"/>
       <c r="K409" s="22"/>
       <c r="L409" s="18"/>
       <c r="M409" s="19"/>
     </row>
-    <row r="410" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="410" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J410" s="21"/>
       <c r="K410" s="22"/>
       <c r="L410" s="18"/>
       <c r="M410" s="19"/>
     </row>
-    <row r="411" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="411" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J411" s="21"/>
       <c r="K411" s="22"/>
       <c r="L411" s="18"/>
       <c r="M411" s="19"/>
     </row>
-    <row r="412" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="412" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J412" s="21"/>
       <c r="K412" s="22"/>
       <c r="L412" s="18"/>
       <c r="M412" s="19"/>
     </row>
-    <row r="413" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="413" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J413" s="21"/>
       <c r="K413" s="22"/>
       <c r="L413" s="18"/>
       <c r="M413" s="19"/>
     </row>
-    <row r="414" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="414" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J414" s="21"/>
       <c r="K414" s="22"/>
       <c r="L414" s="18"/>
       <c r="M414" s="19"/>
     </row>
-    <row r="415" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="415" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J415" s="21"/>
       <c r="K415" s="22"/>
       <c r="L415" s="18"/>
       <c r="M415" s="19"/>
     </row>
-    <row r="416" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="416" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J416" s="21"/>
       <c r="K416" s="22"/>
       <c r="L416" s="18"/>
       <c r="M416" s="19"/>
     </row>
-    <row r="417" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="417" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J417" s="21"/>
       <c r="K417" s="22"/>
       <c r="L417" s="18"/>
       <c r="M417" s="19"/>
     </row>
-    <row r="418" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="418" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J418" s="21"/>
       <c r="K418" s="22"/>
       <c r="L418" s="18"/>
       <c r="M418" s="19"/>
     </row>
-    <row r="419" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="419" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J419" s="21"/>
       <c r="K419" s="22"/>
       <c r="L419" s="18"/>
       <c r="M419" s="19"/>
     </row>
-    <row r="420" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="420" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J420" s="21"/>
       <c r="K420" s="22"/>
       <c r="L420" s="18"/>
       <c r="M420" s="19"/>
     </row>
-    <row r="421" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="421" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J421" s="21"/>
       <c r="K421" s="22"/>
       <c r="L421" s="18"/>
       <c r="M421" s="19"/>
     </row>
-    <row r="422" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="422" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J422" s="21"/>
       <c r="K422" s="22"/>
       <c r="L422" s="18"/>
       <c r="M422" s="19"/>
     </row>
-    <row r="423" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="423" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J423" s="21"/>
       <c r="K423" s="22"/>
       <c r="L423" s="18"/>
       <c r="M423" s="19"/>
     </row>
-    <row r="424" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="424" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J424" s="21"/>
       <c r="K424" s="22"/>
       <c r="L424" s="18"/>
       <c r="M424" s="19"/>
     </row>
-    <row r="425" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="425" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J425" s="21"/>
       <c r="K425" s="22"/>
       <c r="L425" s="18"/>
       <c r="M425" s="19"/>
     </row>
-    <row r="426" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="426" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J426" s="21"/>
       <c r="K426" s="22"/>
       <c r="L426" s="18"/>
       <c r="M426" s="19"/>
     </row>
-    <row r="427" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="427" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J427" s="21"/>
       <c r="K427" s="22"/>
       <c r="L427" s="18"/>
       <c r="M427" s="19"/>
     </row>
-    <row r="428" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="428" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J428" s="21"/>
       <c r="K428" s="22"/>
       <c r="L428" s="18"/>
       <c r="M428" s="19"/>
     </row>
-    <row r="429" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="429" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J429" s="21"/>
       <c r="K429" s="22"/>
       <c r="L429" s="18"/>
       <c r="M429" s="19"/>
     </row>
-    <row r="430" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="430" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J430" s="21"/>
       <c r="K430" s="22"/>
       <c r="L430" s="18"/>
       <c r="M430" s="19"/>
     </row>
-    <row r="431" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="431" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J431" s="21"/>
       <c r="K431" s="22"/>
       <c r="L431" s="18"/>
       <c r="M431" s="19"/>
     </row>
-    <row r="432" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="432" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J432" s="21"/>
       <c r="K432" s="22"/>
       <c r="L432" s="18"/>
       <c r="M432" s="19"/>
     </row>
-    <row r="433" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="433" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J433" s="21"/>
       <c r="K433" s="22"/>
       <c r="L433" s="18"/>
       <c r="M433" s="19"/>
     </row>
-    <row r="434" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="434" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J434" s="21"/>
       <c r="K434" s="22"/>
       <c r="L434" s="18"/>
       <c r="M434" s="19"/>
     </row>
-    <row r="435" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="435" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J435" s="21"/>
       <c r="K435" s="22"/>
       <c r="L435" s="18"/>
       <c r="M435" s="19"/>
     </row>
-    <row r="436" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="436" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J436" s="21"/>
       <c r="K436" s="22"/>
       <c r="L436" s="18"/>
       <c r="M436" s="19"/>
     </row>
-    <row r="437" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="437" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J437" s="21"/>
       <c r="K437" s="22"/>
       <c r="L437" s="18"/>
       <c r="M437" s="19"/>
     </row>
-    <row r="438" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="438" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J438" s="21"/>
       <c r="K438" s="22"/>
       <c r="L438" s="18"/>
       <c r="M438" s="19"/>
     </row>
-    <row r="439" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="439" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J439" s="21"/>
       <c r="K439" s="22"/>
       <c r="L439" s="18"/>
       <c r="M439" s="19"/>
     </row>
-    <row r="440" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="440" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J440" s="21"/>
       <c r="K440" s="22"/>
       <c r="L440" s="18"/>
       <c r="M440" s="19"/>
     </row>
-    <row r="441" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="441" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J441" s="21"/>
       <c r="K441" s="22"/>
       <c r="L441" s="18"/>
       <c r="M441" s="19"/>
     </row>
-    <row r="442" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="442" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J442" s="21"/>
       <c r="K442" s="22"/>
       <c r="L442" s="18"/>
       <c r="M442" s="19"/>
     </row>
-    <row r="443" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="443" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J443" s="21"/>
       <c r="K443" s="22"/>
       <c r="L443" s="18"/>
       <c r="M443" s="19"/>
     </row>
-    <row r="444" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="444" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J444" s="21"/>
       <c r="K444" s="22"/>
       <c r="L444" s="18"/>
       <c r="M444" s="19"/>
     </row>
-    <row r="445" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="445" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J445" s="21"/>
       <c r="K445" s="22"/>
       <c r="L445" s="18"/>
       <c r="M445" s="19"/>
     </row>
-    <row r="446" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="446" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J446" s="21"/>
       <c r="K446" s="22"/>
       <c r="L446" s="18"/>
       <c r="M446" s="19"/>
     </row>
-    <row r="447" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="447" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J447" s="21"/>
       <c r="K447" s="22"/>
       <c r="L447" s="18"/>
       <c r="M447" s="19"/>
     </row>
-    <row r="448" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="448" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J448" s="21"/>
       <c r="K448" s="22"/>
       <c r="L448" s="18"/>
       <c r="M448" s="19"/>
     </row>
-    <row r="449" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="449" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J449" s="21"/>
       <c r="K449" s="22"/>
       <c r="L449" s="18"/>
       <c r="M449" s="19"/>
     </row>
-    <row r="450" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="450" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J450" s="21"/>
       <c r="K450" s="22"/>
       <c r="L450" s="18"/>
       <c r="M450" s="19"/>
     </row>
-    <row r="451" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="451" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J451" s="21"/>
       <c r="K451" s="22"/>
       <c r="L451" s="18"/>
       <c r="M451" s="19"/>
     </row>
-    <row r="452" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="452" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J452" s="21"/>
       <c r="K452" s="22"/>
       <c r="L452" s="18"/>
       <c r="M452" s="19"/>
     </row>
-    <row r="453" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="453" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J453" s="21"/>
       <c r="K453" s="22"/>
       <c r="L453" s="18"/>
       <c r="M453" s="19"/>
     </row>
-    <row r="454" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="454" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J454" s="21"/>
       <c r="K454" s="22"/>
       <c r="L454" s="18"/>
       <c r="M454" s="19"/>
     </row>
-    <row r="455" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="455" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J455" s="21"/>
       <c r="K455" s="22"/>
       <c r="L455" s="18"/>
       <c r="M455" s="19"/>
     </row>
-    <row r="456" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="456" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J456" s="21"/>
       <c r="K456" s="22"/>
       <c r="L456" s="18"/>
       <c r="M456" s="19"/>
     </row>
-    <row r="457" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="457" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J457" s="21"/>
       <c r="K457" s="22"/>
       <c r="L457" s="18"/>
       <c r="M457" s="19"/>
     </row>
-    <row r="458" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="458" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J458" s="21"/>
       <c r="K458" s="22"/>
       <c r="L458" s="18"/>
       <c r="M458" s="19"/>
     </row>
-    <row r="459" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="459" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J459" s="21"/>
       <c r="K459" s="22"/>
       <c r="L459" s="18"/>
       <c r="M459" s="19"/>
     </row>
-    <row r="460" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="460" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J460" s="21"/>
       <c r="K460" s="22"/>
       <c r="L460" s="18"/>
       <c r="M460" s="19"/>
     </row>
-    <row r="461" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="461" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J461" s="21"/>
       <c r="K461" s="22"/>
       <c r="L461" s="18"/>
       <c r="M461" s="19"/>
     </row>
-    <row r="462" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="462" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J462" s="21"/>
       <c r="K462" s="22"/>
       <c r="L462" s="18"/>
       <c r="M462" s="19"/>
     </row>
-    <row r="463" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="463" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J463" s="21"/>
       <c r="K463" s="22"/>
       <c r="L463" s="18"/>
       <c r="M463" s="19"/>
     </row>
-    <row r="464" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="464" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J464" s="21"/>
       <c r="K464" s="22"/>
       <c r="L464" s="18"/>
       <c r="M464" s="19"/>
     </row>
-    <row r="465" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="465" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J465" s="21"/>
       <c r="K465" s="22"/>
       <c r="L465" s="18"/>
       <c r="M465" s="19"/>
     </row>
-    <row r="466" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="466" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J466" s="21"/>
       <c r="K466" s="22"/>
       <c r="L466" s="18"/>
       <c r="M466" s="19"/>
     </row>
-    <row r="467" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="467" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J467" s="21"/>
       <c r="K467" s="22"/>
       <c r="L467" s="18"/>
       <c r="M467" s="19"/>
     </row>
-    <row r="468" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="468" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J468" s="21"/>
       <c r="K468" s="22"/>
       <c r="L468" s="18"/>
       <c r="M468" s="19"/>
     </row>
-    <row r="469" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="469" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J469" s="21"/>
       <c r="K469" s="22"/>
       <c r="L469" s="18"/>
       <c r="M469" s="19"/>
     </row>
-    <row r="470" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="470" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J470" s="21"/>
       <c r="K470" s="22"/>
       <c r="L470" s="18"/>
       <c r="M470" s="19"/>
     </row>
-    <row r="471" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="471" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J471" s="21"/>
       <c r="K471" s="22"/>
       <c r="L471" s="18"/>
       <c r="M471" s="19"/>
     </row>
-    <row r="472" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="472" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J472" s="21"/>
       <c r="K472" s="22"/>
       <c r="L472" s="18"/>
       <c r="M472" s="19"/>
     </row>
-    <row r="473" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="473" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J473" s="21"/>
       <c r="K473" s="22"/>
       <c r="L473" s="18"/>
       <c r="M473" s="19"/>
     </row>
-    <row r="474" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="474" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J474" s="21"/>
       <c r="K474" s="22"/>
       <c r="L474" s="18"/>
       <c r="M474" s="19"/>
     </row>
-    <row r="475" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="475" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J475" s="21"/>
       <c r="K475" s="22"/>
       <c r="L475" s="18"/>
       <c r="M475" s="19"/>
     </row>
-    <row r="476" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="476" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J476" s="21"/>
       <c r="K476" s="22"/>
       <c r="L476" s="18"/>
       <c r="M476" s="19"/>
     </row>
-    <row r="477" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="477" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J477" s="21"/>
       <c r="K477" s="22"/>
       <c r="L477" s="18"/>
       <c r="M477" s="19"/>
     </row>
-    <row r="478" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="478" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J478" s="21"/>
       <c r="K478" s="22"/>
       <c r="L478" s="18"/>
       <c r="M478" s="19"/>
     </row>
-    <row r="479" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="479" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J479" s="21"/>
       <c r="K479" s="22"/>
       <c r="L479" s="18"/>
       <c r="M479" s="19"/>
     </row>
-    <row r="480" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="480" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J480" s="21"/>
       <c r="K480" s="22"/>
       <c r="L480" s="18"/>
       <c r="M480" s="19"/>
     </row>
-    <row r="481" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="481" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J481" s="21"/>
       <c r="K481" s="22"/>
       <c r="L481" s="18"/>
       <c r="M481" s="19"/>
     </row>
-    <row r="482" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="482" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J482" s="21"/>
       <c r="K482" s="22"/>
       <c r="L482" s="18"/>
       <c r="M482" s="19"/>
     </row>
-    <row r="483" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="483" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J483" s="21"/>
       <c r="K483" s="22"/>
       <c r="L483" s="18"/>
       <c r="M483" s="19"/>
     </row>
-    <row r="484" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="484" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J484" s="21"/>
       <c r="K484" s="22"/>
       <c r="L484" s="18"/>
       <c r="M484" s="19"/>
     </row>
-    <row r="485" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="485" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J485" s="21"/>
       <c r="K485" s="22"/>
       <c r="L485" s="18"/>
       <c r="M485" s="19"/>
     </row>
-    <row r="486" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="486" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J486" s="21"/>
       <c r="K486" s="22"/>
       <c r="L486" s="18"/>
       <c r="M486" s="19"/>
     </row>
-    <row r="487" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="487" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J487" s="21"/>
       <c r="K487" s="22"/>
       <c r="L487" s="18"/>
       <c r="M487" s="19"/>
     </row>
-    <row r="488" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="488" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J488" s="21"/>
       <c r="K488" s="22"/>
       <c r="L488" s="18"/>
       <c r="M488" s="19"/>
     </row>
-    <row r="489" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="489" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J489" s="21"/>
       <c r="K489" s="22"/>
       <c r="L489" s="18"/>
       <c r="M489" s="19"/>
     </row>
-    <row r="490" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="490" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J490" s="21"/>
       <c r="K490" s="22"/>
       <c r="L490" s="18"/>
       <c r="M490" s="19"/>
     </row>
-    <row r="491" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="491" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J491" s="21"/>
       <c r="K491" s="22"/>
       <c r="L491" s="18"/>
       <c r="M491" s="19"/>
     </row>
-    <row r="492" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="492" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J492" s="21"/>
       <c r="K492" s="22"/>
       <c r="L492" s="18"/>
       <c r="M492" s="19"/>
     </row>
-    <row r="493" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="493" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J493" s="21"/>
       <c r="K493" s="22"/>
       <c r="L493" s="18"/>
       <c r="M493" s="19"/>
     </row>
-    <row r="494" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="494" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J494" s="21"/>
       <c r="K494" s="22"/>
       <c r="L494" s="18"/>
       <c r="M494" s="19"/>
     </row>
-    <row r="495" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="495" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J495" s="21"/>
       <c r="K495" s="22"/>
       <c r="L495" s="18"/>
       <c r="M495" s="19"/>
     </row>
-    <row r="496" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="496" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J496" s="21"/>
       <c r="K496" s="22"/>
       <c r="L496" s="18"/>
       <c r="M496" s="19"/>
     </row>
-    <row r="497" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="497" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J497" s="21"/>
       <c r="K497" s="22"/>
       <c r="L497" s="18"/>
       <c r="M497" s="19"/>
     </row>
-    <row r="498" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="498" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J498" s="21"/>
       <c r="K498" s="22"/>
       <c r="L498" s="18"/>
       <c r="M498" s="19"/>
     </row>
-    <row r="499" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="499" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J499" s="21"/>
       <c r="K499" s="22"/>
       <c r="L499" s="18"/>
       <c r="M499" s="19"/>
     </row>
-    <row r="500" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="500" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J500" s="21"/>
       <c r="K500" s="22"/>
       <c r="L500" s="18"/>
       <c r="M500" s="19"/>
     </row>
-    <row r="501" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="501" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J501" s="21"/>
       <c r="K501" s="22"/>
       <c r="L501" s="18"/>
       <c r="M501" s="19"/>
     </row>
-    <row r="502" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="502" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J502" s="21"/>
       <c r="K502" s="22"/>
       <c r="L502" s="18"/>
       <c r="M502" s="19"/>
     </row>
-    <row r="503" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="503" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J503" s="21"/>
       <c r="K503" s="22"/>
       <c r="L503" s="18"/>
       <c r="M503" s="19"/>
     </row>
-    <row r="504" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="504" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J504" s="21"/>
       <c r="K504" s="22"/>
       <c r="L504" s="18"/>
       <c r="M504" s="19"/>
     </row>
-    <row r="505" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="505" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J505" s="21"/>
       <c r="K505" s="22"/>
       <c r="L505" s="18"/>
       <c r="M505" s="19"/>
     </row>
-    <row r="506" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="506" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J506" s="21"/>
       <c r="K506" s="22"/>
       <c r="L506" s="18"/>
       <c r="M506" s="19"/>
     </row>
-    <row r="507" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="507" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J507" s="21"/>
       <c r="K507" s="22"/>
       <c r="L507" s="18"/>
       <c r="M507" s="19"/>
     </row>
-    <row r="508" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="508" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J508" s="21"/>
       <c r="K508" s="22"/>
       <c r="L508" s="18"/>
       <c r="M508" s="19"/>
     </row>
-    <row r="509" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="509" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J509" s="21"/>
       <c r="K509" s="22"/>
       <c r="L509" s="18"/>
       <c r="M509" s="19"/>
     </row>
-    <row r="510" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="510" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J510" s="21"/>
       <c r="K510" s="22"/>
       <c r="L510" s="18"/>
       <c r="M510" s="19"/>
     </row>
-    <row r="511" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="511" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J511" s="21"/>
       <c r="K511" s="22"/>
       <c r="L511" s="18"/>
       <c r="M511" s="19"/>
     </row>
-    <row r="512" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="512" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J512" s="21"/>
       <c r="K512" s="22"/>
       <c r="L512" s="18"/>
       <c r="M512" s="19"/>
     </row>
-    <row r="513" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="513" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J513" s="21"/>
       <c r="K513" s="22"/>
       <c r="L513" s="18"/>
       <c r="M513" s="19"/>
     </row>
-    <row r="514" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="514" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J514" s="21"/>
       <c r="K514" s="22"/>
       <c r="L514" s="18"/>
       <c r="M514" s="19"/>
     </row>
-    <row r="515" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="515" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J515" s="21"/>
       <c r="K515" s="22"/>
       <c r="L515" s="18"/>
       <c r="M515" s="19"/>
     </row>
-    <row r="516" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="516" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J516" s="21"/>
       <c r="K516" s="22"/>
       <c r="L516" s="18"/>
       <c r="M516" s="19"/>
     </row>
-    <row r="517" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="517" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J517" s="21"/>
       <c r="K517" s="22"/>
       <c r="L517" s="18"/>
       <c r="M517" s="19"/>
     </row>
-    <row r="518" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="518" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J518" s="21"/>
       <c r="K518" s="22"/>
       <c r="L518" s="18"/>
       <c r="M518" s="19"/>
     </row>
-    <row r="519" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="519" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J519" s="21"/>
       <c r="K519" s="22"/>
       <c r="L519" s="18"/>
       <c r="M519" s="19"/>
     </row>
-    <row r="520" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="520" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J520" s="21"/>
       <c r="K520" s="22"/>
       <c r="L520" s="18"/>
       <c r="M520" s="19"/>
     </row>
-    <row r="521" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="521" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J521" s="21"/>
       <c r="K521" s="22"/>
       <c r="L521" s="18"/>
       <c r="M521" s="19"/>
     </row>
-    <row r="522" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="522" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J522" s="21"/>
       <c r="K522" s="22"/>
       <c r="L522" s="18"/>
       <c r="M522" s="19"/>
     </row>
-    <row r="523" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="523" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J523" s="21"/>
       <c r="K523" s="22"/>
       <c r="L523" s="18"/>
       <c r="M523" s="19"/>
     </row>
-    <row r="524" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="524" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J524" s="21"/>
       <c r="K524" s="22"/>
       <c r="L524" s="18"/>
       <c r="M524" s="19"/>
     </row>
-    <row r="525" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="525" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J525" s="21"/>
       <c r="K525" s="22"/>
       <c r="L525" s="18"/>
       <c r="M525" s="19"/>
     </row>
-    <row r="526" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="526" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J526" s="21"/>
       <c r="K526" s="22"/>
       <c r="L526" s="18"/>
       <c r="M526" s="19"/>
     </row>
-    <row r="527" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="527" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J527" s="21"/>
       <c r="K527" s="22"/>
       <c r="L527" s="18"/>
       <c r="M527" s="19"/>
     </row>
-    <row r="528" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="528" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J528" s="21"/>
       <c r="K528" s="22"/>
       <c r="L528" s="18"/>
       <c r="M528" s="19"/>
     </row>
-    <row r="529" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="529" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J529" s="21"/>
       <c r="K529" s="22"/>
       <c r="L529" s="18"/>
       <c r="M529" s="19"/>
     </row>
-    <row r="530" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="530" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J530" s="21"/>
       <c r="K530" s="22"/>
       <c r="L530" s="18"/>
       <c r="M530" s="19"/>
     </row>
-    <row r="531" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="531" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J531" s="21"/>
       <c r="K531" s="22"/>
       <c r="L531" s="18"/>
       <c r="M531" s="19"/>
     </row>
-    <row r="532" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="532" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J532" s="21"/>
       <c r="K532" s="22"/>
       <c r="L532" s="18"/>
       <c r="M532" s="19"/>
     </row>
-    <row r="533" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="533" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J533" s="21"/>
       <c r="K533" s="22"/>
       <c r="L533" s="18"/>
       <c r="M533" s="19"/>
     </row>
-    <row r="534" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="534" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J534" s="21"/>
       <c r="K534" s="22"/>
       <c r="L534" s="18"/>
       <c r="M534" s="19"/>
     </row>
-    <row r="535" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="535" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J535" s="21"/>
       <c r="K535" s="22"/>
       <c r="L535" s="18"/>
       <c r="M535" s="19"/>
     </row>
-    <row r="536" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="536" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J536" s="21"/>
       <c r="K536" s="22"/>
       <c r="L536" s="18"/>
       <c r="M536" s="19"/>
     </row>
-    <row r="537" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="537" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J537" s="21"/>
       <c r="K537" s="22"/>
       <c r="L537" s="18"/>
       <c r="M537" s="19"/>
     </row>
-    <row r="538" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="538" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J538" s="21"/>
       <c r="K538" s="22"/>
       <c r="L538" s="18"/>
       <c r="M538" s="19"/>
     </row>
-    <row r="539" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="539" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J539" s="21"/>
       <c r="K539" s="22"/>
       <c r="L539" s="18"/>
       <c r="M539" s="19"/>
     </row>
-    <row r="540" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="540" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J540" s="21"/>
       <c r="K540" s="22"/>
       <c r="L540" s="18"/>
       <c r="M540" s="19"/>
     </row>
-    <row r="541" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="541" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J541" s="21"/>
       <c r="K541" s="22"/>
       <c r="L541" s="18"/>
       <c r="M541" s="19"/>
     </row>
-    <row r="542" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="542" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J542" s="21"/>
       <c r="K542" s="22"/>
       <c r="L542" s="18"/>
       <c r="M542" s="19"/>
     </row>
-    <row r="543" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="543" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J543" s="21"/>
       <c r="K543" s="22"/>
       <c r="L543" s="18"/>
       <c r="M543" s="19"/>
     </row>
-    <row r="544" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="544" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J544" s="21"/>
       <c r="K544" s="22"/>
       <c r="L544" s="18"/>
       <c r="M544" s="19"/>
     </row>
-    <row r="545" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="545" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J545" s="21"/>
       <c r="K545" s="22"/>
       <c r="L545" s="18"/>
       <c r="M545" s="19"/>
     </row>
-    <row r="546" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="546" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J546" s="21"/>
       <c r="K546" s="22"/>
       <c r="L546" s="18"/>
       <c r="M546" s="19"/>
     </row>
-    <row r="547" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="547" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J547" s="21"/>
       <c r="K547" s="22"/>
       <c r="L547" s="18"/>
       <c r="M547" s="19"/>
     </row>
-    <row r="548" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="548" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J548" s="21"/>
       <c r="K548" s="22"/>
       <c r="L548" s="18"/>
       <c r="M548" s="19"/>
     </row>
-    <row r="549" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="549" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J549" s="21"/>
       <c r="K549" s="22"/>
       <c r="L549" s="18"/>
       <c r="M549" s="19"/>
     </row>
-    <row r="550" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="550" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J550" s="21"/>
       <c r="K550" s="22"/>
       <c r="L550" s="18"/>
       <c r="M550" s="19"/>
     </row>
-    <row r="551" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="551" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J551" s="21"/>
       <c r="K551" s="22"/>
       <c r="L551" s="18"/>
       <c r="M551" s="19"/>
     </row>
-    <row r="552" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="552" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J552" s="21"/>
       <c r="K552" s="22"/>
       <c r="L552" s="18"/>
       <c r="M552" s="19"/>
     </row>
-    <row r="553" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="553" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J553" s="21"/>
       <c r="K553" s="22"/>
       <c r="L553" s="18"/>
       <c r="M553" s="19"/>
     </row>
-    <row r="554" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="554" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J554" s="21"/>
       <c r="K554" s="22"/>
       <c r="L554" s="18"/>
       <c r="M554" s="19"/>
     </row>
-    <row r="555" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="555" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J555" s="21"/>
       <c r="K555" s="22"/>
       <c r="L555" s="18"/>
       <c r="M555" s="19"/>
     </row>
-    <row r="556" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="556" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J556" s="21"/>
       <c r="K556" s="22"/>
       <c r="L556" s="18"/>
       <c r="M556" s="19"/>
     </row>
-    <row r="557" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="557" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J557" s="21"/>
       <c r="K557" s="22"/>
       <c r="L557" s="18"/>
       <c r="M557" s="19"/>
     </row>
-    <row r="558" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="558" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J558" s="21"/>
       <c r="K558" s="22"/>
       <c r="L558" s="18"/>
       <c r="M558" s="19"/>
     </row>
-    <row r="559" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="559" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J559" s="21"/>
       <c r="K559" s="22"/>
       <c r="L559" s="18"/>
       <c r="M559" s="19"/>
     </row>
-    <row r="560" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="560" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J560" s="21"/>
       <c r="K560" s="22"/>
       <c r="L560" s="18"/>
       <c r="M560" s="19"/>
     </row>
-    <row r="561" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="561" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J561" s="21"/>
       <c r="K561" s="22"/>
       <c r="L561" s="18"/>
       <c r="M561" s="19"/>
     </row>
-    <row r="562" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="562" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J562" s="21"/>
       <c r="K562" s="22"/>
       <c r="L562" s="18"/>
       <c r="M562" s="19"/>
     </row>
-    <row r="563" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="563" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J563" s="21"/>
       <c r="K563" s="22"/>
       <c r="L563" s="18"/>
       <c r="M563" s="19"/>
     </row>
-    <row r="564" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="564" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J564" s="21"/>
       <c r="K564" s="22"/>
       <c r="L564" s="18"/>
       <c r="M564" s="19"/>
     </row>
-    <row r="565" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="565" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J565" s="21"/>
       <c r="K565" s="22"/>
       <c r="L565" s="18"/>
       <c r="M565" s="19"/>
     </row>
-    <row r="566" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="566" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J566" s="21"/>
       <c r="K566" s="22"/>
       <c r="L566" s="18"/>
       <c r="M566" s="19"/>
     </row>
-    <row r="567" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="567" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J567" s="21"/>
       <c r="K567" s="22"/>
       <c r="L567" s="18"/>
       <c r="M567" s="19"/>
     </row>
-    <row r="568" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="568" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J568" s="21"/>
       <c r="K568" s="22"/>
       <c r="L568" s="18"/>
       <c r="M568" s="19"/>
     </row>
-    <row r="569" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="569" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J569" s="21"/>
       <c r="K569" s="22"/>
       <c r="L569" s="18"/>
       <c r="M569" s="19"/>
     </row>
-    <row r="570" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="570" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J570" s="21"/>
       <c r="K570" s="22"/>
       <c r="L570" s="18"/>
       <c r="M570" s="19"/>
     </row>
-    <row r="571" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="571" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J571" s="21"/>
       <c r="K571" s="22"/>
       <c r="L571" s="18"/>
       <c r="M571" s="19"/>
     </row>
-    <row r="572" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="572" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J572" s="21"/>
       <c r="K572" s="22"/>
       <c r="L572" s="18"/>
       <c r="M572" s="19"/>
     </row>
-    <row r="573" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="573" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J573" s="21"/>
       <c r="K573" s="22"/>
       <c r="L573" s="18"/>
       <c r="M573" s="19"/>
     </row>
-    <row r="574" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="574" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J574" s="21"/>
       <c r="K574" s="22"/>
       <c r="L574" s="18"/>
       <c r="M574" s="19"/>
     </row>
-    <row r="575" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="575" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J575" s="21"/>
       <c r="K575" s="22"/>
       <c r="L575" s="18"/>
       <c r="M575" s="19"/>
     </row>
-    <row r="576" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="576" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J576" s="21"/>
       <c r="K576" s="22"/>
       <c r="L576" s="18"/>
       <c r="M576" s="19"/>
     </row>
-    <row r="577" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="577" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J577" s="21"/>
       <c r="K577" s="22"/>
       <c r="L577" s="18"/>
       <c r="M577" s="19"/>
     </row>
-    <row r="578" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="578" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J578" s="21"/>
       <c r="K578" s="22"/>
       <c r="L578" s="18"/>
       <c r="M578" s="19"/>
     </row>
-    <row r="579" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="579" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J579" s="21"/>
       <c r="K579" s="22"/>
       <c r="L579" s="18"/>
       <c r="M579" s="19"/>
     </row>
-    <row r="580" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="580" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J580" s="21"/>
       <c r="K580" s="22"/>
       <c r="L580" s="18"/>
       <c r="M580" s="19"/>
     </row>
-    <row r="581" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="581" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J581" s="21"/>
       <c r="K581" s="22"/>
       <c r="L581" s="18"/>
       <c r="M581" s="19"/>
     </row>
-    <row r="582" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="582" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J582" s="21"/>
       <c r="K582" s="22"/>
       <c r="L582" s="18"/>
       <c r="M582" s="19"/>
     </row>
-    <row r="583" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="583" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J583" s="21"/>
       <c r="K583" s="22"/>
       <c r="L583" s="18"/>
       <c r="M583" s="19"/>
     </row>
-    <row r="584" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="584" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J584" s="21"/>
       <c r="K584" s="22"/>
       <c r="L584" s="18"/>
       <c r="M584" s="19"/>
     </row>
-    <row r="585" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="585" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J585" s="21"/>
       <c r="K585" s="22"/>
       <c r="L585" s="18"/>
       <c r="M585" s="19"/>
     </row>
-    <row r="586" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="586" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J586" s="21"/>
       <c r="K586" s="22"/>
       <c r="L586" s="18"/>
       <c r="M586" s="19"/>
     </row>
-    <row r="587" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="587" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J587" s="21"/>
       <c r="K587" s="22"/>
       <c r="L587" s="18"/>
       <c r="M587" s="19"/>
     </row>
-    <row r="588" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="588" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J588" s="21"/>
       <c r="K588" s="22"/>
       <c r="L588" s="18"/>
       <c r="M588" s="19"/>
     </row>
-    <row r="589" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="589" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J589" s="21"/>
       <c r="K589" s="22"/>
       <c r="L589" s="18"/>
       <c r="M589" s="19"/>
     </row>
-    <row r="590" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="590" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J590" s="21"/>
       <c r="K590" s="22"/>
       <c r="L590" s="18"/>
       <c r="M590" s="19"/>
     </row>
-    <row r="591" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="591" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J591" s="21"/>
       <c r="K591" s="22"/>
       <c r="L591" s="18"/>
       <c r="M591" s="19"/>
     </row>
-    <row r="592" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="592" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J592" s="21"/>
       <c r="K592" s="22"/>
       <c r="L592" s="18"/>
       <c r="M592" s="19"/>
     </row>
-    <row r="593" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="593" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J593" s="21"/>
       <c r="K593" s="22"/>
       <c r="L593" s="18"/>
       <c r="M593" s="19"/>
     </row>
-    <row r="594" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="594" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J594" s="21"/>
       <c r="K594" s="22"/>
       <c r="L594" s="18"/>
       <c r="M594" s="19"/>
     </row>
-    <row r="595" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="595" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J595" s="21"/>
       <c r="K595" s="22"/>
       <c r="L595" s="18"/>
       <c r="M595" s="19"/>
     </row>
-    <row r="596" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="596" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J596" s="21"/>
       <c r="K596" s="22"/>
       <c r="L596" s="18"/>
       <c r="M596" s="19"/>
     </row>
-    <row r="597" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="597" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J597" s="21"/>
       <c r="K597" s="22"/>
       <c r="L597" s="18"/>
       <c r="M597" s="19"/>
     </row>
-    <row r="598" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="598" spans="10:13" x14ac:dyDescent="0.3">
       <c r="J598" s="21"/>
       <c r="K598" s="22"/>
       <c r="L598" s="18"/>
@@ -10696,15 +10804,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10720,13 +10828,13 @@
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>114300</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>57150</xdr:rowOff>
+                    <xdr:rowOff>60960</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>419100</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>133350</xdr:rowOff>
+                    <xdr:rowOff>137160</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10740,15 +10848,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10762,15 +10870,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>9</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10784,15 +10892,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10806,15 +10914,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10828,15 +10936,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10850,15 +10958,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>11</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10872,15 +10980,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>12</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10894,15 +11002,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10916,15 +11024,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>14</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10938,15 +11046,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10960,15 +11068,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>16</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -10982,15 +11090,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>17</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11004,15 +11112,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>18</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11026,15 +11134,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>19</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11048,15 +11156,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11070,15 +11178,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>21</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11092,15 +11200,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11114,15 +11222,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>23</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11136,15 +11244,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>24</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11158,15 +11266,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>25</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11180,15 +11288,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>26</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11202,15 +11310,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11224,15 +11332,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>28</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11246,15 +11354,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>29</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11268,15 +11376,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>30</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11290,15 +11398,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>31</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11312,15 +11420,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>32</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11334,15 +11442,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>33</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11356,15 +11464,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>34</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>34</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11378,15 +11486,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>35</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>35</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11400,15 +11508,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>36</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>36</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11422,15 +11530,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>37</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>37</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11444,15 +11552,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>38</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>38</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11466,15 +11574,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>39</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11488,15 +11596,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>40</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11510,15 +11618,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>41</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11532,15 +11640,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>42</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11554,15 +11662,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>43</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11576,15 +11684,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>44</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11598,15 +11706,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>45</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11620,15 +11728,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>46</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11642,15 +11750,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>47</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11664,15 +11772,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>48</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11686,15 +11794,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>49</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11708,15 +11816,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>50</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11730,15 +11838,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>51</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11752,15 +11860,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>52</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11774,15 +11882,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>53</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>53</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11796,15 +11904,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>54</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11818,15 +11926,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>55</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11840,15 +11948,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>56</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11862,15 +11970,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>57</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11884,15 +11992,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>61</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11906,15 +12014,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>60</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11928,15 +12036,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>59</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -11950,15 +12058,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:colOff>45720</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>28575</xdr:rowOff>
+                    <xdr:rowOff>30480</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>552450</xdr:colOff>
+                    <xdr:colOff>556260</xdr:colOff>
                     <xdr:row>58</xdr:row>
-                    <xdr:rowOff>161925</xdr:rowOff>
+                    <xdr:rowOff>160020</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
